--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1923800</v>
+        <v>2381400</v>
       </c>
       <c r="E8" s="3">
-        <v>1275000</v>
+        <v>1876600</v>
       </c>
       <c r="F8" s="3">
-        <v>79400</v>
+        <v>1243700</v>
       </c>
       <c r="G8" s="3">
-        <v>19200</v>
+        <v>77400</v>
       </c>
       <c r="H8" s="3">
-        <v>6400</v>
+        <v>18800</v>
       </c>
       <c r="I8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1030600</v>
+        <v>1188600</v>
       </c>
       <c r="E9" s="3">
-        <v>627500</v>
+        <v>1005300</v>
       </c>
       <c r="F9" s="3">
-        <v>34600</v>
+        <v>612100</v>
       </c>
       <c r="G9" s="3">
-        <v>4300</v>
+        <v>33800</v>
       </c>
       <c r="H9" s="3">
-        <v>2300</v>
+        <v>4200</v>
       </c>
       <c r="I9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>893200</v>
+        <v>1192900</v>
       </c>
       <c r="E10" s="3">
-        <v>647500</v>
+        <v>871300</v>
       </c>
       <c r="F10" s="3">
-        <v>44700</v>
+        <v>631600</v>
       </c>
       <c r="G10" s="3">
-        <v>14900</v>
+        <v>43600</v>
       </c>
       <c r="H10" s="3">
-        <v>4200</v>
+        <v>14500</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>109100</v>
+        <v>153300</v>
       </c>
       <c r="E12" s="3">
-        <v>49700</v>
+        <v>106500</v>
       </c>
       <c r="F12" s="3">
-        <v>4500</v>
+        <v>48400</v>
       </c>
       <c r="G12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H12" s="3">
         <v>3300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,24 +888,27 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6200</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="F14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1461400</v>
+        <v>1886100</v>
       </c>
       <c r="E17" s="3">
-        <v>930100</v>
+        <v>1425500</v>
       </c>
       <c r="F17" s="3">
-        <v>59500</v>
+        <v>907300</v>
       </c>
       <c r="G17" s="3">
-        <v>18400</v>
+        <v>58000</v>
       </c>
       <c r="H17" s="3">
-        <v>10200</v>
+        <v>18000</v>
       </c>
       <c r="I17" s="3">
-        <v>1800</v>
+        <v>9900</v>
       </c>
       <c r="J17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>462400</v>
+        <v>495300</v>
       </c>
       <c r="E18" s="3">
-        <v>344900</v>
+        <v>451100</v>
       </c>
       <c r="F18" s="3">
-        <v>19900</v>
+        <v>336500</v>
       </c>
       <c r="G18" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3800</v>
-      </c>
       <c r="I18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,79 +1050,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39200</v>
+        <v>57000</v>
       </c>
       <c r="E20" s="3">
-        <v>20900</v>
+        <v>38200</v>
       </c>
       <c r="F20" s="3">
-        <v>1200</v>
+        <v>20400</v>
       </c>
       <c r="G20" s="3">
         <v>1100</v>
       </c>
       <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>536200</v>
+        <v>602000</v>
       </c>
       <c r="E21" s="3">
-        <v>377800</v>
+        <v>523000</v>
       </c>
       <c r="F21" s="3">
-        <v>22300</v>
+        <v>368500</v>
       </c>
       <c r="G21" s="3">
-        <v>2900</v>
+        <v>21700</v>
       </c>
       <c r="H21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8100</v>
+        <v>11000</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1104,57 +1143,63 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>493500</v>
+        <v>541400</v>
       </c>
       <c r="E23" s="3">
-        <v>365800</v>
+        <v>481400</v>
       </c>
       <c r="F23" s="3">
-        <v>21100</v>
+        <v>356900</v>
       </c>
       <c r="G23" s="3">
+        <v>20600</v>
+      </c>
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100400</v>
+        <v>123700</v>
       </c>
       <c r="E24" s="3">
-        <v>63800</v>
+        <v>97900</v>
       </c>
       <c r="F24" s="3">
+        <v>62300</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1164,12 +1209,15 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>393100</v>
+        <v>417700</v>
       </c>
       <c r="E26" s="3">
-        <v>302000</v>
+        <v>383500</v>
       </c>
       <c r="F26" s="3">
-        <v>20300</v>
+        <v>294600</v>
       </c>
       <c r="G26" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>404000</v>
+        <v>415800</v>
       </c>
       <c r="E27" s="3">
-        <v>308200</v>
+        <v>394100</v>
       </c>
       <c r="F27" s="3">
-        <v>20400</v>
+        <v>300600</v>
       </c>
       <c r="G27" s="3">
-        <v>1800</v>
+        <v>19900</v>
       </c>
       <c r="H27" s="3">
-        <v>-11900</v>
+        <v>1700</v>
       </c>
       <c r="I27" s="3">
-        <v>-2500</v>
+        <v>-11600</v>
       </c>
       <c r="J27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39200</v>
+        <v>-57000</v>
       </c>
       <c r="E32" s="3">
-        <v>-20900</v>
+        <v>-38200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1200</v>
+        <v>-20400</v>
       </c>
       <c r="G32" s="3">
         <v>-1100</v>
       </c>
       <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>404000</v>
+        <v>415800</v>
       </c>
       <c r="E33" s="3">
-        <v>308200</v>
+        <v>394100</v>
       </c>
       <c r="F33" s="3">
-        <v>20400</v>
+        <v>300600</v>
       </c>
       <c r="G33" s="3">
-        <v>1800</v>
+        <v>19900</v>
       </c>
       <c r="H33" s="3">
-        <v>-11900</v>
+        <v>1700</v>
       </c>
       <c r="I33" s="3">
-        <v>-2500</v>
+        <v>-11600</v>
       </c>
       <c r="J33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>404000</v>
+        <v>415800</v>
       </c>
       <c r="E35" s="3">
-        <v>308200</v>
+        <v>394100</v>
       </c>
       <c r="F35" s="3">
-        <v>20400</v>
+        <v>300600</v>
       </c>
       <c r="G35" s="3">
-        <v>1800</v>
+        <v>19900</v>
       </c>
       <c r="H35" s="3">
-        <v>-11900</v>
+        <v>1700</v>
       </c>
       <c r="I35" s="3">
-        <v>-2500</v>
+        <v>-11600</v>
       </c>
       <c r="J35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,55 +1646,59 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>354100</v>
+        <v>366200</v>
       </c>
       <c r="E41" s="3">
-        <v>640200</v>
+        <v>345900</v>
       </c>
       <c r="F41" s="3">
-        <v>37000</v>
+        <v>625400</v>
       </c>
       <c r="G41" s="3">
-        <v>24300</v>
+        <v>36100</v>
       </c>
       <c r="H41" s="3">
-        <v>64700</v>
+        <v>23800</v>
       </c>
       <c r="I41" s="3">
-        <v>7900</v>
+        <v>63200</v>
       </c>
       <c r="J41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1266200</v>
+        <v>1725700</v>
       </c>
       <c r="E42" s="3">
-        <v>350500</v>
+        <v>1236900</v>
       </c>
       <c r="F42" s="3">
-        <v>56500</v>
+        <v>342300</v>
       </c>
       <c r="G42" s="3">
-        <v>43000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>55200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>42000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1620,39 +1709,45 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>125700</v>
+        <v>73300</v>
       </c>
       <c r="E43" s="3">
-        <v>58800</v>
+        <v>122700</v>
       </c>
       <c r="F43" s="3">
-        <v>6300</v>
+        <v>57400</v>
       </c>
       <c r="G43" s="3">
-        <v>3600</v>
+        <v>6200</v>
       </c>
       <c r="H43" s="3">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="I43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,140 +1775,155 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66700</v>
+        <v>48400</v>
       </c>
       <c r="E45" s="3">
-        <v>65900</v>
+        <v>65200</v>
       </c>
       <c r="F45" s="3">
-        <v>3600</v>
+        <v>64300</v>
       </c>
       <c r="G45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1812600</v>
+        <v>2213700</v>
       </c>
       <c r="E46" s="3">
-        <v>1109700</v>
+        <v>1770700</v>
       </c>
       <c r="F46" s="3">
-        <v>103300</v>
+        <v>1084000</v>
       </c>
       <c r="G46" s="3">
-        <v>72300</v>
+        <v>100900</v>
       </c>
       <c r="H46" s="3">
-        <v>66900</v>
+        <v>70600</v>
       </c>
       <c r="I46" s="3">
-        <v>8400</v>
+        <v>65300</v>
       </c>
       <c r="J46" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>64200</v>
+        <v>69500</v>
       </c>
       <c r="E47" s="3">
-        <v>41400</v>
+        <v>62700</v>
       </c>
       <c r="F47" s="3">
-        <v>4600</v>
+        <v>40400</v>
       </c>
       <c r="G47" s="3">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55600</v>
+        <v>75300</v>
       </c>
       <c r="E48" s="3">
-        <v>37400</v>
+        <v>54300</v>
       </c>
       <c r="F48" s="3">
+        <v>36500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>766700</v>
+        <v>736000</v>
       </c>
       <c r="E49" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>749000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22000</v>
+        <v>56900</v>
       </c>
       <c r="E52" s="3">
-        <v>17100</v>
+        <v>21500</v>
       </c>
       <c r="F52" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2721200</v>
+        <v>3151300</v>
       </c>
       <c r="E54" s="3">
-        <v>1215400</v>
+        <v>2658200</v>
       </c>
       <c r="F54" s="3">
-        <v>110400</v>
+        <v>1187300</v>
       </c>
       <c r="G54" s="3">
-        <v>77800</v>
+        <v>107900</v>
       </c>
       <c r="H54" s="3">
-        <v>68700</v>
+        <v>76000</v>
       </c>
       <c r="I54" s="3">
-        <v>9000</v>
+        <v>67100</v>
       </c>
       <c r="J54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,38 +2138,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>103100</v>
+        <v>100100</v>
       </c>
       <c r="E57" s="3">
-        <v>69600</v>
+        <v>100700</v>
       </c>
       <c r="F57" s="3">
-        <v>5800</v>
+        <v>68000</v>
       </c>
       <c r="G57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,77 +2201,86 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>283800</v>
+        <v>265200</v>
       </c>
       <c r="E59" s="3">
-        <v>173200</v>
+        <v>277200</v>
       </c>
       <c r="F59" s="3">
-        <v>13400</v>
+        <v>169200</v>
       </c>
       <c r="G59" s="3">
-        <v>8800</v>
+        <v>13100</v>
       </c>
       <c r="H59" s="3">
-        <v>4600</v>
+        <v>8600</v>
       </c>
       <c r="I59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>386900</v>
+        <v>365400</v>
       </c>
       <c r="E60" s="3">
-        <v>242800</v>
+        <v>377900</v>
       </c>
       <c r="F60" s="3">
-        <v>19200</v>
+        <v>237100</v>
       </c>
       <c r="G60" s="3">
-        <v>10300</v>
+        <v>18700</v>
       </c>
       <c r="H60" s="3">
-        <v>5500</v>
+        <v>10100</v>
       </c>
       <c r="I60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>699800</v>
+        <v>694400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>683600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53000</v>
+        <v>168700</v>
       </c>
       <c r="E62" s="3">
-        <v>3900</v>
+        <v>51800</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1152900</v>
+        <v>1254900</v>
       </c>
       <c r="E66" s="3">
-        <v>249300</v>
+        <v>1126200</v>
       </c>
       <c r="F66" s="3">
-        <v>19500</v>
+        <v>243500</v>
       </c>
       <c r="G66" s="3">
-        <v>10600</v>
+        <v>19000</v>
       </c>
       <c r="H66" s="3">
-        <v>5500</v>
+        <v>10300</v>
       </c>
       <c r="I66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2404,17 +2571,20 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K70" s="3">
         <v>3900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>769200</v>
+        <v>1046200</v>
       </c>
       <c r="E72" s="3">
-        <v>365200</v>
+        <v>751400</v>
       </c>
       <c r="F72" s="3">
-        <v>7300</v>
+        <v>356800</v>
       </c>
       <c r="G72" s="3">
-        <v>-13500</v>
+        <v>7200</v>
       </c>
       <c r="H72" s="3">
-        <v>-15500</v>
+        <v>-13200</v>
       </c>
       <c r="I72" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1568300</v>
+        <v>1896400</v>
       </c>
       <c r="E76" s="3">
-        <v>966100</v>
+        <v>1532000</v>
       </c>
       <c r="F76" s="3">
-        <v>91000</v>
+        <v>943800</v>
       </c>
       <c r="G76" s="3">
-        <v>67200</v>
+        <v>88900</v>
       </c>
       <c r="H76" s="3">
-        <v>63200</v>
+        <v>65600</v>
       </c>
       <c r="I76" s="3">
-        <v>-3300</v>
+        <v>61700</v>
       </c>
       <c r="J76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>404000</v>
+        <v>415800</v>
       </c>
       <c r="E81" s="3">
-        <v>308200</v>
+        <v>394100</v>
       </c>
       <c r="F81" s="3">
-        <v>20400</v>
+        <v>300600</v>
       </c>
       <c r="G81" s="3">
-        <v>1800</v>
+        <v>19900</v>
       </c>
       <c r="H81" s="3">
-        <v>-11900</v>
+        <v>1700</v>
       </c>
       <c r="I81" s="3">
-        <v>-2500</v>
+        <v>-11600</v>
       </c>
       <c r="J81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34600</v>
+        <v>49900</v>
       </c>
       <c r="E83" s="3">
-        <v>12000</v>
+        <v>33800</v>
       </c>
       <c r="F83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
-        <v>1000</v>
-      </c>
       <c r="H83" s="3">
+        <v>900</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>477500</v>
+        <v>762600</v>
       </c>
       <c r="E89" s="3">
-        <v>414100</v>
+        <v>465700</v>
       </c>
       <c r="F89" s="3">
-        <v>31300</v>
+        <v>403900</v>
       </c>
       <c r="G89" s="3">
-        <v>8200</v>
+        <v>30600</v>
       </c>
       <c r="H89" s="3">
-        <v>-900</v>
+        <v>8000</v>
       </c>
       <c r="I89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34800</v>
+        <v>-26100</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-34000</v>
       </c>
       <c r="F91" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1300</v>
-      </c>
       <c r="I91" s="3">
-        <v>-500</v>
+        <v>-1200</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1439700</v>
+        <v>-564000</v>
       </c>
       <c r="E94" s="3">
-        <v>-27000</v>
+        <v>-1404400</v>
       </c>
       <c r="F94" s="3">
-        <v>-17000</v>
+        <v>-26300</v>
       </c>
       <c r="G94" s="3">
-        <v>-47800</v>
+        <v>-16600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1400</v>
+        <v>-46700</v>
       </c>
       <c r="I94" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="J94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,13 +3292,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-122800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>672600</v>
+        <v>-178300</v>
       </c>
       <c r="E100" s="3">
+        <v>656100</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
-        <v>59200</v>
-      </c>
       <c r="I100" s="3">
-        <v>6500</v>
+        <v>57700</v>
       </c>
       <c r="J100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K100" s="3">
         <v>3400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3500</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>-3900</v>
+        <v>3400</v>
       </c>
       <c r="F101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-500</v>
-      </c>
       <c r="H101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-286100</v>
+        <v>20300</v>
       </c>
       <c r="E102" s="3">
-        <v>383700</v>
+        <v>-279100</v>
       </c>
       <c r="F102" s="3">
-        <v>12600</v>
+        <v>374200</v>
       </c>
       <c r="G102" s="3">
-        <v>-40400</v>
+        <v>12300</v>
       </c>
       <c r="H102" s="3">
-        <v>56800</v>
+        <v>-39400</v>
       </c>
       <c r="I102" s="3">
-        <v>5300</v>
+        <v>55400</v>
       </c>
       <c r="J102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2381400</v>
+        <v>2471100</v>
       </c>
       <c r="E8" s="3">
-        <v>1876600</v>
+        <v>1947300</v>
       </c>
       <c r="F8" s="3">
-        <v>1243700</v>
+        <v>1290600</v>
       </c>
       <c r="G8" s="3">
-        <v>77400</v>
+        <v>80300</v>
       </c>
       <c r="H8" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="I8" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1188600</v>
+        <v>1233300</v>
       </c>
       <c r="E9" s="3">
-        <v>1005300</v>
+        <v>1043200</v>
       </c>
       <c r="F9" s="3">
-        <v>612100</v>
+        <v>635100</v>
       </c>
       <c r="G9" s="3">
-        <v>33800</v>
+        <v>35100</v>
       </c>
       <c r="H9" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I9" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1192900</v>
+        <v>1237800</v>
       </c>
       <c r="E10" s="3">
-        <v>871300</v>
+        <v>904100</v>
       </c>
       <c r="F10" s="3">
-        <v>631600</v>
+        <v>655400</v>
       </c>
       <c r="G10" s="3">
-        <v>43600</v>
+        <v>45300</v>
       </c>
       <c r="H10" s="3">
-        <v>14500</v>
+        <v>15100</v>
       </c>
       <c r="I10" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>153300</v>
+        <v>159000</v>
       </c>
       <c r="E12" s="3">
-        <v>106500</v>
+        <v>110500</v>
       </c>
       <c r="F12" s="3">
-        <v>48400</v>
+        <v>50300</v>
       </c>
       <c r="G12" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H12" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I12" s="3">
         <v>1300</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="F14" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G14" s="3">
         <v>800</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1886100</v>
+        <v>1957100</v>
       </c>
       <c r="E17" s="3">
-        <v>1425500</v>
+        <v>1479200</v>
       </c>
       <c r="F17" s="3">
-        <v>907300</v>
+        <v>941400</v>
       </c>
       <c r="G17" s="3">
-        <v>58000</v>
+        <v>60200</v>
       </c>
       <c r="H17" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="I17" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="J17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>495300</v>
+        <v>514000</v>
       </c>
       <c r="E18" s="3">
-        <v>451100</v>
+        <v>468100</v>
       </c>
       <c r="F18" s="3">
-        <v>336500</v>
+        <v>349200</v>
       </c>
       <c r="G18" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="H18" s="3">
         <v>800</v>
       </c>
       <c r="I18" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="J18" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>57000</v>
+        <v>59200</v>
       </c>
       <c r="E20" s="3">
-        <v>38200</v>
+        <v>39600</v>
       </c>
       <c r="F20" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
         <v>1100</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>602000</v>
+        <v>624700</v>
       </c>
       <c r="E21" s="3">
-        <v>523000</v>
+        <v>542600</v>
       </c>
       <c r="F21" s="3">
-        <v>368500</v>
+        <v>382400</v>
       </c>
       <c r="G21" s="3">
-        <v>21700</v>
+        <v>22600</v>
       </c>
       <c r="H21" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I21" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J21" s="3">
         <v>-1200</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="E22" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>541400</v>
+        <v>561700</v>
       </c>
       <c r="E23" s="3">
-        <v>481400</v>
+        <v>499500</v>
       </c>
       <c r="F23" s="3">
-        <v>356900</v>
+        <v>370300</v>
       </c>
       <c r="G23" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="H23" s="3">
         <v>1900</v>
       </c>
       <c r="I23" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J23" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
@@ -1189,13 +1189,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>123700</v>
+        <v>128400</v>
       </c>
       <c r="E24" s="3">
-        <v>97900</v>
+        <v>101600</v>
       </c>
       <c r="F24" s="3">
-        <v>62300</v>
+        <v>64600</v>
       </c>
       <c r="G24" s="3">
         <v>700</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>417700</v>
+        <v>433400</v>
       </c>
       <c r="E26" s="3">
-        <v>383500</v>
+        <v>397900</v>
       </c>
       <c r="F26" s="3">
-        <v>294600</v>
+        <v>305700</v>
       </c>
       <c r="G26" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="H26" s="3">
         <v>1900</v>
       </c>
       <c r="I26" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J26" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>415800</v>
+        <v>431500</v>
       </c>
       <c r="E27" s="3">
-        <v>394100</v>
+        <v>408900</v>
       </c>
       <c r="F27" s="3">
-        <v>300600</v>
+        <v>312000</v>
       </c>
       <c r="G27" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="H27" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I27" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="J27" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K27" s="3">
         <v>-1000</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-57000</v>
+        <v>-59200</v>
       </c>
       <c r="E32" s="3">
-        <v>-38200</v>
+        <v>-39600</v>
       </c>
       <c r="F32" s="3">
-        <v>-20400</v>
+        <v>-21100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
         <v>-1100</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>415800</v>
+        <v>431500</v>
       </c>
       <c r="E33" s="3">
-        <v>394100</v>
+        <v>408900</v>
       </c>
       <c r="F33" s="3">
-        <v>300600</v>
+        <v>312000</v>
       </c>
       <c r="G33" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="H33" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I33" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="J33" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K33" s="3">
         <v>-1000</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>415800</v>
+        <v>431500</v>
       </c>
       <c r="E35" s="3">
-        <v>394100</v>
+        <v>408900</v>
       </c>
       <c r="F35" s="3">
-        <v>300600</v>
+        <v>312000</v>
       </c>
       <c r="G35" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="H35" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I35" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="J35" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K35" s="3">
         <v>-1000</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>366200</v>
+        <v>379400</v>
       </c>
       <c r="E41" s="3">
-        <v>345900</v>
+        <v>358400</v>
       </c>
       <c r="F41" s="3">
-        <v>625400</v>
+        <v>648000</v>
       </c>
       <c r="G41" s="3">
-        <v>36100</v>
+        <v>37400</v>
       </c>
       <c r="H41" s="3">
-        <v>23800</v>
+        <v>24600</v>
       </c>
       <c r="I41" s="3">
-        <v>63200</v>
+        <v>65500</v>
       </c>
       <c r="J41" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="K41" s="3">
         <v>2700</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1725700</v>
+        <v>1788200</v>
       </c>
       <c r="E42" s="3">
-        <v>1236900</v>
+        <v>1281600</v>
       </c>
       <c r="F42" s="3">
-        <v>342300</v>
+        <v>354700</v>
       </c>
       <c r="G42" s="3">
-        <v>55200</v>
+        <v>57200</v>
       </c>
       <c r="H42" s="3">
-        <v>42000</v>
+        <v>43600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>73300</v>
+        <v>75900</v>
       </c>
       <c r="E43" s="3">
-        <v>122700</v>
+        <v>127200</v>
       </c>
       <c r="F43" s="3">
-        <v>57400</v>
+        <v>59500</v>
       </c>
       <c r="G43" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H43" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I43" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48400</v>
+        <v>50200</v>
       </c>
       <c r="E45" s="3">
-        <v>65200</v>
+        <v>67500</v>
       </c>
       <c r="F45" s="3">
-        <v>64300</v>
+        <v>66700</v>
       </c>
       <c r="G45" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H45" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2213700</v>
+        <v>2293700</v>
       </c>
       <c r="E46" s="3">
-        <v>1770700</v>
+        <v>1834700</v>
       </c>
       <c r="F46" s="3">
-        <v>1084000</v>
+        <v>1123200</v>
       </c>
       <c r="G46" s="3">
-        <v>100900</v>
+        <v>104600</v>
       </c>
       <c r="H46" s="3">
-        <v>70600</v>
+        <v>73200</v>
       </c>
       <c r="I46" s="3">
-        <v>65300</v>
+        <v>67700</v>
       </c>
       <c r="J46" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="K46" s="3">
         <v>2800</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69500</v>
+        <v>72000</v>
       </c>
       <c r="E47" s="3">
-        <v>62700</v>
+        <v>65000</v>
       </c>
       <c r="F47" s="3">
-        <v>40400</v>
+        <v>41900</v>
       </c>
       <c r="G47" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>75300</v>
+        <v>78000</v>
       </c>
       <c r="E48" s="3">
-        <v>54300</v>
+        <v>56300</v>
       </c>
       <c r="F48" s="3">
-        <v>36500</v>
+        <v>37900</v>
       </c>
       <c r="G48" s="3">
         <v>2000</v>
       </c>
       <c r="H48" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I48" s="3">
         <v>1400</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>736000</v>
+        <v>762600</v>
       </c>
       <c r="E49" s="3">
-        <v>749000</v>
+        <v>776100</v>
       </c>
       <c r="F49" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>56900</v>
+        <v>59000</v>
       </c>
       <c r="E52" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="F52" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3151300</v>
+        <v>3265300</v>
       </c>
       <c r="E54" s="3">
-        <v>2658200</v>
+        <v>2754400</v>
       </c>
       <c r="F54" s="3">
-        <v>1187300</v>
+        <v>1230300</v>
       </c>
       <c r="G54" s="3">
-        <v>107900</v>
+        <v>111800</v>
       </c>
       <c r="H54" s="3">
-        <v>76000</v>
+        <v>78700</v>
       </c>
       <c r="I54" s="3">
-        <v>67100</v>
+        <v>69500</v>
       </c>
       <c r="J54" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="K54" s="3">
         <v>3000</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100100</v>
+        <v>103700</v>
       </c>
       <c r="E57" s="3">
-        <v>100700</v>
+        <v>104300</v>
       </c>
       <c r="F57" s="3">
-        <v>68000</v>
+        <v>70400</v>
       </c>
       <c r="G57" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H57" s="3">
         <v>1500</v>
       </c>
       <c r="I57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>265200</v>
+        <v>274800</v>
       </c>
       <c r="E59" s="3">
-        <v>277200</v>
+        <v>287300</v>
       </c>
       <c r="F59" s="3">
-        <v>169200</v>
+        <v>175300</v>
       </c>
       <c r="G59" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="H59" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="I59" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>365400</v>
+        <v>378600</v>
       </c>
       <c r="E60" s="3">
-        <v>377900</v>
+        <v>391600</v>
       </c>
       <c r="F60" s="3">
-        <v>237100</v>
+        <v>245700</v>
       </c>
       <c r="G60" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="H60" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="I60" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
@@ -2277,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>694400</v>
+        <v>719500</v>
       </c>
       <c r="E61" s="3">
-        <v>683600</v>
+        <v>708300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>168700</v>
+        <v>174800</v>
       </c>
       <c r="E62" s="3">
-        <v>51800</v>
+        <v>53600</v>
       </c>
       <c r="F62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1254900</v>
+        <v>1300300</v>
       </c>
       <c r="E66" s="3">
-        <v>1126200</v>
+        <v>1166900</v>
       </c>
       <c r="F66" s="3">
-        <v>243500</v>
+        <v>252400</v>
       </c>
       <c r="G66" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="H66" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="I66" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="K70" s="3">
         <v>3900</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1046200</v>
+        <v>1084100</v>
       </c>
       <c r="E72" s="3">
-        <v>751400</v>
+        <v>778600</v>
       </c>
       <c r="F72" s="3">
-        <v>356800</v>
+        <v>369700</v>
       </c>
       <c r="G72" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H72" s="3">
-        <v>-13200</v>
+        <v>-13700</v>
       </c>
       <c r="I72" s="3">
-        <v>-15100</v>
+        <v>-15700</v>
       </c>
       <c r="J72" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="K72" s="3">
         <v>-1000</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1896400</v>
+        <v>1965000</v>
       </c>
       <c r="E76" s="3">
-        <v>1532000</v>
+        <v>1587400</v>
       </c>
       <c r="F76" s="3">
-        <v>943800</v>
+        <v>977900</v>
       </c>
       <c r="G76" s="3">
-        <v>88900</v>
+        <v>92100</v>
       </c>
       <c r="H76" s="3">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="I76" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="J76" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="K76" s="3">
         <v>-900</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>415800</v>
+        <v>431500</v>
       </c>
       <c r="E81" s="3">
-        <v>394100</v>
+        <v>408900</v>
       </c>
       <c r="F81" s="3">
-        <v>300600</v>
+        <v>312000</v>
       </c>
       <c r="G81" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="H81" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I81" s="3">
-        <v>-11600</v>
+        <v>-12100</v>
       </c>
       <c r="J81" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K81" s="3">
         <v>-1000</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>49900</v>
+        <v>51700</v>
       </c>
       <c r="E83" s="3">
-        <v>33800</v>
+        <v>35000</v>
       </c>
       <c r="F83" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
       </c>
       <c r="H83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>762600</v>
+        <v>791300</v>
       </c>
       <c r="E89" s="3">
-        <v>465700</v>
+        <v>483300</v>
       </c>
       <c r="F89" s="3">
-        <v>403900</v>
+        <v>419100</v>
       </c>
       <c r="G89" s="3">
-        <v>30600</v>
+        <v>31700</v>
       </c>
       <c r="H89" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="I89" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26100</v>
+        <v>-27100</v>
       </c>
       <c r="E91" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="F91" s="3">
-        <v>-30600</v>
+        <v>-31800</v>
       </c>
       <c r="G91" s="3">
         <v>-1000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-564000</v>
+        <v>-585300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1404400</v>
+        <v>-1457200</v>
       </c>
       <c r="F94" s="3">
-        <v>-26300</v>
+        <v>-27300</v>
       </c>
       <c r="G94" s="3">
-        <v>-16600</v>
+        <v>-17200</v>
       </c>
       <c r="H94" s="3">
-        <v>-46700</v>
+        <v>-48400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J94" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-122800</v>
+        <v>-127400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3431,10 +3431,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-178300</v>
+        <v>-185000</v>
       </c>
       <c r="E100" s="3">
-        <v>656100</v>
+        <v>680800</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
@@ -3446,10 +3446,10 @@
         <v>-300</v>
       </c>
       <c r="I100" s="3">
-        <v>57700</v>
+        <v>59900</v>
       </c>
       <c r="J100" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="K100" s="3">
         <v>3400</v>
@@ -3467,16 +3467,16 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F101" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
         <v>-1700</v>
       </c>
       <c r="H101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="E102" s="3">
-        <v>-279100</v>
+        <v>-289600</v>
       </c>
       <c r="F102" s="3">
-        <v>374200</v>
+        <v>388300</v>
       </c>
       <c r="G102" s="3">
-        <v>12300</v>
+        <v>12800</v>
       </c>
       <c r="H102" s="3">
-        <v>-39400</v>
+        <v>-40900</v>
       </c>
       <c r="I102" s="3">
-        <v>55400</v>
+        <v>57500</v>
       </c>
       <c r="J102" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="K102" s="3">
         <v>2500</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2471100</v>
+        <v>2588300</v>
       </c>
       <c r="E8" s="3">
-        <v>1947300</v>
+        <v>2039700</v>
       </c>
       <c r="F8" s="3">
-        <v>1290600</v>
+        <v>1351800</v>
       </c>
       <c r="G8" s="3">
-        <v>80300</v>
+        <v>84100</v>
       </c>
       <c r="H8" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="I8" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1233300</v>
+        <v>1291800</v>
       </c>
       <c r="E9" s="3">
-        <v>1043200</v>
+        <v>1092700</v>
       </c>
       <c r="F9" s="3">
-        <v>635100</v>
+        <v>665300</v>
       </c>
       <c r="G9" s="3">
-        <v>35100</v>
+        <v>36700</v>
       </c>
       <c r="H9" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I9" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1237800</v>
+        <v>1296500</v>
       </c>
       <c r="E10" s="3">
-        <v>904100</v>
+        <v>947000</v>
       </c>
       <c r="F10" s="3">
-        <v>655400</v>
+        <v>686500</v>
       </c>
       <c r="G10" s="3">
-        <v>45300</v>
+        <v>47400</v>
       </c>
       <c r="H10" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="I10" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -832,22 +832,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>159000</v>
+        <v>166600</v>
       </c>
       <c r="E12" s="3">
-        <v>110500</v>
+        <v>115700</v>
       </c>
       <c r="F12" s="3">
-        <v>50300</v>
+        <v>52700</v>
       </c>
       <c r="G12" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="H12" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I12" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
@@ -898,16 +898,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="F14" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="G14" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1957100</v>
+        <v>2050000</v>
       </c>
       <c r="E17" s="3">
-        <v>1479200</v>
+        <v>1549400</v>
       </c>
       <c r="F17" s="3">
-        <v>941400</v>
+        <v>986100</v>
       </c>
       <c r="G17" s="3">
-        <v>60200</v>
+        <v>63000</v>
       </c>
       <c r="H17" s="3">
-        <v>18600</v>
+        <v>19500</v>
       </c>
       <c r="I17" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="J17" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>514000</v>
+        <v>538400</v>
       </c>
       <c r="E18" s="3">
-        <v>468100</v>
+        <v>490300</v>
       </c>
       <c r="F18" s="3">
-        <v>349200</v>
+        <v>365700</v>
       </c>
       <c r="G18" s="3">
-        <v>20100</v>
+        <v>21100</v>
       </c>
       <c r="H18" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I18" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="J18" s="3">
         <v>-1400</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>59200</v>
+        <v>62000</v>
       </c>
       <c r="E20" s="3">
-        <v>39600</v>
+        <v>41500</v>
       </c>
       <c r="F20" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="G20" s="3">
         <v>1200</v>
       </c>
       <c r="H20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>624700</v>
+        <v>654500</v>
       </c>
       <c r="E21" s="3">
-        <v>542600</v>
+        <v>568500</v>
       </c>
       <c r="F21" s="3">
-        <v>382400</v>
+        <v>400600</v>
       </c>
       <c r="G21" s="3">
-        <v>22600</v>
+        <v>23600</v>
       </c>
       <c r="H21" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I21" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="J21" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K21" s="3">
         <v>-500</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="E22" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>561700</v>
+        <v>588400</v>
       </c>
       <c r="E23" s="3">
-        <v>499500</v>
+        <v>523200</v>
       </c>
       <c r="F23" s="3">
-        <v>370300</v>
+        <v>387900</v>
       </c>
       <c r="G23" s="3">
-        <v>21300</v>
+        <v>22300</v>
       </c>
       <c r="H23" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I23" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="J23" s="3">
         <v>-1400</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>128400</v>
+        <v>134400</v>
       </c>
       <c r="E24" s="3">
-        <v>101600</v>
+        <v>106400</v>
       </c>
       <c r="F24" s="3">
-        <v>64600</v>
+        <v>67700</v>
       </c>
       <c r="G24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>433400</v>
+        <v>453900</v>
       </c>
       <c r="E26" s="3">
-        <v>397900</v>
+        <v>416800</v>
       </c>
       <c r="F26" s="3">
-        <v>305700</v>
+        <v>320200</v>
       </c>
       <c r="G26" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="H26" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I26" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="J26" s="3">
         <v>-1400</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>431500</v>
+        <v>451900</v>
       </c>
       <c r="E27" s="3">
-        <v>408900</v>
+        <v>428300</v>
       </c>
       <c r="F27" s="3">
-        <v>312000</v>
+        <v>326800</v>
       </c>
       <c r="G27" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="H27" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I27" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="J27" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="K27" s="3">
         <v>-1000</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-59200</v>
+        <v>-62000</v>
       </c>
       <c r="E32" s="3">
-        <v>-39600</v>
+        <v>-41500</v>
       </c>
       <c r="F32" s="3">
-        <v>-21100</v>
+        <v>-22100</v>
       </c>
       <c r="G32" s="3">
         <v>-1200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>431500</v>
+        <v>451900</v>
       </c>
       <c r="E33" s="3">
-        <v>408900</v>
+        <v>428300</v>
       </c>
       <c r="F33" s="3">
-        <v>312000</v>
+        <v>326800</v>
       </c>
       <c r="G33" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="H33" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I33" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="J33" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="K33" s="3">
         <v>-1000</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>431500</v>
+        <v>451900</v>
       </c>
       <c r="E35" s="3">
-        <v>408900</v>
+        <v>428300</v>
       </c>
       <c r="F35" s="3">
-        <v>312000</v>
+        <v>326800</v>
       </c>
       <c r="G35" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="H35" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I35" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="J35" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="K35" s="3">
         <v>-1000</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>379400</v>
+        <v>397500</v>
       </c>
       <c r="E41" s="3">
-        <v>358400</v>
+        <v>375400</v>
       </c>
       <c r="F41" s="3">
-        <v>648000</v>
+        <v>678800</v>
       </c>
       <c r="G41" s="3">
-        <v>37400</v>
+        <v>39200</v>
       </c>
       <c r="H41" s="3">
-        <v>24600</v>
+        <v>25800</v>
       </c>
       <c r="I41" s="3">
-        <v>65500</v>
+        <v>68600</v>
       </c>
       <c r="J41" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="K41" s="3">
         <v>2700</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1788200</v>
+        <v>1873000</v>
       </c>
       <c r="E42" s="3">
-        <v>1281600</v>
+        <v>1342400</v>
       </c>
       <c r="F42" s="3">
-        <v>354700</v>
+        <v>371600</v>
       </c>
       <c r="G42" s="3">
-        <v>57200</v>
+        <v>59900</v>
       </c>
       <c r="H42" s="3">
-        <v>43600</v>
+        <v>45600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>75900</v>
+        <v>79500</v>
       </c>
       <c r="E43" s="3">
-        <v>127200</v>
+        <v>133200</v>
       </c>
       <c r="F43" s="3">
-        <v>59500</v>
+        <v>62300</v>
       </c>
       <c r="G43" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="H43" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="I43" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50200</v>
+        <v>52600</v>
       </c>
       <c r="E45" s="3">
-        <v>67500</v>
+        <v>70700</v>
       </c>
       <c r="F45" s="3">
-        <v>66700</v>
+        <v>69800</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="H45" s="3">
         <v>1400</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2293700</v>
+        <v>2402600</v>
       </c>
       <c r="E46" s="3">
-        <v>1834700</v>
+        <v>1921800</v>
       </c>
       <c r="F46" s="3">
-        <v>1123200</v>
+        <v>1176500</v>
       </c>
       <c r="G46" s="3">
-        <v>104600</v>
+        <v>109500</v>
       </c>
       <c r="H46" s="3">
-        <v>73200</v>
+        <v>76600</v>
       </c>
       <c r="I46" s="3">
-        <v>67700</v>
+        <v>70900</v>
       </c>
       <c r="J46" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="K46" s="3">
         <v>2800</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72000</v>
+        <v>75400</v>
       </c>
       <c r="E47" s="3">
-        <v>65000</v>
+        <v>68100</v>
       </c>
       <c r="F47" s="3">
-        <v>41900</v>
+        <v>43900</v>
       </c>
       <c r="G47" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="H47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78000</v>
+        <v>81700</v>
       </c>
       <c r="E48" s="3">
-        <v>56300</v>
+        <v>59000</v>
       </c>
       <c r="F48" s="3">
-        <v>37900</v>
+        <v>39400</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>762600</v>
+        <v>798800</v>
       </c>
       <c r="E49" s="3">
-        <v>776100</v>
+        <v>812900</v>
       </c>
       <c r="F49" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59000</v>
+        <v>61800</v>
       </c>
       <c r="E52" s="3">
-        <v>22300</v>
+        <v>23300</v>
       </c>
       <c r="F52" s="3">
-        <v>17300</v>
+        <v>18200</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3265300</v>
+        <v>3420200</v>
       </c>
       <c r="E54" s="3">
-        <v>2754400</v>
+        <v>2885000</v>
       </c>
       <c r="F54" s="3">
-        <v>1230300</v>
+        <v>1288600</v>
       </c>
       <c r="G54" s="3">
-        <v>111800</v>
+        <v>117100</v>
       </c>
       <c r="H54" s="3">
-        <v>78700</v>
+        <v>82500</v>
       </c>
       <c r="I54" s="3">
-        <v>69500</v>
+        <v>72800</v>
       </c>
       <c r="J54" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="K54" s="3">
         <v>3000</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>103700</v>
+        <v>108700</v>
       </c>
       <c r="E57" s="3">
-        <v>104300</v>
+        <v>109300</v>
       </c>
       <c r="F57" s="3">
-        <v>70400</v>
+        <v>73800</v>
       </c>
       <c r="G57" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="H57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>274800</v>
+        <v>287900</v>
       </c>
       <c r="E59" s="3">
-        <v>287300</v>
+        <v>300900</v>
       </c>
       <c r="F59" s="3">
-        <v>175300</v>
+        <v>183600</v>
       </c>
       <c r="G59" s="3">
-        <v>13500</v>
+        <v>14200</v>
       </c>
       <c r="H59" s="3">
-        <v>8900</v>
+        <v>9400</v>
       </c>
       <c r="I59" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>378600</v>
+        <v>396500</v>
       </c>
       <c r="E60" s="3">
-        <v>391600</v>
+        <v>410200</v>
       </c>
       <c r="F60" s="3">
-        <v>245700</v>
+        <v>257400</v>
       </c>
       <c r="G60" s="3">
-        <v>19400</v>
+        <v>20300</v>
       </c>
       <c r="H60" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="I60" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
@@ -2277,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>719500</v>
+        <v>753700</v>
       </c>
       <c r="E61" s="3">
-        <v>708300</v>
+        <v>741900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>174800</v>
+        <v>183100</v>
       </c>
       <c r="E62" s="3">
-        <v>53600</v>
+        <v>56200</v>
       </c>
       <c r="F62" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300300</v>
+        <v>1362000</v>
       </c>
       <c r="E66" s="3">
-        <v>1166900</v>
+        <v>1222300</v>
       </c>
       <c r="F66" s="3">
-        <v>252400</v>
+        <v>264300</v>
       </c>
       <c r="G66" s="3">
-        <v>19700</v>
+        <v>20600</v>
       </c>
       <c r="H66" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="I66" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="K70" s="3">
         <v>3900</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1084100</v>
+        <v>1135500</v>
       </c>
       <c r="E72" s="3">
-        <v>778600</v>
+        <v>815500</v>
       </c>
       <c r="F72" s="3">
-        <v>369700</v>
+        <v>387200</v>
       </c>
       <c r="G72" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H72" s="3">
-        <v>-13700</v>
+        <v>-14300</v>
       </c>
       <c r="I72" s="3">
-        <v>-15700</v>
+        <v>-16400</v>
       </c>
       <c r="J72" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K72" s="3">
         <v>-1000</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1965000</v>
+        <v>2058200</v>
       </c>
       <c r="E76" s="3">
-        <v>1587400</v>
+        <v>1662800</v>
       </c>
       <c r="F76" s="3">
-        <v>977900</v>
+        <v>1024300</v>
       </c>
       <c r="G76" s="3">
-        <v>92100</v>
+        <v>96400</v>
       </c>
       <c r="H76" s="3">
-        <v>68000</v>
+        <v>71300</v>
       </c>
       <c r="I76" s="3">
-        <v>64000</v>
+        <v>67000</v>
       </c>
       <c r="J76" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="K76" s="3">
         <v>-900</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>431500</v>
+        <v>451900</v>
       </c>
       <c r="E81" s="3">
-        <v>408900</v>
+        <v>428300</v>
       </c>
       <c r="F81" s="3">
-        <v>312000</v>
+        <v>326800</v>
       </c>
       <c r="G81" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="H81" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I81" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="J81" s="3">
-        <v>-2500</v>
+        <v>-2700</v>
       </c>
       <c r="K81" s="3">
         <v>-1000</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51700</v>
+        <v>54200</v>
       </c>
       <c r="E83" s="3">
-        <v>35000</v>
+        <v>36700</v>
       </c>
       <c r="F83" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="G83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H83" s="3">
         <v>1000</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>791300</v>
+        <v>828900</v>
       </c>
       <c r="E89" s="3">
-        <v>483300</v>
+        <v>506200</v>
       </c>
       <c r="F89" s="3">
-        <v>419100</v>
+        <v>439000</v>
       </c>
       <c r="G89" s="3">
-        <v>31700</v>
+        <v>33200</v>
       </c>
       <c r="H89" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="I89" s="3">
         <v>-900</v>
       </c>
       <c r="J89" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K89" s="3">
         <v>-600</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27100</v>
+        <v>-28400</v>
       </c>
       <c r="E91" s="3">
-        <v>-35300</v>
+        <v>-36900</v>
       </c>
       <c r="F91" s="3">
-        <v>-31800</v>
+        <v>-33300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I91" s="3">
         <v>-1300</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-585300</v>
+        <v>-613000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1457200</v>
+        <v>-1526400</v>
       </c>
       <c r="F94" s="3">
-        <v>-27300</v>
+        <v>-28600</v>
       </c>
       <c r="G94" s="3">
-        <v>-17200</v>
+        <v>-18000</v>
       </c>
       <c r="H94" s="3">
-        <v>-48400</v>
+        <v>-50700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J94" s="3">
         <v>-500</v>
@@ -3299,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-127400</v>
+        <v>-133500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3431,10 +3431,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-185000</v>
+        <v>-193800</v>
       </c>
       <c r="E100" s="3">
-        <v>680800</v>
+        <v>713100</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
@@ -3446,10 +3446,10 @@
         <v>-300</v>
       </c>
       <c r="I100" s="3">
-        <v>59900</v>
+        <v>62700</v>
       </c>
       <c r="J100" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="K100" s="3">
         <v>3400</v>
@@ -3467,13 +3467,13 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="F101" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H101" s="3">
         <v>-500</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="E102" s="3">
-        <v>-289600</v>
+        <v>-303400</v>
       </c>
       <c r="F102" s="3">
-        <v>388300</v>
+        <v>406800</v>
       </c>
       <c r="G102" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="H102" s="3">
-        <v>-40900</v>
+        <v>-42800</v>
       </c>
       <c r="I102" s="3">
-        <v>57500</v>
+        <v>60200</v>
       </c>
       <c r="J102" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="K102" s="3">
         <v>2500</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2588300</v>
+        <v>2295400</v>
       </c>
       <c r="E8" s="3">
-        <v>2039700</v>
+        <v>2599600</v>
       </c>
       <c r="F8" s="3">
-        <v>1351800</v>
+        <v>2048500</v>
       </c>
       <c r="G8" s="3">
-        <v>84100</v>
+        <v>1357700</v>
       </c>
       <c r="H8" s="3">
-        <v>20400</v>
+        <v>84500</v>
       </c>
       <c r="I8" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J8" s="3">
         <v>6800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1291800</v>
+        <v>1218700</v>
       </c>
       <c r="E9" s="3">
-        <v>1092700</v>
+        <v>1297400</v>
       </c>
       <c r="F9" s="3">
-        <v>665300</v>
+        <v>1097400</v>
       </c>
       <c r="G9" s="3">
-        <v>36700</v>
+        <v>668200</v>
       </c>
       <c r="H9" s="3">
+        <v>36900</v>
+      </c>
+      <c r="I9" s="3">
         <v>4600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1296500</v>
+        <v>1076700</v>
       </c>
       <c r="E10" s="3">
-        <v>947000</v>
+        <v>1302100</v>
       </c>
       <c r="F10" s="3">
-        <v>686500</v>
+        <v>951100</v>
       </c>
       <c r="G10" s="3">
-        <v>47400</v>
+        <v>689500</v>
       </c>
       <c r="H10" s="3">
+        <v>47600</v>
+      </c>
+      <c r="I10" s="3">
         <v>15800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4400</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>166600</v>
+        <v>178400</v>
       </c>
       <c r="E12" s="3">
-        <v>115700</v>
+        <v>167300</v>
       </c>
       <c r="F12" s="3">
-        <v>52700</v>
+        <v>116200</v>
       </c>
       <c r="G12" s="3">
+        <v>52900</v>
+      </c>
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
-        <v>3500</v>
-      </c>
       <c r="I12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,27 +907,30 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2050000</v>
+        <v>1908600</v>
       </c>
       <c r="E17" s="3">
-        <v>1549400</v>
+        <v>2058900</v>
       </c>
       <c r="F17" s="3">
-        <v>986100</v>
+        <v>1556100</v>
       </c>
       <c r="G17" s="3">
-        <v>63000</v>
+        <v>990400</v>
       </c>
       <c r="H17" s="3">
-        <v>19500</v>
+        <v>63300</v>
       </c>
       <c r="I17" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J17" s="3">
         <v>10800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>538400</v>
+        <v>386800</v>
       </c>
       <c r="E18" s="3">
-        <v>490300</v>
+        <v>540700</v>
       </c>
       <c r="F18" s="3">
-        <v>365700</v>
+        <v>492400</v>
       </c>
       <c r="G18" s="3">
-        <v>21100</v>
+        <v>367300</v>
       </c>
       <c r="H18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,88 +1083,95 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>62000</v>
+        <v>68100</v>
       </c>
       <c r="E20" s="3">
-        <v>41500</v>
+        <v>62300</v>
       </c>
       <c r="F20" s="3">
-        <v>22100</v>
+        <v>41700</v>
       </c>
       <c r="G20" s="3">
+        <v>22200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>654500</v>
+        <v>511000</v>
       </c>
       <c r="E21" s="3">
-        <v>568500</v>
+        <v>657600</v>
       </c>
       <c r="F21" s="3">
-        <v>400600</v>
+        <v>571100</v>
       </c>
       <c r="G21" s="3">
-        <v>23600</v>
+        <v>402400</v>
       </c>
       <c r="H21" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I21" s="3">
         <v>3100</v>
       </c>
-      <c r="I21" s="3">
-        <v>-3400</v>
-      </c>
       <c r="J21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8600</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1146,63 +1185,69 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>588400</v>
+        <v>442800</v>
       </c>
       <c r="E23" s="3">
-        <v>523200</v>
+        <v>590900</v>
       </c>
       <c r="F23" s="3">
-        <v>387900</v>
+        <v>525500</v>
       </c>
       <c r="G23" s="3">
-        <v>22300</v>
+        <v>389500</v>
       </c>
       <c r="H23" s="3">
-        <v>2000</v>
+        <v>22400</v>
       </c>
       <c r="I23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>134400</v>
+        <v>115400</v>
       </c>
       <c r="E24" s="3">
-        <v>106400</v>
+        <v>135000</v>
       </c>
       <c r="F24" s="3">
-        <v>67700</v>
+        <v>106900</v>
       </c>
       <c r="G24" s="3">
+        <v>68000</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1212,12 +1257,15 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>453900</v>
+        <v>327400</v>
       </c>
       <c r="E26" s="3">
-        <v>416800</v>
+        <v>455900</v>
       </c>
       <c r="F26" s="3">
-        <v>320200</v>
+        <v>418600</v>
       </c>
       <c r="G26" s="3">
-        <v>21600</v>
+        <v>321600</v>
       </c>
       <c r="H26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>451900</v>
+        <v>321400</v>
       </c>
       <c r="E27" s="3">
-        <v>428300</v>
+        <v>453900</v>
       </c>
       <c r="F27" s="3">
-        <v>326800</v>
+        <v>430200</v>
       </c>
       <c r="G27" s="3">
-        <v>21600</v>
+        <v>328200</v>
       </c>
       <c r="H27" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
-        <v>-12600</v>
-      </c>
       <c r="J27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-62000</v>
+        <v>-68100</v>
       </c>
       <c r="E32" s="3">
-        <v>-41500</v>
+        <v>-62300</v>
       </c>
       <c r="F32" s="3">
-        <v>-22100</v>
+        <v>-41700</v>
       </c>
       <c r="G32" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>451900</v>
+        <v>321400</v>
       </c>
       <c r="E33" s="3">
-        <v>428300</v>
+        <v>453900</v>
       </c>
       <c r="F33" s="3">
-        <v>326800</v>
+        <v>430200</v>
       </c>
       <c r="G33" s="3">
-        <v>21600</v>
+        <v>328200</v>
       </c>
       <c r="H33" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
-        <v>-12600</v>
-      </c>
       <c r="J33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>451900</v>
+        <v>321400</v>
       </c>
       <c r="E35" s="3">
-        <v>428300</v>
+        <v>453900</v>
       </c>
       <c r="F35" s="3">
-        <v>326800</v>
+        <v>430200</v>
       </c>
       <c r="G35" s="3">
-        <v>21600</v>
+        <v>328200</v>
       </c>
       <c r="H35" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
-        <v>-12600</v>
-      </c>
       <c r="J35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,61 +1732,65 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>397500</v>
+        <v>513900</v>
       </c>
       <c r="E41" s="3">
-        <v>375400</v>
+        <v>399200</v>
       </c>
       <c r="F41" s="3">
-        <v>678800</v>
+        <v>377100</v>
       </c>
       <c r="G41" s="3">
-        <v>39200</v>
+        <v>681700</v>
       </c>
       <c r="H41" s="3">
-        <v>25800</v>
+        <v>39400</v>
       </c>
       <c r="I41" s="3">
-        <v>68600</v>
+        <v>25900</v>
       </c>
       <c r="J41" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1873000</v>
+        <v>1156000</v>
       </c>
       <c r="E42" s="3">
-        <v>1342400</v>
+        <v>1881100</v>
       </c>
       <c r="F42" s="3">
-        <v>371600</v>
+        <v>1348200</v>
       </c>
       <c r="G42" s="3">
-        <v>59900</v>
+        <v>373200</v>
       </c>
       <c r="H42" s="3">
-        <v>45600</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>60200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1712,42 +1801,48 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>79500</v>
+        <v>30700</v>
       </c>
       <c r="E43" s="3">
-        <v>133200</v>
+        <v>79900</v>
       </c>
       <c r="F43" s="3">
-        <v>62300</v>
+        <v>133800</v>
       </c>
       <c r="G43" s="3">
+        <v>62600</v>
+      </c>
+      <c r="H43" s="3">
         <v>6700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,156 +1873,171 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52600</v>
+        <v>94100</v>
       </c>
       <c r="E45" s="3">
-        <v>70700</v>
+        <v>52800</v>
       </c>
       <c r="F45" s="3">
-        <v>69800</v>
+        <v>71000</v>
       </c>
       <c r="G45" s="3">
+        <v>70100</v>
+      </c>
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2402600</v>
+        <v>1794700</v>
       </c>
       <c r="E46" s="3">
-        <v>1921800</v>
+        <v>2413000</v>
       </c>
       <c r="F46" s="3">
-        <v>1176500</v>
+        <v>1930100</v>
       </c>
       <c r="G46" s="3">
-        <v>109500</v>
+        <v>1181600</v>
       </c>
       <c r="H46" s="3">
-        <v>76600</v>
+        <v>110000</v>
       </c>
       <c r="I46" s="3">
-        <v>70900</v>
+        <v>77000</v>
       </c>
       <c r="J46" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K46" s="3">
         <v>8900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75400</v>
+        <v>69500</v>
       </c>
       <c r="E47" s="3">
-        <v>68100</v>
+        <v>75800</v>
       </c>
       <c r="F47" s="3">
-        <v>43900</v>
+        <v>68400</v>
       </c>
       <c r="G47" s="3">
+        <v>44100</v>
+      </c>
+      <c r="H47" s="3">
         <v>4900</v>
       </c>
-      <c r="H47" s="3">
-        <v>2900</v>
-      </c>
       <c r="I47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>81700</v>
+        <v>83100</v>
       </c>
       <c r="E48" s="3">
-        <v>59000</v>
+        <v>82000</v>
       </c>
       <c r="F48" s="3">
-        <v>39400</v>
+        <v>59200</v>
       </c>
       <c r="G48" s="3">
+        <v>39500</v>
+      </c>
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>798800</v>
+        <v>729600</v>
       </c>
       <c r="E49" s="3">
-        <v>812900</v>
+        <v>802200</v>
       </c>
       <c r="F49" s="3">
+        <v>816400</v>
+      </c>
+      <c r="G49" s="3">
         <v>10800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61800</v>
+        <v>870700</v>
       </c>
       <c r="E52" s="3">
-        <v>23300</v>
+        <v>62000</v>
       </c>
       <c r="F52" s="3">
+        <v>23500</v>
+      </c>
+      <c r="G52" s="3">
         <v>18200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3420200</v>
+        <v>3547600</v>
       </c>
       <c r="E54" s="3">
-        <v>2885000</v>
+        <v>3435100</v>
       </c>
       <c r="F54" s="3">
-        <v>1288600</v>
+        <v>2897600</v>
       </c>
       <c r="G54" s="3">
-        <v>117100</v>
+        <v>1294200</v>
       </c>
       <c r="H54" s="3">
-        <v>82500</v>
+        <v>117600</v>
       </c>
       <c r="I54" s="3">
-        <v>72800</v>
+        <v>82800</v>
       </c>
       <c r="J54" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,41 +2268,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>108700</v>
+        <v>106900</v>
       </c>
       <c r="E57" s="3">
-        <v>109300</v>
+        <v>109100</v>
       </c>
       <c r="F57" s="3">
-        <v>73800</v>
+        <v>109800</v>
       </c>
       <c r="G57" s="3">
+        <v>74100</v>
+      </c>
+      <c r="H57" s="3">
         <v>6200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2204,86 +2337,95 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>287900</v>
+        <v>277700</v>
       </c>
       <c r="E59" s="3">
-        <v>300900</v>
+        <v>289100</v>
       </c>
       <c r="F59" s="3">
-        <v>183600</v>
+        <v>302200</v>
       </c>
       <c r="G59" s="3">
+        <v>184400</v>
+      </c>
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>396500</v>
+        <v>384500</v>
       </c>
       <c r="E60" s="3">
-        <v>410200</v>
+        <v>398300</v>
       </c>
       <c r="F60" s="3">
-        <v>257400</v>
+        <v>411900</v>
       </c>
       <c r="G60" s="3">
-        <v>20300</v>
+        <v>258500</v>
       </c>
       <c r="H60" s="3">
-        <v>10900</v>
+        <v>20400</v>
       </c>
       <c r="I60" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>753700</v>
+        <v>711800</v>
       </c>
       <c r="E61" s="3">
-        <v>741900</v>
+        <v>756900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>745100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2303,29 +2445,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>183100</v>
+        <v>184800</v>
       </c>
       <c r="E62" s="3">
-        <v>56200</v>
+        <v>183900</v>
       </c>
       <c r="F62" s="3">
+        <v>56400</v>
+      </c>
+      <c r="G62" s="3">
         <v>4100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1362000</v>
+        <v>1281100</v>
       </c>
       <c r="E66" s="3">
-        <v>1222300</v>
+        <v>1367900</v>
       </c>
       <c r="F66" s="3">
-        <v>264300</v>
+        <v>1227600</v>
       </c>
       <c r="G66" s="3">
-        <v>20600</v>
+        <v>265500</v>
       </c>
       <c r="H66" s="3">
-        <v>11200</v>
+        <v>20700</v>
       </c>
       <c r="I66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2574,17 +2741,20 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>12200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1135500</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>815500</v>
+        <v>1140400</v>
       </c>
       <c r="F72" s="3">
-        <v>387200</v>
+        <v>819100</v>
       </c>
       <c r="G72" s="3">
+        <v>388900</v>
+      </c>
+      <c r="H72" s="3">
         <v>7800</v>
       </c>
-      <c r="H72" s="3">
-        <v>-14300</v>
-      </c>
       <c r="I72" s="3">
-        <v>-16400</v>
+        <v>-14400</v>
       </c>
       <c r="J72" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2058200</v>
+        <v>2266500</v>
       </c>
       <c r="E76" s="3">
-        <v>1662800</v>
+        <v>2067100</v>
       </c>
       <c r="F76" s="3">
-        <v>1024300</v>
+        <v>1670000</v>
       </c>
       <c r="G76" s="3">
-        <v>96400</v>
+        <v>1028800</v>
       </c>
       <c r="H76" s="3">
-        <v>71300</v>
+        <v>96900</v>
       </c>
       <c r="I76" s="3">
-        <v>67000</v>
+        <v>71600</v>
       </c>
       <c r="J76" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>451900</v>
+        <v>321400</v>
       </c>
       <c r="E81" s="3">
-        <v>428300</v>
+        <v>453900</v>
       </c>
       <c r="F81" s="3">
-        <v>326800</v>
+        <v>430200</v>
       </c>
       <c r="G81" s="3">
-        <v>21600</v>
+        <v>328200</v>
       </c>
       <c r="H81" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
-        <v>-12600</v>
-      </c>
       <c r="J81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54200</v>
+        <v>56000</v>
       </c>
       <c r="E83" s="3">
-        <v>36700</v>
+        <v>54400</v>
       </c>
       <c r="F83" s="3">
-        <v>12700</v>
+        <v>36900</v>
       </c>
       <c r="G83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>828900</v>
+        <v>470700</v>
       </c>
       <c r="E89" s="3">
-        <v>506200</v>
+        <v>832500</v>
       </c>
       <c r="F89" s="3">
-        <v>439000</v>
+        <v>508400</v>
       </c>
       <c r="G89" s="3">
-        <v>33200</v>
+        <v>440900</v>
       </c>
       <c r="H89" s="3">
+        <v>33400</v>
+      </c>
+      <c r="I89" s="3">
         <v>8700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28400</v>
+        <v>-19000</v>
       </c>
       <c r="E91" s="3">
-        <v>-36900</v>
+        <v>-28500</v>
       </c>
       <c r="F91" s="3">
-        <v>-33300</v>
+        <v>-37100</v>
       </c>
       <c r="G91" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-613000</v>
+        <v>-114400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1526400</v>
+        <v>-615700</v>
       </c>
       <c r="F94" s="3">
-        <v>-28600</v>
+        <v>-1533000</v>
       </c>
       <c r="G94" s="3">
-        <v>-18000</v>
+        <v>-28700</v>
       </c>
       <c r="H94" s="3">
-        <v>-50700</v>
+        <v>-18100</v>
       </c>
       <c r="I94" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,16 +3525,17 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133500</v>
+        <v>-171700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-134000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-193800</v>
+        <v>-228900</v>
       </c>
       <c r="E100" s="3">
-        <v>713100</v>
+        <v>-194600</v>
       </c>
       <c r="F100" s="3">
+        <v>716200</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>62700</v>
-      </c>
       <c r="J100" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K100" s="3">
         <v>6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22000</v>
+        <v>115100</v>
       </c>
       <c r="E102" s="3">
-        <v>-303400</v>
+        <v>22100</v>
       </c>
       <c r="F102" s="3">
-        <v>406800</v>
+        <v>-304700</v>
       </c>
       <c r="G102" s="3">
-        <v>13400</v>
+        <v>408500</v>
       </c>
       <c r="H102" s="3">
-        <v>-42800</v>
+        <v>13500</v>
       </c>
       <c r="I102" s="3">
-        <v>60200</v>
+        <v>-43000</v>
       </c>
       <c r="J102" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K102" s="3">
         <v>5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2295400</v>
+        <v>2343900</v>
       </c>
       <c r="E8" s="3">
-        <v>2599600</v>
+        <v>2654500</v>
       </c>
       <c r="F8" s="3">
-        <v>2048500</v>
+        <v>2091800</v>
       </c>
       <c r="G8" s="3">
-        <v>1357700</v>
+        <v>1386400</v>
       </c>
       <c r="H8" s="3">
-        <v>84500</v>
+        <v>86300</v>
       </c>
       <c r="I8" s="3">
-        <v>20500</v>
+        <v>20900</v>
       </c>
       <c r="J8" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1218700</v>
+        <v>1244500</v>
       </c>
       <c r="E9" s="3">
-        <v>1297400</v>
+        <v>1324900</v>
       </c>
       <c r="F9" s="3">
-        <v>1097400</v>
+        <v>1120600</v>
       </c>
       <c r="G9" s="3">
-        <v>668200</v>
+        <v>682300</v>
       </c>
       <c r="H9" s="3">
-        <v>36900</v>
+        <v>37700</v>
       </c>
       <c r="I9" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J9" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1076700</v>
+        <v>1099500</v>
       </c>
       <c r="E10" s="3">
-        <v>1302100</v>
+        <v>1329700</v>
       </c>
       <c r="F10" s="3">
-        <v>951100</v>
+        <v>971200</v>
       </c>
       <c r="G10" s="3">
-        <v>689500</v>
+        <v>704100</v>
       </c>
       <c r="H10" s="3">
-        <v>47600</v>
+        <v>48600</v>
       </c>
       <c r="I10" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="J10" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>178400</v>
+        <v>182200</v>
       </c>
       <c r="E12" s="3">
-        <v>167300</v>
+        <v>170800</v>
       </c>
       <c r="F12" s="3">
-        <v>116200</v>
+        <v>118700</v>
       </c>
       <c r="G12" s="3">
-        <v>52900</v>
+        <v>54000</v>
       </c>
       <c r="H12" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I12" s="3">
         <v>3600</v>
@@ -916,17 +916,17 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G14" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H14" s="3">
         <v>900</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1908600</v>
+        <v>1950600</v>
       </c>
       <c r="E17" s="3">
-        <v>2058900</v>
+        <v>2102400</v>
       </c>
       <c r="F17" s="3">
-        <v>1556100</v>
+        <v>1589000</v>
       </c>
       <c r="G17" s="3">
-        <v>990400</v>
+        <v>1011300</v>
       </c>
       <c r="H17" s="3">
-        <v>63300</v>
+        <v>64600</v>
       </c>
       <c r="I17" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="J17" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="K17" s="3">
         <v>1900</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>386800</v>
+        <v>393300</v>
       </c>
       <c r="E18" s="3">
-        <v>540700</v>
+        <v>552100</v>
       </c>
       <c r="F18" s="3">
-        <v>492400</v>
+        <v>502800</v>
       </c>
       <c r="G18" s="3">
-        <v>367300</v>
+        <v>375100</v>
       </c>
       <c r="H18" s="3">
-        <v>21200</v>
+        <v>21600</v>
       </c>
       <c r="I18" s="3">
         <v>900</v>
       </c>
       <c r="J18" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K18" s="3">
         <v>-1400</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>68100</v>
+        <v>71200</v>
       </c>
       <c r="E20" s="3">
-        <v>62300</v>
+        <v>63600</v>
       </c>
       <c r="F20" s="3">
-        <v>41700</v>
+        <v>42600</v>
       </c>
       <c r="G20" s="3">
-        <v>22200</v>
+        <v>22700</v>
       </c>
       <c r="H20" s="3">
         <v>1300</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>511000</v>
+        <v>521600</v>
       </c>
       <c r="E21" s="3">
-        <v>657600</v>
+        <v>671200</v>
       </c>
       <c r="F21" s="3">
-        <v>571100</v>
+        <v>583000</v>
       </c>
       <c r="G21" s="3">
-        <v>402400</v>
+        <v>410800</v>
       </c>
       <c r="H21" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="I21" s="3">
         <v>3100</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="E22" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="F22" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>442800</v>
+        <v>452200</v>
       </c>
       <c r="E23" s="3">
-        <v>590900</v>
+        <v>603400</v>
       </c>
       <c r="F23" s="3">
-        <v>525500</v>
+        <v>536600</v>
       </c>
       <c r="G23" s="3">
-        <v>389500</v>
+        <v>397800</v>
       </c>
       <c r="H23" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="I23" s="3">
         <v>2100</v>
       </c>
       <c r="J23" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K23" s="3">
         <v>-1400</v>
@@ -1234,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115400</v>
+        <v>117900</v>
       </c>
       <c r="E24" s="3">
-        <v>135000</v>
+        <v>137900</v>
       </c>
       <c r="F24" s="3">
-        <v>106900</v>
+        <v>109200</v>
       </c>
       <c r="G24" s="3">
-        <v>68000</v>
+        <v>69400</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>327400</v>
+        <v>334300</v>
       </c>
       <c r="E26" s="3">
-        <v>455900</v>
+        <v>465600</v>
       </c>
       <c r="F26" s="3">
-        <v>418600</v>
+        <v>427400</v>
       </c>
       <c r="G26" s="3">
-        <v>321600</v>
+        <v>328400</v>
       </c>
       <c r="H26" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="I26" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K26" s="3">
         <v>-1400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>321400</v>
+        <v>328200</v>
       </c>
       <c r="E27" s="3">
-        <v>453900</v>
+        <v>463500</v>
       </c>
       <c r="F27" s="3">
-        <v>430200</v>
+        <v>439300</v>
       </c>
       <c r="G27" s="3">
-        <v>328200</v>
+        <v>335100</v>
       </c>
       <c r="H27" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="I27" s="3">
         <v>1900</v>
       </c>
       <c r="J27" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="K27" s="3">
         <v>-2700</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-68100</v>
+        <v>-71200</v>
       </c>
       <c r="E32" s="3">
-        <v>-62300</v>
+        <v>-63600</v>
       </c>
       <c r="F32" s="3">
-        <v>-41700</v>
+        <v>-42600</v>
       </c>
       <c r="G32" s="3">
-        <v>-22200</v>
+        <v>-22700</v>
       </c>
       <c r="H32" s="3">
         <v>-1300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>321400</v>
+        <v>328200</v>
       </c>
       <c r="E33" s="3">
-        <v>453900</v>
+        <v>463500</v>
       </c>
       <c r="F33" s="3">
-        <v>430200</v>
+        <v>439300</v>
       </c>
       <c r="G33" s="3">
-        <v>328200</v>
+        <v>335100</v>
       </c>
       <c r="H33" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="I33" s="3">
         <v>1900</v>
       </c>
       <c r="J33" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="K33" s="3">
         <v>-2700</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>321400</v>
+        <v>328200</v>
       </c>
       <c r="E35" s="3">
-        <v>453900</v>
+        <v>463500</v>
       </c>
       <c r="F35" s="3">
-        <v>430200</v>
+        <v>439300</v>
       </c>
       <c r="G35" s="3">
-        <v>328200</v>
+        <v>335100</v>
       </c>
       <c r="H35" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="I35" s="3">
         <v>1900</v>
       </c>
       <c r="J35" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="K35" s="3">
         <v>-2700</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>513900</v>
+        <v>524800</v>
       </c>
       <c r="E41" s="3">
-        <v>399200</v>
+        <v>407600</v>
       </c>
       <c r="F41" s="3">
-        <v>377100</v>
+        <v>385000</v>
       </c>
       <c r="G41" s="3">
-        <v>681700</v>
+        <v>696100</v>
       </c>
       <c r="H41" s="3">
-        <v>39400</v>
+        <v>40200</v>
       </c>
       <c r="I41" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="J41" s="3">
-        <v>68900</v>
+        <v>70400</v>
       </c>
       <c r="K41" s="3">
         <v>8400</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1156000</v>
+        <v>1180400</v>
       </c>
       <c r="E42" s="3">
-        <v>1881100</v>
+        <v>1920900</v>
       </c>
       <c r="F42" s="3">
-        <v>1348200</v>
+        <v>1376700</v>
       </c>
       <c r="G42" s="3">
-        <v>373200</v>
+        <v>381100</v>
       </c>
       <c r="H42" s="3">
-        <v>60200</v>
+        <v>61400</v>
       </c>
       <c r="I42" s="3">
-        <v>45800</v>
+        <v>46800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30700</v>
+        <v>93600</v>
       </c>
       <c r="E43" s="3">
-        <v>79900</v>
+        <v>81600</v>
       </c>
       <c r="F43" s="3">
-        <v>133800</v>
+        <v>136600</v>
       </c>
       <c r="G43" s="3">
-        <v>62600</v>
+        <v>63900</v>
       </c>
       <c r="H43" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="I43" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J43" s="3">
         <v>1500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>94100</v>
+        <v>33800</v>
       </c>
       <c r="E45" s="3">
-        <v>52800</v>
+        <v>53900</v>
       </c>
       <c r="F45" s="3">
-        <v>71000</v>
+        <v>72500</v>
       </c>
       <c r="G45" s="3">
-        <v>70100</v>
+        <v>71600</v>
       </c>
       <c r="H45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1794700</v>
+        <v>1832600</v>
       </c>
       <c r="E46" s="3">
-        <v>2413000</v>
+        <v>2464000</v>
       </c>
       <c r="F46" s="3">
-        <v>1930100</v>
+        <v>1970900</v>
       </c>
       <c r="G46" s="3">
-        <v>1181600</v>
+        <v>1206600</v>
       </c>
       <c r="H46" s="3">
-        <v>110000</v>
+        <v>112400</v>
       </c>
       <c r="I46" s="3">
-        <v>77000</v>
+        <v>78600</v>
       </c>
       <c r="J46" s="3">
-        <v>71200</v>
+        <v>72700</v>
       </c>
       <c r="K46" s="3">
         <v>8900</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69500</v>
+        <v>71000</v>
       </c>
       <c r="E47" s="3">
-        <v>75800</v>
+        <v>77400</v>
       </c>
       <c r="F47" s="3">
-        <v>68400</v>
+        <v>69800</v>
       </c>
       <c r="G47" s="3">
-        <v>44100</v>
+        <v>45000</v>
       </c>
       <c r="H47" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I47" s="3">
         <v>3000</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83100</v>
+        <v>84900</v>
       </c>
       <c r="E48" s="3">
-        <v>82000</v>
+        <v>83800</v>
       </c>
       <c r="F48" s="3">
-        <v>59200</v>
+        <v>60500</v>
       </c>
       <c r="G48" s="3">
-        <v>39500</v>
+        <v>40400</v>
       </c>
       <c r="H48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
       </c>
       <c r="J48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -2027,16 +2027,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>729600</v>
+        <v>745000</v>
       </c>
       <c r="E49" s="3">
-        <v>802200</v>
+        <v>819200</v>
       </c>
       <c r="F49" s="3">
-        <v>816400</v>
+        <v>833700</v>
       </c>
       <c r="G49" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>870700</v>
+        <v>889100</v>
       </c>
       <c r="E52" s="3">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="F52" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="G52" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3547600</v>
+        <v>3622600</v>
       </c>
       <c r="E54" s="3">
-        <v>3435100</v>
+        <v>3507700</v>
       </c>
       <c r="F54" s="3">
-        <v>2897600</v>
+        <v>2958800</v>
       </c>
       <c r="G54" s="3">
-        <v>1294200</v>
+        <v>1321600</v>
       </c>
       <c r="H54" s="3">
-        <v>117600</v>
+        <v>120100</v>
       </c>
       <c r="I54" s="3">
-        <v>82800</v>
+        <v>84600</v>
       </c>
       <c r="J54" s="3">
-        <v>73100</v>
+        <v>74700</v>
       </c>
       <c r="K54" s="3">
         <v>9600</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>106900</v>
+        <v>109100</v>
       </c>
       <c r="E57" s="3">
-        <v>109100</v>
+        <v>111400</v>
       </c>
       <c r="F57" s="3">
-        <v>109800</v>
+        <v>112100</v>
       </c>
       <c r="G57" s="3">
-        <v>74100</v>
+        <v>75700</v>
       </c>
       <c r="H57" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>277700</v>
+        <v>283500</v>
       </c>
       <c r="E59" s="3">
-        <v>289100</v>
+        <v>295200</v>
       </c>
       <c r="F59" s="3">
-        <v>302200</v>
+        <v>308600</v>
       </c>
       <c r="G59" s="3">
-        <v>184400</v>
+        <v>188300</v>
       </c>
       <c r="H59" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="I59" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="J59" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>384500</v>
+        <v>392600</v>
       </c>
       <c r="E60" s="3">
-        <v>398300</v>
+        <v>406700</v>
       </c>
       <c r="F60" s="3">
-        <v>411900</v>
+        <v>420600</v>
       </c>
       <c r="G60" s="3">
-        <v>258500</v>
+        <v>264000</v>
       </c>
       <c r="H60" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="I60" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J60" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>711800</v>
+        <v>726800</v>
       </c>
       <c r="E61" s="3">
-        <v>756900</v>
+        <v>772900</v>
       </c>
       <c r="F61" s="3">
-        <v>745100</v>
+        <v>760900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>184800</v>
+        <v>188700</v>
       </c>
       <c r="E62" s="3">
-        <v>183900</v>
+        <v>187800</v>
       </c>
       <c r="F62" s="3">
-        <v>56400</v>
+        <v>57600</v>
       </c>
       <c r="G62" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1281100</v>
+        <v>1338800</v>
       </c>
       <c r="E66" s="3">
-        <v>1367900</v>
+        <v>1396900</v>
       </c>
       <c r="F66" s="3">
-        <v>1227600</v>
+        <v>1253500</v>
       </c>
       <c r="G66" s="3">
-        <v>265500</v>
+        <v>271100</v>
       </c>
       <c r="H66" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="I66" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="J66" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
@@ -2794,26 +2794,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>1317400</v>
       </c>
       <c r="E72" s="3">
-        <v>1140400</v>
+        <v>1164500</v>
       </c>
       <c r="F72" s="3">
-        <v>819100</v>
+        <v>836400</v>
       </c>
       <c r="G72" s="3">
-        <v>388900</v>
+        <v>397100</v>
       </c>
       <c r="H72" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="I72" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="J72" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="K72" s="3">
         <v>-3800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2266500</v>
+        <v>2283800</v>
       </c>
       <c r="E76" s="3">
-        <v>2067100</v>
+        <v>2110800</v>
       </c>
       <c r="F76" s="3">
-        <v>1670000</v>
+        <v>1705300</v>
       </c>
       <c r="G76" s="3">
-        <v>1028800</v>
+        <v>1050500</v>
       </c>
       <c r="H76" s="3">
-        <v>96900</v>
+        <v>98900</v>
       </c>
       <c r="I76" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="J76" s="3">
-        <v>67300</v>
+        <v>68700</v>
       </c>
       <c r="K76" s="3">
         <v>-3500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>321400</v>
+        <v>328200</v>
       </c>
       <c r="E81" s="3">
-        <v>453900</v>
+        <v>463500</v>
       </c>
       <c r="F81" s="3">
-        <v>430200</v>
+        <v>439300</v>
       </c>
       <c r="G81" s="3">
-        <v>328200</v>
+        <v>335100</v>
       </c>
       <c r="H81" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="I81" s="3">
         <v>1900</v>
       </c>
       <c r="J81" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="K81" s="3">
         <v>-2700</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56000</v>
+        <v>57100</v>
       </c>
       <c r="E83" s="3">
-        <v>54400</v>
+        <v>55600</v>
       </c>
       <c r="F83" s="3">
-        <v>36900</v>
+        <v>37600</v>
       </c>
       <c r="G83" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="H83" s="3">
         <v>1300</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>470700</v>
+        <v>480600</v>
       </c>
       <c r="E89" s="3">
-        <v>832500</v>
+        <v>850100</v>
       </c>
       <c r="F89" s="3">
-        <v>508400</v>
+        <v>519200</v>
       </c>
       <c r="G89" s="3">
-        <v>440900</v>
+        <v>450300</v>
       </c>
       <c r="H89" s="3">
-        <v>33400</v>
+        <v>34100</v>
       </c>
       <c r="I89" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19000</v>
+        <v>-19400</v>
       </c>
       <c r="E91" s="3">
-        <v>-28500</v>
+        <v>-29100</v>
       </c>
       <c r="F91" s="3">
-        <v>-37100</v>
+        <v>-37900</v>
       </c>
       <c r="G91" s="3">
-        <v>-33400</v>
+        <v>-34100</v>
       </c>
       <c r="H91" s="3">
         <v>-1100</v>
@@ -3390,7 +3390,7 @@
         <v>-2100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-114400</v>
+        <v>-116800</v>
       </c>
       <c r="E94" s="3">
-        <v>-615700</v>
+        <v>-628700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1533000</v>
+        <v>-1565400</v>
       </c>
       <c r="G94" s="3">
-        <v>-28700</v>
+        <v>-29400</v>
       </c>
       <c r="H94" s="3">
-        <v>-18100</v>
+        <v>-18500</v>
       </c>
       <c r="I94" s="3">
-        <v>-50900</v>
+        <v>-52000</v>
       </c>
       <c r="J94" s="3">
         <v>-1500</v>
@@ -3532,10 +3532,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-171700</v>
+        <v>-175400</v>
       </c>
       <c r="E96" s="3">
-        <v>-134000</v>
+        <v>-136900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-228900</v>
+        <v>-233700</v>
       </c>
       <c r="E100" s="3">
-        <v>-194600</v>
+        <v>-198700</v>
       </c>
       <c r="F100" s="3">
-        <v>716200</v>
+        <v>731400</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -3694,7 +3694,7 @@
         <v>-300</v>
       </c>
       <c r="J100" s="3">
-        <v>63000</v>
+        <v>64300</v>
       </c>
       <c r="K100" s="3">
         <v>6800</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12400</v>
+        <v>-12600</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G101" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
         <v>-500</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>115100</v>
+        <v>117500</v>
       </c>
       <c r="E102" s="3">
-        <v>22100</v>
+        <v>22600</v>
       </c>
       <c r="F102" s="3">
-        <v>-304700</v>
+        <v>-311100</v>
       </c>
       <c r="G102" s="3">
-        <v>408500</v>
+        <v>417200</v>
       </c>
       <c r="H102" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="I102" s="3">
-        <v>-43000</v>
+        <v>-43900</v>
       </c>
       <c r="J102" s="3">
-        <v>60400</v>
+        <v>61700</v>
       </c>
       <c r="K102" s="3">
         <v>5600</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2343900</v>
+        <v>2313400</v>
       </c>
       <c r="E8" s="3">
-        <v>2654500</v>
+        <v>2620000</v>
       </c>
       <c r="F8" s="3">
-        <v>2091800</v>
+        <v>2064600</v>
       </c>
       <c r="G8" s="3">
-        <v>1386400</v>
+        <v>1368300</v>
       </c>
       <c r="H8" s="3">
-        <v>86300</v>
+        <v>85200</v>
       </c>
       <c r="I8" s="3">
-        <v>20900</v>
+        <v>20600</v>
       </c>
       <c r="J8" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1244500</v>
+        <v>1228300</v>
       </c>
       <c r="E9" s="3">
-        <v>1324900</v>
+        <v>1307600</v>
       </c>
       <c r="F9" s="3">
-        <v>1120600</v>
+        <v>1106000</v>
       </c>
       <c r="G9" s="3">
-        <v>682300</v>
+        <v>673400</v>
       </c>
       <c r="H9" s="3">
-        <v>37700</v>
+        <v>37200</v>
       </c>
       <c r="I9" s="3">
         <v>4700</v>
       </c>
       <c r="J9" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1099500</v>
+        <v>1085200</v>
       </c>
       <c r="E10" s="3">
-        <v>1329700</v>
+        <v>1312400</v>
       </c>
       <c r="F10" s="3">
-        <v>971200</v>
+        <v>958600</v>
       </c>
       <c r="G10" s="3">
-        <v>704100</v>
+        <v>694900</v>
       </c>
       <c r="H10" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="I10" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="J10" s="3">
         <v>4500</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>182200</v>
+        <v>179800</v>
       </c>
       <c r="E12" s="3">
-        <v>170800</v>
+        <v>168600</v>
       </c>
       <c r="F12" s="3">
-        <v>118700</v>
+        <v>117100</v>
       </c>
       <c r="G12" s="3">
-        <v>54000</v>
+        <v>53300</v>
       </c>
       <c r="H12" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I12" s="3">
         <v>3600</v>
@@ -920,13 +920,13 @@
         <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="3">
         <v>6700</v>
       </c>
       <c r="G14" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H14" s="3">
         <v>900</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1950600</v>
+        <v>1925300</v>
       </c>
       <c r="E17" s="3">
-        <v>2102400</v>
+        <v>2075100</v>
       </c>
       <c r="F17" s="3">
-        <v>1589000</v>
+        <v>1568300</v>
       </c>
       <c r="G17" s="3">
-        <v>1011300</v>
+        <v>998100</v>
       </c>
       <c r="H17" s="3">
-        <v>64600</v>
+        <v>63800</v>
       </c>
       <c r="I17" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="J17" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="K17" s="3">
         <v>1900</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>393300</v>
+        <v>388200</v>
       </c>
       <c r="E18" s="3">
-        <v>552100</v>
+        <v>544900</v>
       </c>
       <c r="F18" s="3">
-        <v>502800</v>
+        <v>496300</v>
       </c>
       <c r="G18" s="3">
-        <v>375100</v>
+        <v>370200</v>
       </c>
       <c r="H18" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="I18" s="3">
         <v>900</v>
       </c>
       <c r="J18" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K18" s="3">
         <v>-1400</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71200</v>
+        <v>70300</v>
       </c>
       <c r="E20" s="3">
-        <v>63600</v>
+        <v>62800</v>
       </c>
       <c r="F20" s="3">
-        <v>42600</v>
+        <v>42000</v>
       </c>
       <c r="G20" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="H20" s="3">
         <v>1300</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>521600</v>
+        <v>514900</v>
       </c>
       <c r="E21" s="3">
-        <v>671200</v>
+        <v>662600</v>
       </c>
       <c r="F21" s="3">
-        <v>583000</v>
+        <v>575500</v>
       </c>
       <c r="G21" s="3">
-        <v>410800</v>
+        <v>405500</v>
       </c>
       <c r="H21" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="I21" s="3">
         <v>3100</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="E22" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="F22" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>452200</v>
+        <v>446300</v>
       </c>
       <c r="E23" s="3">
-        <v>603400</v>
+        <v>595600</v>
       </c>
       <c r="F23" s="3">
-        <v>536600</v>
+        <v>529600</v>
       </c>
       <c r="G23" s="3">
-        <v>397800</v>
+        <v>392600</v>
       </c>
       <c r="H23" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="I23" s="3">
         <v>2100</v>
       </c>
       <c r="J23" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="K23" s="3">
         <v>-1400</v>
@@ -1234,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117900</v>
+        <v>116400</v>
       </c>
       <c r="E24" s="3">
-        <v>137900</v>
+        <v>136100</v>
       </c>
       <c r="F24" s="3">
-        <v>109200</v>
+        <v>107700</v>
       </c>
       <c r="G24" s="3">
-        <v>69400</v>
+        <v>68500</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>334300</v>
+        <v>330000</v>
       </c>
       <c r="E26" s="3">
-        <v>465600</v>
+        <v>459500</v>
       </c>
       <c r="F26" s="3">
-        <v>427400</v>
+        <v>421900</v>
       </c>
       <c r="G26" s="3">
-        <v>328400</v>
+        <v>324100</v>
       </c>
       <c r="H26" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="I26" s="3">
         <v>2100</v>
       </c>
       <c r="J26" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="K26" s="3">
         <v>-1400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>328200</v>
+        <v>323900</v>
       </c>
       <c r="E27" s="3">
-        <v>463500</v>
+        <v>457500</v>
       </c>
       <c r="F27" s="3">
-        <v>439300</v>
+        <v>433600</v>
       </c>
       <c r="G27" s="3">
-        <v>335100</v>
+        <v>330800</v>
       </c>
       <c r="H27" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I27" s="3">
         <v>1900</v>
       </c>
       <c r="J27" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="K27" s="3">
         <v>-2700</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71200</v>
+        <v>-70300</v>
       </c>
       <c r="E32" s="3">
-        <v>-63600</v>
+        <v>-62800</v>
       </c>
       <c r="F32" s="3">
-        <v>-42600</v>
+        <v>-42000</v>
       </c>
       <c r="G32" s="3">
-        <v>-22700</v>
+        <v>-22400</v>
       </c>
       <c r="H32" s="3">
         <v>-1300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>328200</v>
+        <v>323900</v>
       </c>
       <c r="E33" s="3">
-        <v>463500</v>
+        <v>457500</v>
       </c>
       <c r="F33" s="3">
-        <v>439300</v>
+        <v>433600</v>
       </c>
       <c r="G33" s="3">
-        <v>335100</v>
+        <v>330800</v>
       </c>
       <c r="H33" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I33" s="3">
         <v>1900</v>
       </c>
       <c r="J33" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="K33" s="3">
         <v>-2700</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>328200</v>
+        <v>323900</v>
       </c>
       <c r="E35" s="3">
-        <v>463500</v>
+        <v>457500</v>
       </c>
       <c r="F35" s="3">
-        <v>439300</v>
+        <v>433600</v>
       </c>
       <c r="G35" s="3">
-        <v>335100</v>
+        <v>330800</v>
       </c>
       <c r="H35" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I35" s="3">
         <v>1900</v>
       </c>
       <c r="J35" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="K35" s="3">
         <v>-2700</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>524800</v>
+        <v>518000</v>
       </c>
       <c r="E41" s="3">
-        <v>407600</v>
+        <v>402300</v>
       </c>
       <c r="F41" s="3">
-        <v>385000</v>
+        <v>380000</v>
       </c>
       <c r="G41" s="3">
-        <v>696100</v>
+        <v>687100</v>
       </c>
       <c r="H41" s="3">
-        <v>40200</v>
+        <v>39700</v>
       </c>
       <c r="I41" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="J41" s="3">
-        <v>70400</v>
+        <v>69400</v>
       </c>
       <c r="K41" s="3">
         <v>8400</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1180400</v>
+        <v>1165100</v>
       </c>
       <c r="E42" s="3">
-        <v>1920900</v>
+        <v>1895900</v>
       </c>
       <c r="F42" s="3">
-        <v>1376700</v>
+        <v>1358800</v>
       </c>
       <c r="G42" s="3">
-        <v>381100</v>
+        <v>376100</v>
       </c>
       <c r="H42" s="3">
-        <v>61400</v>
+        <v>60600</v>
       </c>
       <c r="I42" s="3">
-        <v>46800</v>
+        <v>46200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>93600</v>
+        <v>92400</v>
       </c>
       <c r="E43" s="3">
-        <v>81600</v>
+        <v>80500</v>
       </c>
       <c r="F43" s="3">
-        <v>136600</v>
+        <v>134800</v>
       </c>
       <c r="G43" s="3">
-        <v>63900</v>
+        <v>63100</v>
       </c>
       <c r="H43" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I43" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J43" s="3">
         <v>1500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33800</v>
+        <v>33400</v>
       </c>
       <c r="E45" s="3">
-        <v>53900</v>
+        <v>53200</v>
       </c>
       <c r="F45" s="3">
-        <v>72500</v>
+        <v>71600</v>
       </c>
       <c r="G45" s="3">
-        <v>71600</v>
+        <v>70700</v>
       </c>
       <c r="H45" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1832600</v>
+        <v>1808800</v>
       </c>
       <c r="E46" s="3">
-        <v>2464000</v>
+        <v>2431900</v>
       </c>
       <c r="F46" s="3">
-        <v>1970900</v>
+        <v>1945300</v>
       </c>
       <c r="G46" s="3">
-        <v>1206600</v>
+        <v>1190900</v>
       </c>
       <c r="H46" s="3">
-        <v>112400</v>
+        <v>110900</v>
       </c>
       <c r="I46" s="3">
-        <v>78600</v>
+        <v>77600</v>
       </c>
       <c r="J46" s="3">
-        <v>72700</v>
+        <v>71800</v>
       </c>
       <c r="K46" s="3">
         <v>8900</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71000</v>
+        <v>70100</v>
       </c>
       <c r="E47" s="3">
-        <v>77400</v>
+        <v>76400</v>
       </c>
       <c r="F47" s="3">
-        <v>69800</v>
+        <v>68900</v>
       </c>
       <c r="G47" s="3">
-        <v>45000</v>
+        <v>44400</v>
       </c>
       <c r="H47" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I47" s="3">
         <v>3000</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>84900</v>
+        <v>83800</v>
       </c>
       <c r="E48" s="3">
-        <v>83800</v>
+        <v>82700</v>
       </c>
       <c r="F48" s="3">
-        <v>60500</v>
+        <v>59700</v>
       </c>
       <c r="G48" s="3">
-        <v>40400</v>
+        <v>39800</v>
       </c>
       <c r="H48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
       </c>
       <c r="J48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -2027,16 +2027,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>745000</v>
+        <v>735300</v>
       </c>
       <c r="E49" s="3">
-        <v>819200</v>
+        <v>808500</v>
       </c>
       <c r="F49" s="3">
-        <v>833700</v>
+        <v>822800</v>
       </c>
       <c r="G49" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>889100</v>
+        <v>877600</v>
       </c>
       <c r="E52" s="3">
-        <v>63400</v>
+        <v>62500</v>
       </c>
       <c r="F52" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="G52" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3622600</v>
+        <v>3575500</v>
       </c>
       <c r="E54" s="3">
-        <v>3507700</v>
+        <v>3462000</v>
       </c>
       <c r="F54" s="3">
-        <v>2958800</v>
+        <v>2920300</v>
       </c>
       <c r="G54" s="3">
-        <v>1321600</v>
+        <v>1304400</v>
       </c>
       <c r="H54" s="3">
-        <v>120100</v>
+        <v>118500</v>
       </c>
       <c r="I54" s="3">
-        <v>84600</v>
+        <v>83500</v>
       </c>
       <c r="J54" s="3">
-        <v>74700</v>
+        <v>73700</v>
       </c>
       <c r="K54" s="3">
         <v>9600</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>109100</v>
+        <v>107700</v>
       </c>
       <c r="E57" s="3">
-        <v>111400</v>
+        <v>110000</v>
       </c>
       <c r="F57" s="3">
-        <v>112100</v>
+        <v>110600</v>
       </c>
       <c r="G57" s="3">
-        <v>75700</v>
+        <v>74700</v>
       </c>
       <c r="H57" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>283500</v>
+        <v>279800</v>
       </c>
       <c r="E59" s="3">
-        <v>295200</v>
+        <v>291400</v>
       </c>
       <c r="F59" s="3">
-        <v>308600</v>
+        <v>304600</v>
       </c>
       <c r="G59" s="3">
-        <v>188300</v>
+        <v>185900</v>
       </c>
       <c r="H59" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="I59" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J59" s="3">
         <v>5000</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>392600</v>
+        <v>387500</v>
       </c>
       <c r="E60" s="3">
-        <v>406700</v>
+        <v>401400</v>
       </c>
       <c r="F60" s="3">
-        <v>420600</v>
+        <v>415200</v>
       </c>
       <c r="G60" s="3">
-        <v>264000</v>
+        <v>260500</v>
       </c>
       <c r="H60" s="3">
-        <v>20900</v>
+        <v>20600</v>
       </c>
       <c r="I60" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="J60" s="3">
         <v>5900</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>726800</v>
+        <v>717400</v>
       </c>
       <c r="E61" s="3">
-        <v>772900</v>
+        <v>762900</v>
       </c>
       <c r="F61" s="3">
-        <v>760900</v>
+        <v>751000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>188700</v>
+        <v>186200</v>
       </c>
       <c r="E62" s="3">
-        <v>187800</v>
+        <v>185400</v>
       </c>
       <c r="F62" s="3">
-        <v>57600</v>
+        <v>56900</v>
       </c>
       <c r="G62" s="3">
         <v>4200</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1338800</v>
+        <v>1321400</v>
       </c>
       <c r="E66" s="3">
-        <v>1396900</v>
+        <v>1378700</v>
       </c>
       <c r="F66" s="3">
-        <v>1253500</v>
+        <v>1237200</v>
       </c>
       <c r="G66" s="3">
-        <v>271100</v>
+        <v>267600</v>
       </c>
       <c r="H66" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="I66" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="J66" s="3">
         <v>5900</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1317400</v>
+        <v>1300200</v>
       </c>
       <c r="E72" s="3">
-        <v>1164500</v>
+        <v>1149400</v>
       </c>
       <c r="F72" s="3">
-        <v>836400</v>
+        <v>825500</v>
       </c>
       <c r="G72" s="3">
-        <v>397100</v>
+        <v>391900</v>
       </c>
       <c r="H72" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I72" s="3">
-        <v>-14700</v>
+        <v>-14500</v>
       </c>
       <c r="J72" s="3">
-        <v>-16800</v>
+        <v>-16600</v>
       </c>
       <c r="K72" s="3">
         <v>-3800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2283800</v>
+        <v>2254100</v>
       </c>
       <c r="E76" s="3">
-        <v>2110800</v>
+        <v>2083400</v>
       </c>
       <c r="F76" s="3">
-        <v>1705300</v>
+        <v>1683100</v>
       </c>
       <c r="G76" s="3">
-        <v>1050500</v>
+        <v>1036800</v>
       </c>
       <c r="H76" s="3">
-        <v>98900</v>
+        <v>97600</v>
       </c>
       <c r="I76" s="3">
-        <v>73100</v>
+        <v>72100</v>
       </c>
       <c r="J76" s="3">
-        <v>68700</v>
+        <v>67800</v>
       </c>
       <c r="K76" s="3">
         <v>-3500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>328200</v>
+        <v>323900</v>
       </c>
       <c r="E81" s="3">
-        <v>463500</v>
+        <v>457500</v>
       </c>
       <c r="F81" s="3">
-        <v>439300</v>
+        <v>433600</v>
       </c>
       <c r="G81" s="3">
-        <v>335100</v>
+        <v>330800</v>
       </c>
       <c r="H81" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="I81" s="3">
         <v>1900</v>
       </c>
       <c r="J81" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="K81" s="3">
         <v>-2700</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57100</v>
+        <v>56400</v>
       </c>
       <c r="E83" s="3">
-        <v>55600</v>
+        <v>54800</v>
       </c>
       <c r="F83" s="3">
-        <v>37600</v>
+        <v>37200</v>
       </c>
       <c r="G83" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="H83" s="3">
         <v>1300</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>480600</v>
+        <v>474400</v>
       </c>
       <c r="E89" s="3">
-        <v>850100</v>
+        <v>839000</v>
       </c>
       <c r="F89" s="3">
-        <v>519200</v>
+        <v>512400</v>
       </c>
       <c r="G89" s="3">
-        <v>450300</v>
+        <v>444400</v>
       </c>
       <c r="H89" s="3">
-        <v>34100</v>
+        <v>33600</v>
       </c>
       <c r="I89" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19400</v>
+        <v>-19100</v>
       </c>
       <c r="E91" s="3">
-        <v>-29100</v>
+        <v>-28700</v>
       </c>
       <c r="F91" s="3">
-        <v>-37900</v>
+        <v>-37400</v>
       </c>
       <c r="G91" s="3">
-        <v>-34100</v>
+        <v>-33700</v>
       </c>
       <c r="H91" s="3">
         <v>-1100</v>
@@ -3390,7 +3390,7 @@
         <v>-2100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-116800</v>
+        <v>-115200</v>
       </c>
       <c r="E94" s="3">
-        <v>-628700</v>
+        <v>-620500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1565400</v>
+        <v>-1545000</v>
       </c>
       <c r="G94" s="3">
-        <v>-29400</v>
+        <v>-29000</v>
       </c>
       <c r="H94" s="3">
-        <v>-18500</v>
+        <v>-18200</v>
       </c>
       <c r="I94" s="3">
-        <v>-52000</v>
+        <v>-51300</v>
       </c>
       <c r="J94" s="3">
         <v>-1500</v>
@@ -3532,10 +3532,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-175400</v>
+        <v>-173100</v>
       </c>
       <c r="E96" s="3">
-        <v>-136900</v>
+        <v>-135100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-233700</v>
+        <v>-230700</v>
       </c>
       <c r="E100" s="3">
-        <v>-198700</v>
+        <v>-196100</v>
       </c>
       <c r="F100" s="3">
-        <v>731400</v>
+        <v>721900</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -3694,7 +3694,7 @@
         <v>-300</v>
       </c>
       <c r="J100" s="3">
-        <v>64300</v>
+        <v>63500</v>
       </c>
       <c r="K100" s="3">
         <v>6800</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="H101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
         <v>-500</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117500</v>
+        <v>116000</v>
       </c>
       <c r="E102" s="3">
-        <v>22600</v>
+        <v>22300</v>
       </c>
       <c r="F102" s="3">
-        <v>-311100</v>
+        <v>-307100</v>
       </c>
       <c r="G102" s="3">
-        <v>417200</v>
+        <v>411700</v>
       </c>
       <c r="H102" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="I102" s="3">
-        <v>-43900</v>
+        <v>-43300</v>
       </c>
       <c r="J102" s="3">
-        <v>61700</v>
+        <v>60900</v>
       </c>
       <c r="K102" s="3">
         <v>5600</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2313400</v>
+        <v>2352200</v>
       </c>
       <c r="E8" s="3">
-        <v>2620000</v>
+        <v>2663900</v>
       </c>
       <c r="F8" s="3">
-        <v>2064600</v>
+        <v>2099200</v>
       </c>
       <c r="G8" s="3">
-        <v>1368300</v>
+        <v>1391300</v>
       </c>
       <c r="H8" s="3">
-        <v>85200</v>
+        <v>86600</v>
       </c>
       <c r="I8" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="J8" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1228300</v>
+        <v>1248800</v>
       </c>
       <c r="E9" s="3">
-        <v>1307600</v>
+        <v>1329500</v>
       </c>
       <c r="F9" s="3">
-        <v>1106000</v>
+        <v>1124600</v>
       </c>
       <c r="G9" s="3">
-        <v>673400</v>
+        <v>684700</v>
       </c>
       <c r="H9" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="I9" s="3">
         <v>4700</v>
       </c>
       <c r="J9" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1085200</v>
+        <v>1103300</v>
       </c>
       <c r="E10" s="3">
-        <v>1312400</v>
+        <v>1334400</v>
       </c>
       <c r="F10" s="3">
-        <v>958600</v>
+        <v>974700</v>
       </c>
       <c r="G10" s="3">
-        <v>694900</v>
+        <v>706600</v>
       </c>
       <c r="H10" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="I10" s="3">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="J10" s="3">
         <v>4500</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>179800</v>
+        <v>182800</v>
       </c>
       <c r="E12" s="3">
-        <v>168600</v>
+        <v>171400</v>
       </c>
       <c r="F12" s="3">
-        <v>117100</v>
+        <v>119100</v>
       </c>
       <c r="G12" s="3">
-        <v>53300</v>
+        <v>54200</v>
       </c>
       <c r="H12" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I12" s="3">
         <v>3600</v>
       </c>
       <c r="J12" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
@@ -920,13 +920,13 @@
         <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G14" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H14" s="3">
         <v>900</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1925300</v>
+        <v>1957500</v>
       </c>
       <c r="E17" s="3">
-        <v>2075100</v>
+        <v>2109800</v>
       </c>
       <c r="F17" s="3">
-        <v>1568300</v>
+        <v>1594600</v>
       </c>
       <c r="G17" s="3">
-        <v>998100</v>
+        <v>1014900</v>
       </c>
       <c r="H17" s="3">
-        <v>63800</v>
+        <v>64900</v>
       </c>
       <c r="I17" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="J17" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="K17" s="3">
         <v>1900</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>388200</v>
+        <v>394700</v>
       </c>
       <c r="E18" s="3">
-        <v>544900</v>
+        <v>554100</v>
       </c>
       <c r="F18" s="3">
-        <v>496300</v>
+        <v>504600</v>
       </c>
       <c r="G18" s="3">
-        <v>370200</v>
+        <v>376400</v>
       </c>
       <c r="H18" s="3">
-        <v>21400</v>
+        <v>21700</v>
       </c>
       <c r="I18" s="3">
         <v>900</v>
       </c>
       <c r="J18" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K18" s="3">
         <v>-1400</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>70300</v>
+        <v>71500</v>
       </c>
       <c r="E20" s="3">
-        <v>62800</v>
+        <v>63800</v>
       </c>
       <c r="F20" s="3">
-        <v>42000</v>
+        <v>42700</v>
       </c>
       <c r="G20" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="H20" s="3">
         <v>1300</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>514900</v>
+        <v>523400</v>
       </c>
       <c r="E21" s="3">
-        <v>662600</v>
+        <v>673600</v>
       </c>
       <c r="F21" s="3">
-        <v>575500</v>
+        <v>585100</v>
       </c>
       <c r="G21" s="3">
-        <v>405500</v>
+        <v>412300</v>
       </c>
       <c r="H21" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="I21" s="3">
         <v>3100</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="E22" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="F22" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>446300</v>
+        <v>453800</v>
       </c>
       <c r="E23" s="3">
-        <v>595600</v>
+        <v>605600</v>
       </c>
       <c r="F23" s="3">
-        <v>529600</v>
+        <v>538500</v>
       </c>
       <c r="G23" s="3">
-        <v>392600</v>
+        <v>399200</v>
       </c>
       <c r="H23" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="I23" s="3">
         <v>2100</v>
       </c>
       <c r="J23" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K23" s="3">
         <v>-1400</v>
@@ -1234,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>116400</v>
+        <v>118300</v>
       </c>
       <c r="E24" s="3">
-        <v>136100</v>
+        <v>138400</v>
       </c>
       <c r="F24" s="3">
-        <v>107700</v>
+        <v>109500</v>
       </c>
       <c r="G24" s="3">
-        <v>68500</v>
+        <v>69700</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>330000</v>
+        <v>335500</v>
       </c>
       <c r="E26" s="3">
-        <v>459500</v>
+        <v>467200</v>
       </c>
       <c r="F26" s="3">
-        <v>421900</v>
+        <v>429000</v>
       </c>
       <c r="G26" s="3">
-        <v>324100</v>
+        <v>329500</v>
       </c>
       <c r="H26" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="I26" s="3">
         <v>2100</v>
       </c>
       <c r="J26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K26" s="3">
         <v>-1400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>323900</v>
+        <v>329300</v>
       </c>
       <c r="E27" s="3">
-        <v>457500</v>
+        <v>465100</v>
       </c>
       <c r="F27" s="3">
-        <v>433600</v>
+        <v>440800</v>
       </c>
       <c r="G27" s="3">
-        <v>330800</v>
+        <v>336300</v>
       </c>
       <c r="H27" s="3">
-        <v>21900</v>
+        <v>22200</v>
       </c>
       <c r="I27" s="3">
         <v>1900</v>
       </c>
       <c r="J27" s="3">
-        <v>-12800</v>
+        <v>-13000</v>
       </c>
       <c r="K27" s="3">
         <v>-2700</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-70300</v>
+        <v>-71500</v>
       </c>
       <c r="E32" s="3">
-        <v>-62800</v>
+        <v>-63800</v>
       </c>
       <c r="F32" s="3">
-        <v>-42000</v>
+        <v>-42700</v>
       </c>
       <c r="G32" s="3">
-        <v>-22400</v>
+        <v>-22800</v>
       </c>
       <c r="H32" s="3">
         <v>-1300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>323900</v>
+        <v>329300</v>
       </c>
       <c r="E33" s="3">
-        <v>457500</v>
+        <v>465100</v>
       </c>
       <c r="F33" s="3">
-        <v>433600</v>
+        <v>440800</v>
       </c>
       <c r="G33" s="3">
-        <v>330800</v>
+        <v>336300</v>
       </c>
       <c r="H33" s="3">
-        <v>21900</v>
+        <v>22200</v>
       </c>
       <c r="I33" s="3">
         <v>1900</v>
       </c>
       <c r="J33" s="3">
-        <v>-12800</v>
+        <v>-13000</v>
       </c>
       <c r="K33" s="3">
         <v>-2700</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>323900</v>
+        <v>329300</v>
       </c>
       <c r="E35" s="3">
-        <v>457500</v>
+        <v>465100</v>
       </c>
       <c r="F35" s="3">
-        <v>433600</v>
+        <v>440800</v>
       </c>
       <c r="G35" s="3">
-        <v>330800</v>
+        <v>336300</v>
       </c>
       <c r="H35" s="3">
-        <v>21900</v>
+        <v>22200</v>
       </c>
       <c r="I35" s="3">
         <v>1900</v>
       </c>
       <c r="J35" s="3">
-        <v>-12800</v>
+        <v>-13000</v>
       </c>
       <c r="K35" s="3">
         <v>-2700</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>518000</v>
+        <v>526700</v>
       </c>
       <c r="E41" s="3">
-        <v>402300</v>
+        <v>409100</v>
       </c>
       <c r="F41" s="3">
-        <v>380000</v>
+        <v>386400</v>
       </c>
       <c r="G41" s="3">
-        <v>687100</v>
+        <v>698600</v>
       </c>
       <c r="H41" s="3">
-        <v>39700</v>
+        <v>40300</v>
       </c>
       <c r="I41" s="3">
-        <v>26100</v>
+        <v>26500</v>
       </c>
       <c r="J41" s="3">
-        <v>69400</v>
+        <v>70600</v>
       </c>
       <c r="K41" s="3">
         <v>8400</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1165100</v>
+        <v>1184600</v>
       </c>
       <c r="E42" s="3">
-        <v>1895900</v>
+        <v>1927700</v>
       </c>
       <c r="F42" s="3">
-        <v>1358800</v>
+        <v>1381600</v>
       </c>
       <c r="G42" s="3">
-        <v>376100</v>
+        <v>382400</v>
       </c>
       <c r="H42" s="3">
-        <v>60600</v>
+        <v>61600</v>
       </c>
       <c r="I42" s="3">
-        <v>46200</v>
+        <v>47000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>92400</v>
+        <v>93900</v>
       </c>
       <c r="E43" s="3">
-        <v>80500</v>
+        <v>81900</v>
       </c>
       <c r="F43" s="3">
-        <v>134800</v>
+        <v>137100</v>
       </c>
       <c r="G43" s="3">
-        <v>63100</v>
+        <v>64200</v>
       </c>
       <c r="H43" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I43" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J43" s="3">
         <v>1500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33400</v>
+        <v>33900</v>
       </c>
       <c r="E45" s="3">
-        <v>53200</v>
+        <v>54100</v>
       </c>
       <c r="F45" s="3">
-        <v>71600</v>
+        <v>72800</v>
       </c>
       <c r="G45" s="3">
-        <v>70700</v>
+        <v>71900</v>
       </c>
       <c r="H45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1808800</v>
+        <v>1839100</v>
       </c>
       <c r="E46" s="3">
-        <v>2431900</v>
+        <v>2472700</v>
       </c>
       <c r="F46" s="3">
-        <v>1945300</v>
+        <v>1977900</v>
       </c>
       <c r="G46" s="3">
-        <v>1190900</v>
+        <v>1210800</v>
       </c>
       <c r="H46" s="3">
-        <v>110900</v>
+        <v>112700</v>
       </c>
       <c r="I46" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="J46" s="3">
-        <v>71800</v>
+        <v>73000</v>
       </c>
       <c r="K46" s="3">
         <v>8900</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>77600</v>
+      </c>
+      <c r="F47" s="3">
         <v>70100</v>
       </c>
-      <c r="E47" s="3">
-        <v>76400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>68900</v>
-      </c>
       <c r="G47" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="H47" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I47" s="3">
         <v>3000</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83800</v>
+        <v>85200</v>
       </c>
       <c r="E48" s="3">
-        <v>82700</v>
+        <v>84100</v>
       </c>
       <c r="F48" s="3">
-        <v>59700</v>
+        <v>60700</v>
       </c>
       <c r="G48" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="H48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
       </c>
       <c r="J48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -2027,16 +2027,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>735300</v>
+        <v>747700</v>
       </c>
       <c r="E49" s="3">
-        <v>808500</v>
+        <v>822100</v>
       </c>
       <c r="F49" s="3">
-        <v>822800</v>
+        <v>836600</v>
       </c>
       <c r="G49" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>877600</v>
+        <v>892300</v>
       </c>
       <c r="E52" s="3">
-        <v>62500</v>
+        <v>63600</v>
       </c>
       <c r="F52" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="G52" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3575500</v>
+        <v>3635400</v>
       </c>
       <c r="E54" s="3">
-        <v>3462000</v>
+        <v>3520000</v>
       </c>
       <c r="F54" s="3">
-        <v>2920300</v>
+        <v>2969200</v>
       </c>
       <c r="G54" s="3">
-        <v>1304400</v>
+        <v>1326200</v>
       </c>
       <c r="H54" s="3">
-        <v>118500</v>
+        <v>120500</v>
       </c>
       <c r="I54" s="3">
-        <v>83500</v>
+        <v>84900</v>
       </c>
       <c r="J54" s="3">
-        <v>73700</v>
+        <v>74900</v>
       </c>
       <c r="K54" s="3">
         <v>9600</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107700</v>
+        <v>109500</v>
       </c>
       <c r="E57" s="3">
-        <v>110000</v>
+        <v>111800</v>
       </c>
       <c r="F57" s="3">
-        <v>110600</v>
+        <v>112500</v>
       </c>
       <c r="G57" s="3">
-        <v>74700</v>
+        <v>75900</v>
       </c>
       <c r="H57" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>279800</v>
+        <v>284500</v>
       </c>
       <c r="E59" s="3">
-        <v>291400</v>
+        <v>296300</v>
       </c>
       <c r="F59" s="3">
-        <v>304600</v>
+        <v>309700</v>
       </c>
       <c r="G59" s="3">
-        <v>185900</v>
+        <v>189000</v>
       </c>
       <c r="H59" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="I59" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="J59" s="3">
         <v>5000</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>387500</v>
+        <v>394000</v>
       </c>
       <c r="E60" s="3">
-        <v>401400</v>
+        <v>408100</v>
       </c>
       <c r="F60" s="3">
-        <v>415200</v>
+        <v>422100</v>
       </c>
       <c r="G60" s="3">
-        <v>260500</v>
+        <v>264900</v>
       </c>
       <c r="H60" s="3">
-        <v>20600</v>
+        <v>20900</v>
       </c>
       <c r="I60" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="J60" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>717400</v>
+        <v>729400</v>
       </c>
       <c r="E61" s="3">
-        <v>762900</v>
+        <v>775700</v>
       </c>
       <c r="F61" s="3">
-        <v>751000</v>
+        <v>763600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>186200</v>
+        <v>189400</v>
       </c>
       <c r="E62" s="3">
-        <v>185400</v>
+        <v>188500</v>
       </c>
       <c r="F62" s="3">
-        <v>56900</v>
+        <v>57800</v>
       </c>
       <c r="G62" s="3">
         <v>4200</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1321400</v>
+        <v>1343500</v>
       </c>
       <c r="E66" s="3">
-        <v>1378700</v>
+        <v>1401800</v>
       </c>
       <c r="F66" s="3">
-        <v>1237200</v>
+        <v>1258000</v>
       </c>
       <c r="G66" s="3">
-        <v>267600</v>
+        <v>272000</v>
       </c>
       <c r="H66" s="3">
-        <v>20900</v>
+        <v>21200</v>
       </c>
       <c r="I66" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="J66" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1300200</v>
+        <v>1322000</v>
       </c>
       <c r="E72" s="3">
-        <v>1149400</v>
+        <v>1168700</v>
       </c>
       <c r="F72" s="3">
-        <v>825500</v>
+        <v>839300</v>
       </c>
       <c r="G72" s="3">
-        <v>391900</v>
+        <v>398500</v>
       </c>
       <c r="H72" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I72" s="3">
-        <v>-14500</v>
+        <v>-14700</v>
       </c>
       <c r="J72" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="K72" s="3">
         <v>-3800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2254100</v>
+        <v>2291900</v>
       </c>
       <c r="E76" s="3">
-        <v>2083400</v>
+        <v>2118300</v>
       </c>
       <c r="F76" s="3">
-        <v>1683100</v>
+        <v>1711300</v>
       </c>
       <c r="G76" s="3">
-        <v>1036800</v>
+        <v>1054200</v>
       </c>
       <c r="H76" s="3">
-        <v>97600</v>
+        <v>99300</v>
       </c>
       <c r="I76" s="3">
-        <v>72100</v>
+        <v>73300</v>
       </c>
       <c r="J76" s="3">
-        <v>67800</v>
+        <v>68900</v>
       </c>
       <c r="K76" s="3">
         <v>-3500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>323900</v>
+        <v>329300</v>
       </c>
       <c r="E81" s="3">
-        <v>457500</v>
+        <v>465100</v>
       </c>
       <c r="F81" s="3">
-        <v>433600</v>
+        <v>440800</v>
       </c>
       <c r="G81" s="3">
-        <v>330800</v>
+        <v>336300</v>
       </c>
       <c r="H81" s="3">
-        <v>21900</v>
+        <v>22200</v>
       </c>
       <c r="I81" s="3">
         <v>1900</v>
       </c>
       <c r="J81" s="3">
-        <v>-12800</v>
+        <v>-13000</v>
       </c>
       <c r="K81" s="3">
         <v>-2700</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56400</v>
+        <v>57300</v>
       </c>
       <c r="E83" s="3">
-        <v>54800</v>
+        <v>55800</v>
       </c>
       <c r="F83" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="G83" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="H83" s="3">
         <v>1300</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>474400</v>
+        <v>482300</v>
       </c>
       <c r="E89" s="3">
-        <v>839000</v>
+        <v>853100</v>
       </c>
       <c r="F89" s="3">
-        <v>512400</v>
+        <v>521000</v>
       </c>
       <c r="G89" s="3">
-        <v>444400</v>
+        <v>451800</v>
       </c>
       <c r="H89" s="3">
-        <v>33600</v>
+        <v>34200</v>
       </c>
       <c r="I89" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19100</v>
+        <v>-19400</v>
       </c>
       <c r="E91" s="3">
-        <v>-28700</v>
+        <v>-29200</v>
       </c>
       <c r="F91" s="3">
-        <v>-37400</v>
+        <v>-38000</v>
       </c>
       <c r="G91" s="3">
-        <v>-33700</v>
+        <v>-34200</v>
       </c>
       <c r="H91" s="3">
         <v>-1100</v>
@@ -3390,7 +3390,7 @@
         <v>-2100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-115200</v>
+        <v>-117200</v>
       </c>
       <c r="E94" s="3">
-        <v>-620500</v>
+        <v>-630900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1545000</v>
+        <v>-1570900</v>
       </c>
       <c r="G94" s="3">
-        <v>-29000</v>
+        <v>-29500</v>
       </c>
       <c r="H94" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="I94" s="3">
-        <v>-51300</v>
+        <v>-52200</v>
       </c>
       <c r="J94" s="3">
         <v>-1500</v>
@@ -3532,10 +3532,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-173100</v>
+        <v>-176000</v>
       </c>
       <c r="E96" s="3">
-        <v>-135100</v>
+        <v>-137400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-230700</v>
+        <v>-234600</v>
       </c>
       <c r="E100" s="3">
-        <v>-196100</v>
+        <v>-199400</v>
       </c>
       <c r="F100" s="3">
-        <v>721900</v>
+        <v>733900</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -3694,7 +3694,7 @@
         <v>-300</v>
       </c>
       <c r="J100" s="3">
-        <v>63500</v>
+        <v>64500</v>
       </c>
       <c r="K100" s="3">
         <v>6800</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12500</v>
+        <v>-12700</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G101" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
         <v>-500</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>116000</v>
+        <v>117900</v>
       </c>
       <c r="E102" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="F102" s="3">
-        <v>-307100</v>
+        <v>-312200</v>
       </c>
       <c r="G102" s="3">
-        <v>411700</v>
+        <v>418600</v>
       </c>
       <c r="H102" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="I102" s="3">
-        <v>-43300</v>
+        <v>-44100</v>
       </c>
       <c r="J102" s="3">
-        <v>60900</v>
+        <v>61900</v>
       </c>
       <c r="K102" s="3">
         <v>5600</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2352200</v>
+        <v>2370200</v>
       </c>
       <c r="E8" s="3">
-        <v>2663900</v>
+        <v>2684300</v>
       </c>
       <c r="F8" s="3">
-        <v>2099200</v>
+        <v>2115300</v>
       </c>
       <c r="G8" s="3">
-        <v>1391300</v>
+        <v>1401900</v>
       </c>
       <c r="H8" s="3">
-        <v>86600</v>
+        <v>87300</v>
       </c>
       <c r="I8" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="J8" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1248800</v>
+        <v>1258400</v>
       </c>
       <c r="E9" s="3">
-        <v>1329500</v>
+        <v>1339700</v>
       </c>
       <c r="F9" s="3">
-        <v>1124600</v>
+        <v>1133200</v>
       </c>
       <c r="G9" s="3">
-        <v>684700</v>
+        <v>689900</v>
       </c>
       <c r="H9" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="I9" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J9" s="3">
         <v>2500</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1103300</v>
+        <v>1111800</v>
       </c>
       <c r="E10" s="3">
-        <v>1334400</v>
+        <v>1344600</v>
       </c>
       <c r="F10" s="3">
-        <v>974700</v>
+        <v>982100</v>
       </c>
       <c r="G10" s="3">
-        <v>706600</v>
+        <v>712000</v>
       </c>
       <c r="H10" s="3">
-        <v>48800</v>
+        <v>49200</v>
       </c>
       <c r="I10" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="J10" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>182800</v>
+        <v>184200</v>
       </c>
       <c r="E12" s="3">
-        <v>171400</v>
+        <v>172800</v>
       </c>
       <c r="F12" s="3">
-        <v>119100</v>
+        <v>120000</v>
       </c>
       <c r="G12" s="3">
-        <v>54200</v>
+        <v>54600</v>
       </c>
       <c r="H12" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J12" s="3">
         <v>1500</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
         <v>2500</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1957500</v>
+        <v>1972500</v>
       </c>
       <c r="E17" s="3">
-        <v>2109800</v>
+        <v>2126000</v>
       </c>
       <c r="F17" s="3">
-        <v>1594600</v>
+        <v>1606800</v>
       </c>
       <c r="G17" s="3">
-        <v>1014900</v>
+        <v>1022600</v>
       </c>
       <c r="H17" s="3">
-        <v>64900</v>
+        <v>65400</v>
       </c>
       <c r="I17" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="J17" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="K17" s="3">
         <v>1900</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>394700</v>
+        <v>397700</v>
       </c>
       <c r="E18" s="3">
-        <v>554100</v>
+        <v>558300</v>
       </c>
       <c r="F18" s="3">
-        <v>504600</v>
+        <v>508500</v>
       </c>
       <c r="G18" s="3">
-        <v>376400</v>
+        <v>379300</v>
       </c>
       <c r="H18" s="3">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="I18" s="3">
         <v>900</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="E20" s="3">
-        <v>63800</v>
+        <v>64300</v>
       </c>
       <c r="F20" s="3">
-        <v>42700</v>
+        <v>43100</v>
       </c>
       <c r="G20" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="H20" s="3">
         <v>1300</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>523400</v>
+        <v>527700</v>
       </c>
       <c r="E21" s="3">
-        <v>673600</v>
+        <v>679000</v>
       </c>
       <c r="F21" s="3">
-        <v>585100</v>
+        <v>589700</v>
       </c>
       <c r="G21" s="3">
-        <v>412300</v>
+        <v>415500</v>
       </c>
       <c r="H21" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="I21" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J21" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="K21" s="3">
         <v>-1300</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="E22" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="F22" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>453800</v>
+        <v>457300</v>
       </c>
       <c r="E23" s="3">
-        <v>605600</v>
+        <v>610200</v>
       </c>
       <c r="F23" s="3">
-        <v>538500</v>
+        <v>542600</v>
       </c>
       <c r="G23" s="3">
-        <v>399200</v>
+        <v>402200</v>
       </c>
       <c r="H23" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="I23" s="3">
         <v>2100</v>
@@ -1234,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118300</v>
+        <v>119200</v>
       </c>
       <c r="E24" s="3">
-        <v>138400</v>
+        <v>139400</v>
       </c>
       <c r="F24" s="3">
-        <v>109500</v>
+        <v>110400</v>
       </c>
       <c r="G24" s="3">
-        <v>69700</v>
+        <v>70200</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>335500</v>
+        <v>338100</v>
       </c>
       <c r="E26" s="3">
-        <v>467200</v>
+        <v>470800</v>
       </c>
       <c r="F26" s="3">
-        <v>429000</v>
+        <v>432200</v>
       </c>
       <c r="G26" s="3">
-        <v>329500</v>
+        <v>332000</v>
       </c>
       <c r="H26" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="I26" s="3">
         <v>2100</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>329300</v>
+        <v>331800</v>
       </c>
       <c r="E27" s="3">
-        <v>465100</v>
+        <v>468700</v>
       </c>
       <c r="F27" s="3">
-        <v>440800</v>
+        <v>444200</v>
       </c>
       <c r="G27" s="3">
-        <v>336300</v>
+        <v>338900</v>
       </c>
       <c r="H27" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="I27" s="3">
         <v>1900</v>
       </c>
       <c r="J27" s="3">
-        <v>-13000</v>
+        <v>-13100</v>
       </c>
       <c r="K27" s="3">
         <v>-2700</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71500</v>
+        <v>-72000</v>
       </c>
       <c r="E32" s="3">
-        <v>-63800</v>
+        <v>-64300</v>
       </c>
       <c r="F32" s="3">
-        <v>-42700</v>
+        <v>-43100</v>
       </c>
       <c r="G32" s="3">
-        <v>-22800</v>
+        <v>-23000</v>
       </c>
       <c r="H32" s="3">
         <v>-1300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>329300</v>
+        <v>331800</v>
       </c>
       <c r="E33" s="3">
-        <v>465100</v>
+        <v>468700</v>
       </c>
       <c r="F33" s="3">
-        <v>440800</v>
+        <v>444200</v>
       </c>
       <c r="G33" s="3">
-        <v>336300</v>
+        <v>338900</v>
       </c>
       <c r="H33" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="I33" s="3">
         <v>1900</v>
       </c>
       <c r="J33" s="3">
-        <v>-13000</v>
+        <v>-13100</v>
       </c>
       <c r="K33" s="3">
         <v>-2700</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>329300</v>
+        <v>331800</v>
       </c>
       <c r="E35" s="3">
-        <v>465100</v>
+        <v>468700</v>
       </c>
       <c r="F35" s="3">
-        <v>440800</v>
+        <v>444200</v>
       </c>
       <c r="G35" s="3">
-        <v>336300</v>
+        <v>338900</v>
       </c>
       <c r="H35" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="I35" s="3">
         <v>1900</v>
       </c>
       <c r="J35" s="3">
-        <v>-13000</v>
+        <v>-13100</v>
       </c>
       <c r="K35" s="3">
         <v>-2700</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>526700</v>
+        <v>530700</v>
       </c>
       <c r="E41" s="3">
-        <v>409100</v>
+        <v>412200</v>
       </c>
       <c r="F41" s="3">
-        <v>386400</v>
+        <v>389400</v>
       </c>
       <c r="G41" s="3">
-        <v>698600</v>
+        <v>704000</v>
       </c>
       <c r="H41" s="3">
-        <v>40300</v>
+        <v>40600</v>
       </c>
       <c r="I41" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="J41" s="3">
-        <v>70600</v>
+        <v>71100</v>
       </c>
       <c r="K41" s="3">
         <v>8400</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1184600</v>
+        <v>1193700</v>
       </c>
       <c r="E42" s="3">
-        <v>1927700</v>
+        <v>1942400</v>
       </c>
       <c r="F42" s="3">
-        <v>1381600</v>
+        <v>1392200</v>
       </c>
       <c r="G42" s="3">
-        <v>382400</v>
+        <v>385300</v>
       </c>
       <c r="H42" s="3">
-        <v>61600</v>
+        <v>62100</v>
       </c>
       <c r="I42" s="3">
-        <v>47000</v>
+        <v>47300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,16 +1811,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>93900</v>
+        <v>94700</v>
       </c>
       <c r="E43" s="3">
-        <v>81900</v>
+        <v>82500</v>
       </c>
       <c r="F43" s="3">
-        <v>137100</v>
+        <v>138200</v>
       </c>
       <c r="G43" s="3">
-        <v>64200</v>
+        <v>64600</v>
       </c>
       <c r="H43" s="3">
         <v>6900</v>
@@ -1883,16 +1883,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33900</v>
+        <v>34200</v>
       </c>
       <c r="E45" s="3">
-        <v>54100</v>
+        <v>54500</v>
       </c>
       <c r="F45" s="3">
-        <v>72800</v>
+        <v>73300</v>
       </c>
       <c r="G45" s="3">
-        <v>71900</v>
+        <v>72400</v>
       </c>
       <c r="H45" s="3">
         <v>3900</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1839100</v>
+        <v>1853200</v>
       </c>
       <c r="E46" s="3">
-        <v>2472700</v>
+        <v>2491600</v>
       </c>
       <c r="F46" s="3">
-        <v>1977900</v>
+        <v>1993000</v>
       </c>
       <c r="G46" s="3">
-        <v>1210800</v>
+        <v>1220100</v>
       </c>
       <c r="H46" s="3">
-        <v>112700</v>
+        <v>113600</v>
       </c>
       <c r="I46" s="3">
-        <v>78900</v>
+        <v>79500</v>
       </c>
       <c r="J46" s="3">
-        <v>73000</v>
+        <v>73500</v>
       </c>
       <c r="K46" s="3">
         <v>8900</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71200</v>
+        <v>71800</v>
       </c>
       <c r="E47" s="3">
-        <v>77600</v>
+        <v>78200</v>
       </c>
       <c r="F47" s="3">
-        <v>70100</v>
+        <v>70600</v>
       </c>
       <c r="G47" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="H47" s="3">
         <v>5000</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>85200</v>
+        <v>85800</v>
       </c>
       <c r="E48" s="3">
-        <v>84100</v>
+        <v>84700</v>
       </c>
       <c r="F48" s="3">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="G48" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="H48" s="3">
         <v>2200</v>
       </c>
       <c r="I48" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J48" s="3">
         <v>1600</v>
@@ -2027,16 +2027,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>747700</v>
+        <v>753400</v>
       </c>
       <c r="E49" s="3">
-        <v>822100</v>
+        <v>828400</v>
       </c>
       <c r="F49" s="3">
-        <v>836600</v>
+        <v>843000</v>
       </c>
       <c r="G49" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>892300</v>
+        <v>899100</v>
       </c>
       <c r="E52" s="3">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="F52" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="G52" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3635400</v>
+        <v>3663300</v>
       </c>
       <c r="E54" s="3">
-        <v>3520000</v>
+        <v>3547000</v>
       </c>
       <c r="F54" s="3">
-        <v>2969200</v>
+        <v>2992000</v>
       </c>
       <c r="G54" s="3">
-        <v>1326200</v>
+        <v>1336400</v>
       </c>
       <c r="H54" s="3">
-        <v>120500</v>
+        <v>121400</v>
       </c>
       <c r="I54" s="3">
-        <v>84900</v>
+        <v>85500</v>
       </c>
       <c r="J54" s="3">
-        <v>74900</v>
+        <v>75500</v>
       </c>
       <c r="K54" s="3">
         <v>9600</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>109500</v>
+        <v>110300</v>
       </c>
       <c r="E57" s="3">
-        <v>111800</v>
+        <v>112700</v>
       </c>
       <c r="F57" s="3">
-        <v>112500</v>
+        <v>113300</v>
       </c>
       <c r="G57" s="3">
-        <v>75900</v>
+        <v>76500</v>
       </c>
       <c r="H57" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>284500</v>
+        <v>286700</v>
       </c>
       <c r="E59" s="3">
-        <v>296300</v>
+        <v>298500</v>
       </c>
       <c r="F59" s="3">
-        <v>309700</v>
+        <v>312000</v>
       </c>
       <c r="G59" s="3">
-        <v>189000</v>
+        <v>190400</v>
       </c>
       <c r="H59" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="I59" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="J59" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>394000</v>
+        <v>397000</v>
       </c>
       <c r="E60" s="3">
-        <v>408100</v>
+        <v>411200</v>
       </c>
       <c r="F60" s="3">
-        <v>422100</v>
+        <v>425400</v>
       </c>
       <c r="G60" s="3">
-        <v>264900</v>
+        <v>266900</v>
       </c>
       <c r="H60" s="3">
-        <v>20900</v>
+        <v>21100</v>
       </c>
       <c r="I60" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="J60" s="3">
         <v>6000</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>729400</v>
+        <v>735000</v>
       </c>
       <c r="E61" s="3">
-        <v>775700</v>
+        <v>781600</v>
       </c>
       <c r="F61" s="3">
-        <v>763600</v>
+        <v>769400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>189400</v>
+        <v>190800</v>
       </c>
       <c r="E62" s="3">
-        <v>188500</v>
+        <v>189900</v>
       </c>
       <c r="F62" s="3">
-        <v>57800</v>
+        <v>58300</v>
       </c>
       <c r="G62" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1343500</v>
+        <v>1353800</v>
       </c>
       <c r="E66" s="3">
-        <v>1401800</v>
+        <v>1412500</v>
       </c>
       <c r="F66" s="3">
-        <v>1258000</v>
+        <v>1267600</v>
       </c>
       <c r="G66" s="3">
-        <v>272000</v>
+        <v>274100</v>
       </c>
       <c r="H66" s="3">
-        <v>21200</v>
+        <v>21400</v>
       </c>
       <c r="I66" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="J66" s="3">
         <v>6000</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1322000</v>
+        <v>1332100</v>
       </c>
       <c r="E72" s="3">
-        <v>1168700</v>
+        <v>1177600</v>
       </c>
       <c r="F72" s="3">
-        <v>839300</v>
+        <v>845800</v>
       </c>
       <c r="G72" s="3">
-        <v>398500</v>
+        <v>401600</v>
       </c>
       <c r="H72" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="I72" s="3">
-        <v>-14700</v>
+        <v>-14800</v>
       </c>
       <c r="J72" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="K72" s="3">
         <v>-3800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2291900</v>
+        <v>2309400</v>
       </c>
       <c r="E76" s="3">
-        <v>2118300</v>
+        <v>2134500</v>
       </c>
       <c r="F76" s="3">
-        <v>1711300</v>
+        <v>1724400</v>
       </c>
       <c r="G76" s="3">
-        <v>1054200</v>
+        <v>1062300</v>
       </c>
       <c r="H76" s="3">
-        <v>99300</v>
+        <v>100000</v>
       </c>
       <c r="I76" s="3">
-        <v>73300</v>
+        <v>73900</v>
       </c>
       <c r="J76" s="3">
-        <v>68900</v>
+        <v>69500</v>
       </c>
       <c r="K76" s="3">
         <v>-3500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>329300</v>
+        <v>331800</v>
       </c>
       <c r="E81" s="3">
-        <v>465100</v>
+        <v>468700</v>
       </c>
       <c r="F81" s="3">
-        <v>440800</v>
+        <v>444200</v>
       </c>
       <c r="G81" s="3">
-        <v>336300</v>
+        <v>338900</v>
       </c>
       <c r="H81" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="I81" s="3">
         <v>1900</v>
       </c>
       <c r="J81" s="3">
-        <v>-13000</v>
+        <v>-13100</v>
       </c>
       <c r="K81" s="3">
         <v>-2700</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57300</v>
+        <v>57800</v>
       </c>
       <c r="E83" s="3">
-        <v>55800</v>
+        <v>56200</v>
       </c>
       <c r="F83" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="G83" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="H83" s="3">
         <v>1300</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>482300</v>
+        <v>486000</v>
       </c>
       <c r="E89" s="3">
-        <v>853100</v>
+        <v>859600</v>
       </c>
       <c r="F89" s="3">
-        <v>521000</v>
+        <v>525000</v>
       </c>
       <c r="G89" s="3">
-        <v>451800</v>
+        <v>455300</v>
       </c>
       <c r="H89" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="I89" s="3">
         <v>9000</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19400</v>
+        <v>-19600</v>
       </c>
       <c r="E91" s="3">
-        <v>-29200</v>
+        <v>-29400</v>
       </c>
       <c r="F91" s="3">
-        <v>-38000</v>
+        <v>-38300</v>
       </c>
       <c r="G91" s="3">
-        <v>-34200</v>
+        <v>-34500</v>
       </c>
       <c r="H91" s="3">
         <v>-1100</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-117200</v>
+        <v>-118100</v>
       </c>
       <c r="E94" s="3">
-        <v>-630900</v>
+        <v>-635800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1570900</v>
+        <v>-1583000</v>
       </c>
       <c r="G94" s="3">
-        <v>-29500</v>
+        <v>-29700</v>
       </c>
       <c r="H94" s="3">
-        <v>-18500</v>
+        <v>-18700</v>
       </c>
       <c r="I94" s="3">
-        <v>-52200</v>
+        <v>-52600</v>
       </c>
       <c r="J94" s="3">
         <v>-1500</v>
@@ -3532,10 +3532,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-176000</v>
+        <v>-177300</v>
       </c>
       <c r="E96" s="3">
-        <v>-137400</v>
+        <v>-138400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-234600</v>
+        <v>-236300</v>
       </c>
       <c r="E100" s="3">
-        <v>-199400</v>
+        <v>-201000</v>
       </c>
       <c r="F100" s="3">
-        <v>733900</v>
+        <v>739600</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -3691,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J100" s="3">
-        <v>64500</v>
+        <v>65000</v>
       </c>
       <c r="K100" s="3">
         <v>6800</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117900</v>
+        <v>118800</v>
       </c>
       <c r="E102" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="F102" s="3">
-        <v>-312200</v>
+        <v>-314600</v>
       </c>
       <c r="G102" s="3">
-        <v>418600</v>
+        <v>421800</v>
       </c>
       <c r="H102" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="I102" s="3">
-        <v>-44100</v>
+        <v>-44400</v>
       </c>
       <c r="J102" s="3">
-        <v>61900</v>
+        <v>62400</v>
       </c>
       <c r="K102" s="3">
         <v>5600</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2370200</v>
+        <v>2147900</v>
       </c>
       <c r="E8" s="3">
-        <v>2684300</v>
+        <v>2214000</v>
       </c>
       <c r="F8" s="3">
-        <v>2115300</v>
+        <v>2507300</v>
       </c>
       <c r="G8" s="3">
-        <v>1401900</v>
+        <v>1975900</v>
       </c>
       <c r="H8" s="3">
-        <v>87300</v>
+        <v>1309500</v>
       </c>
       <c r="I8" s="3">
-        <v>21100</v>
+        <v>81500</v>
       </c>
       <c r="J8" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1258400</v>
+        <v>1235400</v>
       </c>
       <c r="E9" s="3">
-        <v>1339700</v>
+        <v>1175500</v>
       </c>
       <c r="F9" s="3">
-        <v>1133200</v>
+        <v>1251400</v>
       </c>
       <c r="G9" s="3">
-        <v>689900</v>
+        <v>1058500</v>
       </c>
       <c r="H9" s="3">
-        <v>38100</v>
+        <v>644500</v>
       </c>
       <c r="I9" s="3">
-        <v>4800</v>
+        <v>35600</v>
       </c>
       <c r="J9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1111800</v>
+        <v>912500</v>
       </c>
       <c r="E10" s="3">
-        <v>1344600</v>
+        <v>1038500</v>
       </c>
       <c r="F10" s="3">
-        <v>982100</v>
+        <v>1255900</v>
       </c>
       <c r="G10" s="3">
-        <v>712000</v>
+        <v>917400</v>
       </c>
       <c r="H10" s="3">
-        <v>49200</v>
+        <v>665000</v>
       </c>
       <c r="I10" s="3">
-        <v>16400</v>
+        <v>45900</v>
       </c>
       <c r="J10" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4600</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>184200</v>
+        <v>166800</v>
       </c>
       <c r="E12" s="3">
-        <v>172800</v>
+        <v>172100</v>
       </c>
       <c r="F12" s="3">
-        <v>120000</v>
+        <v>161400</v>
       </c>
       <c r="G12" s="3">
-        <v>54600</v>
+        <v>112100</v>
       </c>
       <c r="H12" s="3">
-        <v>5000</v>
+        <v>51000</v>
       </c>
       <c r="I12" s="3">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="J12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,29 +926,32 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1700</v>
+        <v>650600</v>
       </c>
       <c r="E14" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
-        <v>6800</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>4700</v>
+        <v>6400</v>
       </c>
       <c r="H14" s="3">
-        <v>900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1972500</v>
+        <v>2502700</v>
       </c>
       <c r="E17" s="3">
-        <v>2126000</v>
+        <v>1842500</v>
       </c>
       <c r="F17" s="3">
-        <v>1606800</v>
+        <v>1985800</v>
       </c>
       <c r="G17" s="3">
-        <v>1022600</v>
+        <v>1500900</v>
       </c>
       <c r="H17" s="3">
-        <v>65400</v>
+        <v>955200</v>
       </c>
       <c r="I17" s="3">
-        <v>20300</v>
+        <v>61100</v>
       </c>
       <c r="J17" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K17" s="3">
         <v>11200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>397700</v>
+        <v>-354800</v>
       </c>
       <c r="E18" s="3">
-        <v>558300</v>
+        <v>371500</v>
       </c>
       <c r="F18" s="3">
-        <v>508500</v>
+        <v>521500</v>
       </c>
       <c r="G18" s="3">
-        <v>379300</v>
+        <v>475000</v>
       </c>
       <c r="H18" s="3">
-        <v>21900</v>
+        <v>354300</v>
       </c>
       <c r="I18" s="3">
-        <v>900</v>
+        <v>20400</v>
       </c>
       <c r="J18" s="3">
+        <v>800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,97 +1116,104 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72000</v>
+        <v>56900</v>
       </c>
       <c r="E20" s="3">
-        <v>64300</v>
+        <v>67300</v>
       </c>
       <c r="F20" s="3">
-        <v>43100</v>
+        <v>60100</v>
       </c>
       <c r="G20" s="3">
-        <v>23000</v>
+        <v>40200</v>
       </c>
       <c r="H20" s="3">
-        <v>1300</v>
+        <v>21500</v>
       </c>
       <c r="I20" s="3">
         <v>1200</v>
       </c>
       <c r="J20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>527700</v>
+        <v>-258500</v>
       </c>
       <c r="E21" s="3">
-        <v>679000</v>
+        <v>493300</v>
       </c>
       <c r="F21" s="3">
-        <v>589700</v>
+        <v>634600</v>
       </c>
       <c r="G21" s="3">
-        <v>415500</v>
+        <v>551100</v>
       </c>
       <c r="H21" s="3">
-        <v>24500</v>
+        <v>388200</v>
       </c>
       <c r="I21" s="3">
-        <v>3200</v>
+        <v>22900</v>
       </c>
       <c r="J21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12400</v>
+        <v>10900</v>
       </c>
       <c r="E22" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="F22" s="3">
-        <v>8900</v>
+        <v>11600</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>8300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1188,69 +1227,75 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>457300</v>
+        <v>-308700</v>
       </c>
       <c r="E23" s="3">
-        <v>610200</v>
+        <v>427100</v>
       </c>
       <c r="F23" s="3">
-        <v>542600</v>
+        <v>570000</v>
       </c>
       <c r="G23" s="3">
-        <v>402200</v>
+        <v>506800</v>
       </c>
       <c r="H23" s="3">
-        <v>23200</v>
+        <v>375700</v>
       </c>
       <c r="I23" s="3">
-        <v>2100</v>
+        <v>21600</v>
       </c>
       <c r="J23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>119200</v>
+        <v>121200</v>
       </c>
       <c r="E24" s="3">
-        <v>139400</v>
+        <v>111300</v>
       </c>
       <c r="F24" s="3">
-        <v>110400</v>
+        <v>130200</v>
       </c>
       <c r="G24" s="3">
-        <v>70200</v>
+        <v>103100</v>
       </c>
       <c r="H24" s="3">
+        <v>65600</v>
+      </c>
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1260,12 +1305,15 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>338100</v>
+        <v>-429900</v>
       </c>
       <c r="E26" s="3">
-        <v>470800</v>
+        <v>315800</v>
       </c>
       <c r="F26" s="3">
-        <v>432200</v>
+        <v>439700</v>
       </c>
       <c r="G26" s="3">
-        <v>332000</v>
+        <v>403700</v>
       </c>
       <c r="H26" s="3">
-        <v>22400</v>
+        <v>310200</v>
       </c>
       <c r="I26" s="3">
-        <v>2100</v>
+        <v>20900</v>
       </c>
       <c r="J26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>331800</v>
+        <v>-429400</v>
       </c>
       <c r="E27" s="3">
-        <v>468700</v>
+        <v>310000</v>
       </c>
       <c r="F27" s="3">
-        <v>444200</v>
+        <v>437800</v>
       </c>
       <c r="G27" s="3">
-        <v>338900</v>
+        <v>414900</v>
       </c>
       <c r="H27" s="3">
-        <v>22400</v>
+        <v>316500</v>
       </c>
       <c r="I27" s="3">
-        <v>1900</v>
+        <v>20900</v>
       </c>
       <c r="J27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72000</v>
+        <v>-56900</v>
       </c>
       <c r="E32" s="3">
-        <v>-64300</v>
+        <v>-67300</v>
       </c>
       <c r="F32" s="3">
-        <v>-43100</v>
+        <v>-60100</v>
       </c>
       <c r="G32" s="3">
-        <v>-23000</v>
+        <v>-40200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1300</v>
+        <v>-21500</v>
       </c>
       <c r="I32" s="3">
         <v>-1200</v>
       </c>
       <c r="J32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>331800</v>
+        <v>-429400</v>
       </c>
       <c r="E33" s="3">
-        <v>468700</v>
+        <v>310000</v>
       </c>
       <c r="F33" s="3">
-        <v>444200</v>
+        <v>437800</v>
       </c>
       <c r="G33" s="3">
-        <v>338900</v>
+        <v>414900</v>
       </c>
       <c r="H33" s="3">
-        <v>22400</v>
+        <v>316500</v>
       </c>
       <c r="I33" s="3">
-        <v>1900</v>
+        <v>20900</v>
       </c>
       <c r="J33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>331800</v>
+        <v>-429400</v>
       </c>
       <c r="E35" s="3">
-        <v>468700</v>
+        <v>310000</v>
       </c>
       <c r="F35" s="3">
-        <v>444200</v>
+        <v>437800</v>
       </c>
       <c r="G35" s="3">
-        <v>338900</v>
+        <v>414900</v>
       </c>
       <c r="H35" s="3">
-        <v>22400</v>
+        <v>316500</v>
       </c>
       <c r="I35" s="3">
-        <v>1900</v>
+        <v>20900</v>
       </c>
       <c r="J35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,67 +1818,71 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>530700</v>
+        <v>820900</v>
       </c>
       <c r="E41" s="3">
-        <v>412200</v>
+        <v>495700</v>
       </c>
       <c r="F41" s="3">
-        <v>389400</v>
+        <v>385000</v>
       </c>
       <c r="G41" s="3">
-        <v>704000</v>
+        <v>363700</v>
       </c>
       <c r="H41" s="3">
-        <v>40600</v>
+        <v>657500</v>
       </c>
       <c r="I41" s="3">
-        <v>26700</v>
+        <v>38000</v>
       </c>
       <c r="J41" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K41" s="3">
         <v>71100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1193700</v>
+        <v>421400</v>
       </c>
       <c r="E42" s="3">
-        <v>1942400</v>
+        <v>1115000</v>
       </c>
       <c r="F42" s="3">
-        <v>1392200</v>
+        <v>1814400</v>
       </c>
       <c r="G42" s="3">
-        <v>385300</v>
+        <v>1300400</v>
       </c>
       <c r="H42" s="3">
-        <v>62100</v>
+        <v>359900</v>
       </c>
       <c r="I42" s="3">
-        <v>47300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>58000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>44200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1804,45 +1893,51 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>94700</v>
+        <v>118200</v>
       </c>
       <c r="E43" s="3">
-        <v>82500</v>
+        <v>88400</v>
       </c>
       <c r="F43" s="3">
-        <v>138200</v>
+        <v>77000</v>
       </c>
       <c r="G43" s="3">
-        <v>64600</v>
+        <v>129000</v>
       </c>
       <c r="H43" s="3">
-        <v>6900</v>
+        <v>60400</v>
       </c>
       <c r="I43" s="3">
-        <v>3900</v>
+        <v>6500</v>
       </c>
       <c r="J43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,170 +1971,185 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34200</v>
+        <v>26300</v>
       </c>
       <c r="E45" s="3">
-        <v>54500</v>
+        <v>31900</v>
       </c>
       <c r="F45" s="3">
-        <v>73300</v>
+        <v>50900</v>
       </c>
       <c r="G45" s="3">
-        <v>72400</v>
+        <v>68500</v>
       </c>
       <c r="H45" s="3">
-        <v>3900</v>
+        <v>67700</v>
       </c>
       <c r="I45" s="3">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="J45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1853200</v>
+        <v>1386800</v>
       </c>
       <c r="E46" s="3">
-        <v>2491600</v>
+        <v>1731000</v>
       </c>
       <c r="F46" s="3">
-        <v>1993000</v>
+        <v>2327400</v>
       </c>
       <c r="G46" s="3">
-        <v>1220100</v>
+        <v>1861600</v>
       </c>
       <c r="H46" s="3">
-        <v>113600</v>
+        <v>1139700</v>
       </c>
       <c r="I46" s="3">
-        <v>79500</v>
+        <v>106100</v>
       </c>
       <c r="J46" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K46" s="3">
         <v>73500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71800</v>
+        <v>120800</v>
       </c>
       <c r="E47" s="3">
-        <v>78200</v>
+        <v>67000</v>
       </c>
       <c r="F47" s="3">
-        <v>70600</v>
+        <v>73100</v>
       </c>
       <c r="G47" s="3">
-        <v>45500</v>
+        <v>65900</v>
       </c>
       <c r="H47" s="3">
-        <v>5000</v>
+        <v>42500</v>
       </c>
       <c r="I47" s="3">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="J47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>85800</v>
+        <v>64600</v>
       </c>
       <c r="E48" s="3">
-        <v>84700</v>
+        <v>80200</v>
       </c>
       <c r="F48" s="3">
-        <v>61100</v>
+        <v>79100</v>
       </c>
       <c r="G48" s="3">
-        <v>40800</v>
+        <v>57100</v>
       </c>
       <c r="H48" s="3">
-        <v>2200</v>
+        <v>38100</v>
       </c>
       <c r="I48" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="J48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>753400</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>828400</v>
+        <v>703700</v>
       </c>
       <c r="F49" s="3">
-        <v>843000</v>
+        <v>773800</v>
       </c>
       <c r="G49" s="3">
-        <v>11200</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>787500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>10400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>899100</v>
+        <v>1092600</v>
       </c>
       <c r="E52" s="3">
-        <v>64100</v>
+        <v>839800</v>
       </c>
       <c r="F52" s="3">
-        <v>24200</v>
+        <v>59800</v>
       </c>
       <c r="G52" s="3">
-        <v>18800</v>
+        <v>22600</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>17600</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3663300</v>
+        <v>2668900</v>
       </c>
       <c r="E54" s="3">
-        <v>3547000</v>
+        <v>3421800</v>
       </c>
       <c r="F54" s="3">
-        <v>2992000</v>
+        <v>3313200</v>
       </c>
       <c r="G54" s="3">
-        <v>1336400</v>
+        <v>2794800</v>
       </c>
       <c r="H54" s="3">
-        <v>121400</v>
+        <v>1248300</v>
       </c>
       <c r="I54" s="3">
-        <v>85500</v>
+        <v>113400</v>
       </c>
       <c r="J54" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K54" s="3">
         <v>75500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,44 +2398,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110300</v>
+        <v>107000</v>
       </c>
       <c r="E57" s="3">
-        <v>112700</v>
+        <v>103100</v>
       </c>
       <c r="F57" s="3">
-        <v>113300</v>
+        <v>105300</v>
       </c>
       <c r="G57" s="3">
-        <v>76500</v>
+        <v>105900</v>
       </c>
       <c r="H57" s="3">
-        <v>6400</v>
+        <v>71500</v>
       </c>
       <c r="I57" s="3">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2340,95 +2473,104 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>286700</v>
+        <v>263700</v>
       </c>
       <c r="E59" s="3">
-        <v>298500</v>
+        <v>267800</v>
       </c>
       <c r="F59" s="3">
-        <v>312000</v>
+        <v>278900</v>
       </c>
       <c r="G59" s="3">
-        <v>190400</v>
+        <v>291500</v>
       </c>
       <c r="H59" s="3">
-        <v>14700</v>
+        <v>177900</v>
       </c>
       <c r="I59" s="3">
-        <v>9700</v>
+        <v>13700</v>
       </c>
       <c r="J59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>397000</v>
+        <v>370700</v>
       </c>
       <c r="E60" s="3">
-        <v>411200</v>
+        <v>370900</v>
       </c>
       <c r="F60" s="3">
-        <v>425400</v>
+        <v>384100</v>
       </c>
       <c r="G60" s="3">
-        <v>266900</v>
+        <v>397300</v>
       </c>
       <c r="H60" s="3">
-        <v>21100</v>
+        <v>249300</v>
       </c>
       <c r="I60" s="3">
-        <v>11400</v>
+        <v>19700</v>
       </c>
       <c r="J60" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>735000</v>
+        <v>672700</v>
       </c>
       <c r="E61" s="3">
-        <v>781600</v>
+        <v>686500</v>
       </c>
       <c r="F61" s="3">
-        <v>769400</v>
+        <v>730100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>718700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2448,32 +2590,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>190800</v>
+        <v>65500</v>
       </c>
       <c r="E62" s="3">
-        <v>189900</v>
+        <v>178200</v>
       </c>
       <c r="F62" s="3">
-        <v>58300</v>
+        <v>177400</v>
       </c>
       <c r="G62" s="3">
-        <v>4300</v>
+        <v>54400</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1353800</v>
+        <v>1129500</v>
       </c>
       <c r="E66" s="3">
-        <v>1412500</v>
+        <v>1264600</v>
       </c>
       <c r="F66" s="3">
-        <v>1267600</v>
+        <v>1319400</v>
       </c>
       <c r="G66" s="3">
-        <v>274100</v>
+        <v>1184000</v>
       </c>
       <c r="H66" s="3">
-        <v>21400</v>
+        <v>256100</v>
       </c>
       <c r="I66" s="3">
-        <v>11600</v>
+        <v>20000</v>
       </c>
       <c r="J66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2744,17 +2911,20 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>12200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1332100</v>
+        <v>689300</v>
       </c>
       <c r="E72" s="3">
-        <v>1177600</v>
+        <v>1244300</v>
       </c>
       <c r="F72" s="3">
-        <v>845800</v>
+        <v>1100000</v>
       </c>
       <c r="G72" s="3">
-        <v>401600</v>
+        <v>790000</v>
       </c>
       <c r="H72" s="3">
-        <v>8100</v>
+        <v>375100</v>
       </c>
       <c r="I72" s="3">
-        <v>-14800</v>
+        <v>7500</v>
       </c>
       <c r="J72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-17000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2309400</v>
+        <v>1539400</v>
       </c>
       <c r="E76" s="3">
-        <v>2134500</v>
+        <v>2157200</v>
       </c>
       <c r="F76" s="3">
-        <v>1724400</v>
+        <v>1993800</v>
       </c>
       <c r="G76" s="3">
-        <v>1062300</v>
+        <v>1610700</v>
       </c>
       <c r="H76" s="3">
-        <v>100000</v>
+        <v>992300</v>
       </c>
       <c r="I76" s="3">
-        <v>73900</v>
+        <v>93400</v>
       </c>
       <c r="J76" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K76" s="3">
         <v>69500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>331800</v>
+        <v>-429400</v>
       </c>
       <c r="E81" s="3">
-        <v>468700</v>
+        <v>310000</v>
       </c>
       <c r="F81" s="3">
-        <v>444200</v>
+        <v>437800</v>
       </c>
       <c r="G81" s="3">
-        <v>338900</v>
+        <v>414900</v>
       </c>
       <c r="H81" s="3">
-        <v>22400</v>
+        <v>316500</v>
       </c>
       <c r="I81" s="3">
-        <v>1900</v>
+        <v>20900</v>
       </c>
       <c r="J81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57800</v>
+        <v>39000</v>
       </c>
       <c r="E83" s="3">
-        <v>56200</v>
+        <v>54000</v>
       </c>
       <c r="F83" s="3">
-        <v>38100</v>
+        <v>52500</v>
       </c>
       <c r="G83" s="3">
-        <v>13200</v>
+        <v>35600</v>
       </c>
       <c r="H83" s="3">
-        <v>1300</v>
+        <v>12300</v>
       </c>
       <c r="I83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>486000</v>
+        <v>229800</v>
       </c>
       <c r="E89" s="3">
-        <v>859600</v>
+        <v>454000</v>
       </c>
       <c r="F89" s="3">
-        <v>525000</v>
+        <v>802900</v>
       </c>
       <c r="G89" s="3">
-        <v>455300</v>
+        <v>490400</v>
       </c>
       <c r="H89" s="3">
-        <v>34400</v>
+        <v>425300</v>
       </c>
       <c r="I89" s="3">
-        <v>9000</v>
+        <v>32200</v>
       </c>
       <c r="J89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19600</v>
+        <v>-14000</v>
       </c>
       <c r="E91" s="3">
-        <v>-29400</v>
+        <v>-18300</v>
       </c>
       <c r="F91" s="3">
-        <v>-38300</v>
+        <v>-27500</v>
       </c>
       <c r="G91" s="3">
-        <v>-34500</v>
+        <v>-35800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1100</v>
+        <v>-32200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-118100</v>
+        <v>375800</v>
       </c>
       <c r="E94" s="3">
-        <v>-635800</v>
+        <v>-110300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1583000</v>
+        <v>-593800</v>
       </c>
       <c r="G94" s="3">
-        <v>-29700</v>
+        <v>-1478600</v>
       </c>
       <c r="H94" s="3">
-        <v>-18700</v>
+        <v>-27700</v>
       </c>
       <c r="I94" s="3">
-        <v>-52600</v>
+        <v>-17400</v>
       </c>
       <c r="J94" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,19 +3758,20 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-177300</v>
+        <v>-125700</v>
       </c>
       <c r="E96" s="3">
-        <v>-138400</v>
+        <v>-165600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-129300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-236300</v>
+        <v>-263300</v>
       </c>
       <c r="E100" s="3">
-        <v>-201000</v>
+        <v>-220800</v>
       </c>
       <c r="F100" s="3">
-        <v>739600</v>
+        <v>-187700</v>
       </c>
       <c r="G100" s="3">
+        <v>690800</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K100" s="3">
         <v>65000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12800</v>
+        <v>-6100</v>
       </c>
       <c r="E101" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>3800</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4200</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
-        <v>-1900</v>
+        <v>-4000</v>
       </c>
       <c r="I101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>118800</v>
+        <v>336100</v>
       </c>
       <c r="E102" s="3">
-        <v>22800</v>
+        <v>111000</v>
       </c>
       <c r="F102" s="3">
-        <v>-314600</v>
+        <v>21300</v>
       </c>
       <c r="G102" s="3">
-        <v>421800</v>
+        <v>-293900</v>
       </c>
       <c r="H102" s="3">
-        <v>13900</v>
+        <v>394000</v>
       </c>
       <c r="I102" s="3">
-        <v>-44400</v>
+        <v>13000</v>
       </c>
       <c r="J102" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K102" s="3">
         <v>62400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2147900</v>
+        <v>2128500</v>
       </c>
       <c r="E8" s="3">
-        <v>2214000</v>
+        <v>2194000</v>
       </c>
       <c r="F8" s="3">
-        <v>2507300</v>
+        <v>2484700</v>
       </c>
       <c r="G8" s="3">
-        <v>1975900</v>
+        <v>1958000</v>
       </c>
       <c r="H8" s="3">
-        <v>1309500</v>
+        <v>1297700</v>
       </c>
       <c r="I8" s="3">
-        <v>81500</v>
+        <v>80800</v>
       </c>
       <c r="J8" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="K8" s="3">
         <v>7100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1235400</v>
+        <v>1224200</v>
       </c>
       <c r="E9" s="3">
-        <v>1175500</v>
+        <v>1164800</v>
       </c>
       <c r="F9" s="3">
-        <v>1251400</v>
+        <v>1240100</v>
       </c>
       <c r="G9" s="3">
-        <v>1058500</v>
+        <v>1048900</v>
       </c>
       <c r="H9" s="3">
-        <v>644500</v>
+        <v>638600</v>
       </c>
       <c r="I9" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="J9" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K9" s="3">
         <v>2500</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>912500</v>
+        <v>904300</v>
       </c>
       <c r="E10" s="3">
-        <v>1038500</v>
+        <v>1029100</v>
       </c>
       <c r="F10" s="3">
-        <v>1255900</v>
+        <v>1244600</v>
       </c>
       <c r="G10" s="3">
-        <v>917400</v>
+        <v>909100</v>
       </c>
       <c r="H10" s="3">
-        <v>665000</v>
+        <v>659000</v>
       </c>
       <c r="I10" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="J10" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="K10" s="3">
         <v>4600</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>166800</v>
+        <v>165300</v>
       </c>
       <c r="E12" s="3">
-        <v>172100</v>
+        <v>170500</v>
       </c>
       <c r="F12" s="3">
-        <v>161400</v>
+        <v>159900</v>
       </c>
       <c r="G12" s="3">
-        <v>112100</v>
+        <v>111100</v>
       </c>
       <c r="H12" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="I12" s="3">
         <v>4600</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>650600</v>
+        <v>644700</v>
       </c>
       <c r="E14" s="3">
         <v>1500</v>
@@ -945,7 +945,7 @@
         <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H14" s="3">
         <v>4400</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2502700</v>
+        <v>2480100</v>
       </c>
       <c r="E17" s="3">
-        <v>1842500</v>
+        <v>1825900</v>
       </c>
       <c r="F17" s="3">
-        <v>1985800</v>
+        <v>1967900</v>
       </c>
       <c r="G17" s="3">
-        <v>1500900</v>
+        <v>1487400</v>
       </c>
       <c r="H17" s="3">
-        <v>955200</v>
+        <v>946600</v>
       </c>
       <c r="I17" s="3">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="J17" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="K17" s="3">
         <v>11200</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-354800</v>
+        <v>-351600</v>
       </c>
       <c r="E18" s="3">
-        <v>371500</v>
+        <v>368100</v>
       </c>
       <c r="F18" s="3">
-        <v>521500</v>
+        <v>516800</v>
       </c>
       <c r="G18" s="3">
-        <v>475000</v>
+        <v>470700</v>
       </c>
       <c r="H18" s="3">
-        <v>354300</v>
+        <v>351100</v>
       </c>
       <c r="I18" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="J18" s="3">
         <v>800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>56900</v>
+        <v>56400</v>
       </c>
       <c r="E20" s="3">
-        <v>67300</v>
+        <v>66700</v>
       </c>
       <c r="F20" s="3">
-        <v>60100</v>
+        <v>59500</v>
       </c>
       <c r="G20" s="3">
-        <v>40200</v>
+        <v>39900</v>
       </c>
       <c r="H20" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="I20" s="3">
         <v>1200</v>
       </c>
       <c r="J20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-258500</v>
+        <v>-256600</v>
       </c>
       <c r="E21" s="3">
-        <v>493300</v>
+        <v>488200</v>
       </c>
       <c r="F21" s="3">
-        <v>634600</v>
+        <v>628200</v>
       </c>
       <c r="G21" s="3">
-        <v>551100</v>
+        <v>545700</v>
       </c>
       <c r="H21" s="3">
-        <v>388200</v>
+        <v>384500</v>
       </c>
       <c r="I21" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="J21" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K21" s="3">
         <v>-3600</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="E22" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="F22" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G22" s="3">
         <v>8300</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-308700</v>
+        <v>-305900</v>
       </c>
       <c r="E23" s="3">
-        <v>427100</v>
+        <v>423300</v>
       </c>
       <c r="F23" s="3">
-        <v>570000</v>
+        <v>564800</v>
       </c>
       <c r="G23" s="3">
-        <v>506800</v>
+        <v>502300</v>
       </c>
       <c r="H23" s="3">
-        <v>375700</v>
+        <v>372300</v>
       </c>
       <c r="I23" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="J23" s="3">
         <v>2000</v>
@@ -1279,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>121200</v>
+        <v>120100</v>
       </c>
       <c r="E24" s="3">
-        <v>111300</v>
+        <v>110300</v>
       </c>
       <c r="F24" s="3">
-        <v>130200</v>
+        <v>129100</v>
       </c>
       <c r="G24" s="3">
-        <v>103100</v>
+        <v>102200</v>
       </c>
       <c r="H24" s="3">
-        <v>65600</v>
+        <v>65000</v>
       </c>
       <c r="I24" s="3">
         <v>800</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-429900</v>
+        <v>-426100</v>
       </c>
       <c r="E26" s="3">
-        <v>315800</v>
+        <v>312900</v>
       </c>
       <c r="F26" s="3">
-        <v>439700</v>
+        <v>435800</v>
       </c>
       <c r="G26" s="3">
-        <v>403700</v>
+        <v>400100</v>
       </c>
       <c r="H26" s="3">
-        <v>310200</v>
+        <v>307400</v>
       </c>
       <c r="I26" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J26" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K26" s="3">
         <v>-4000</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-429400</v>
+        <v>-425500</v>
       </c>
       <c r="E27" s="3">
-        <v>310000</v>
+        <v>307200</v>
       </c>
       <c r="F27" s="3">
-        <v>437800</v>
+        <v>433800</v>
       </c>
       <c r="G27" s="3">
-        <v>414900</v>
+        <v>411200</v>
       </c>
       <c r="H27" s="3">
-        <v>316500</v>
+        <v>313700</v>
       </c>
       <c r="I27" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J27" s="3">
         <v>1800</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-56900</v>
+        <v>-56400</v>
       </c>
       <c r="E32" s="3">
-        <v>-67300</v>
+        <v>-66700</v>
       </c>
       <c r="F32" s="3">
-        <v>-60100</v>
+        <v>-59500</v>
       </c>
       <c r="G32" s="3">
-        <v>-40200</v>
+        <v>-39900</v>
       </c>
       <c r="H32" s="3">
-        <v>-21500</v>
+        <v>-21300</v>
       </c>
       <c r="I32" s="3">
         <v>-1200</v>
       </c>
       <c r="J32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-429400</v>
+        <v>-425500</v>
       </c>
       <c r="E33" s="3">
-        <v>310000</v>
+        <v>307200</v>
       </c>
       <c r="F33" s="3">
-        <v>437800</v>
+        <v>433800</v>
       </c>
       <c r="G33" s="3">
-        <v>414900</v>
+        <v>411200</v>
       </c>
       <c r="H33" s="3">
-        <v>316500</v>
+        <v>313700</v>
       </c>
       <c r="I33" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J33" s="3">
         <v>1800</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-429400</v>
+        <v>-425500</v>
       </c>
       <c r="E35" s="3">
-        <v>310000</v>
+        <v>307200</v>
       </c>
       <c r="F35" s="3">
-        <v>437800</v>
+        <v>433800</v>
       </c>
       <c r="G35" s="3">
-        <v>414900</v>
+        <v>411200</v>
       </c>
       <c r="H35" s="3">
-        <v>316500</v>
+        <v>313700</v>
       </c>
       <c r="I35" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J35" s="3">
         <v>1800</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>820900</v>
+        <v>813500</v>
       </c>
       <c r="E41" s="3">
-        <v>495700</v>
+        <v>491200</v>
       </c>
       <c r="F41" s="3">
-        <v>385000</v>
+        <v>381500</v>
       </c>
       <c r="G41" s="3">
-        <v>363700</v>
+        <v>360400</v>
       </c>
       <c r="H41" s="3">
-        <v>657500</v>
+        <v>651600</v>
       </c>
       <c r="I41" s="3">
-        <v>38000</v>
+        <v>37600</v>
       </c>
       <c r="J41" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="K41" s="3">
         <v>71100</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>421400</v>
+        <v>417600</v>
       </c>
       <c r="E42" s="3">
-        <v>1115000</v>
+        <v>1104900</v>
       </c>
       <c r="F42" s="3">
-        <v>1814400</v>
+        <v>1798000</v>
       </c>
       <c r="G42" s="3">
-        <v>1300400</v>
+        <v>1288700</v>
       </c>
       <c r="H42" s="3">
-        <v>359900</v>
+        <v>356700</v>
       </c>
       <c r="I42" s="3">
-        <v>58000</v>
+        <v>57500</v>
       </c>
       <c r="J42" s="3">
-        <v>44200</v>
+        <v>43800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>118200</v>
+        <v>117100</v>
       </c>
       <c r="E43" s="3">
-        <v>88400</v>
+        <v>87600</v>
       </c>
       <c r="F43" s="3">
-        <v>77000</v>
+        <v>76400</v>
       </c>
       <c r="G43" s="3">
-        <v>129000</v>
+        <v>127900</v>
       </c>
       <c r="H43" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="I43" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J43" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K43" s="3">
         <v>1500</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="E45" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="F45" s="3">
-        <v>50900</v>
+        <v>50500</v>
       </c>
       <c r="G45" s="3">
-        <v>68500</v>
+        <v>67900</v>
       </c>
       <c r="H45" s="3">
-        <v>67700</v>
+        <v>67000</v>
       </c>
       <c r="I45" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J45" s="3">
         <v>1400</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1386800</v>
+        <v>1374300</v>
       </c>
       <c r="E46" s="3">
-        <v>1731000</v>
+        <v>1715400</v>
       </c>
       <c r="F46" s="3">
-        <v>2327400</v>
+        <v>2306400</v>
       </c>
       <c r="G46" s="3">
-        <v>1861600</v>
+        <v>1844800</v>
       </c>
       <c r="H46" s="3">
-        <v>1139700</v>
+        <v>1129400</v>
       </c>
       <c r="I46" s="3">
-        <v>106100</v>
+        <v>105200</v>
       </c>
       <c r="J46" s="3">
-        <v>74200</v>
+        <v>73600</v>
       </c>
       <c r="K46" s="3">
         <v>73500</v>
@@ -2059,19 +2059,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="E47" s="3">
-        <v>67000</v>
+        <v>66400</v>
       </c>
       <c r="F47" s="3">
-        <v>73100</v>
+        <v>72400</v>
       </c>
       <c r="G47" s="3">
-        <v>65900</v>
+        <v>65300</v>
       </c>
       <c r="H47" s="3">
-        <v>42500</v>
+        <v>42100</v>
       </c>
       <c r="I47" s="3">
         <v>4700</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>64600</v>
+        <v>64000</v>
       </c>
       <c r="E48" s="3">
-        <v>80200</v>
+        <v>79400</v>
       </c>
       <c r="F48" s="3">
-        <v>79100</v>
+        <v>78400</v>
       </c>
       <c r="G48" s="3">
-        <v>57100</v>
+        <v>56600</v>
       </c>
       <c r="H48" s="3">
-        <v>38100</v>
+        <v>37800</v>
       </c>
       <c r="I48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J48" s="3">
         <v>2400</v>
@@ -2140,16 +2140,16 @@
         <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>703700</v>
+        <v>697400</v>
       </c>
       <c r="F49" s="3">
-        <v>773800</v>
+        <v>766800</v>
       </c>
       <c r="G49" s="3">
-        <v>787500</v>
+        <v>780400</v>
       </c>
       <c r="H49" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2254,19 +2254,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1092600</v>
+        <v>1082700</v>
       </c>
       <c r="E52" s="3">
-        <v>839800</v>
+        <v>832200</v>
       </c>
       <c r="F52" s="3">
-        <v>59800</v>
+        <v>59300</v>
       </c>
       <c r="G52" s="3">
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="H52" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2668900</v>
+        <v>2644800</v>
       </c>
       <c r="E54" s="3">
-        <v>3421800</v>
+        <v>3390900</v>
       </c>
       <c r="F54" s="3">
-        <v>3313200</v>
+        <v>3283300</v>
       </c>
       <c r="G54" s="3">
-        <v>2794800</v>
+        <v>2769500</v>
       </c>
       <c r="H54" s="3">
-        <v>1248300</v>
+        <v>1237000</v>
       </c>
       <c r="I54" s="3">
-        <v>113400</v>
+        <v>112400</v>
       </c>
       <c r="J54" s="3">
-        <v>79900</v>
+        <v>79200</v>
       </c>
       <c r="K54" s="3">
         <v>75500</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107000</v>
+        <v>106000</v>
       </c>
       <c r="E57" s="3">
-        <v>103100</v>
+        <v>102100</v>
       </c>
       <c r="F57" s="3">
-        <v>105300</v>
+        <v>104300</v>
       </c>
       <c r="G57" s="3">
-        <v>105900</v>
+        <v>104900</v>
       </c>
       <c r="H57" s="3">
-        <v>71500</v>
+        <v>70800</v>
       </c>
       <c r="I57" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>263700</v>
+        <v>261300</v>
       </c>
       <c r="E59" s="3">
-        <v>267800</v>
+        <v>265400</v>
       </c>
       <c r="F59" s="3">
-        <v>278900</v>
+        <v>276400</v>
       </c>
       <c r="G59" s="3">
-        <v>291500</v>
+        <v>288800</v>
       </c>
       <c r="H59" s="3">
-        <v>177900</v>
+        <v>176300</v>
       </c>
       <c r="I59" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="J59" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="K59" s="3">
         <v>5100</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>370700</v>
+        <v>367400</v>
       </c>
       <c r="E60" s="3">
-        <v>370900</v>
+        <v>367500</v>
       </c>
       <c r="F60" s="3">
-        <v>384100</v>
+        <v>380700</v>
       </c>
       <c r="G60" s="3">
-        <v>397300</v>
+        <v>393700</v>
       </c>
       <c r="H60" s="3">
-        <v>249300</v>
+        <v>247100</v>
       </c>
       <c r="I60" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="J60" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="K60" s="3">
         <v>6000</v>
@@ -2561,16 +2561,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>672700</v>
+        <v>666700</v>
       </c>
       <c r="E61" s="3">
-        <v>686500</v>
+        <v>680300</v>
       </c>
       <c r="F61" s="3">
-        <v>730100</v>
+        <v>723500</v>
       </c>
       <c r="G61" s="3">
-        <v>718700</v>
+        <v>712200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65500</v>
+        <v>64900</v>
       </c>
       <c r="E62" s="3">
-        <v>178200</v>
+        <v>176600</v>
       </c>
       <c r="F62" s="3">
-        <v>177400</v>
+        <v>175800</v>
       </c>
       <c r="G62" s="3">
-        <v>54400</v>
+        <v>53900</v>
       </c>
       <c r="H62" s="3">
         <v>4000</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1129500</v>
+        <v>1119300</v>
       </c>
       <c r="E66" s="3">
-        <v>1264600</v>
+        <v>1253200</v>
       </c>
       <c r="F66" s="3">
-        <v>1319400</v>
+        <v>1307500</v>
       </c>
       <c r="G66" s="3">
-        <v>1184000</v>
+        <v>1173300</v>
       </c>
       <c r="H66" s="3">
-        <v>256100</v>
+        <v>253700</v>
       </c>
       <c r="I66" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="J66" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="K66" s="3">
         <v>6000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>689300</v>
+        <v>683100</v>
       </c>
       <c r="E72" s="3">
-        <v>1244300</v>
+        <v>1233100</v>
       </c>
       <c r="F72" s="3">
-        <v>1100000</v>
+        <v>1090100</v>
       </c>
       <c r="G72" s="3">
-        <v>790000</v>
+        <v>782900</v>
       </c>
       <c r="H72" s="3">
-        <v>375100</v>
+        <v>371700</v>
       </c>
       <c r="I72" s="3">
         <v>7500</v>
       </c>
       <c r="J72" s="3">
-        <v>-13900</v>
+        <v>-13700</v>
       </c>
       <c r="K72" s="3">
         <v>-17000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1539400</v>
+        <v>1525500</v>
       </c>
       <c r="E76" s="3">
-        <v>2157200</v>
+        <v>2137700</v>
       </c>
       <c r="F76" s="3">
-        <v>1993800</v>
+        <v>1975800</v>
       </c>
       <c r="G76" s="3">
-        <v>1610700</v>
+        <v>1596200</v>
       </c>
       <c r="H76" s="3">
-        <v>992300</v>
+        <v>983300</v>
       </c>
       <c r="I76" s="3">
-        <v>93400</v>
+        <v>92600</v>
       </c>
       <c r="J76" s="3">
-        <v>69000</v>
+        <v>68400</v>
       </c>
       <c r="K76" s="3">
         <v>69500</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-429400</v>
+        <v>-425500</v>
       </c>
       <c r="E81" s="3">
-        <v>310000</v>
+        <v>307200</v>
       </c>
       <c r="F81" s="3">
-        <v>437800</v>
+        <v>433800</v>
       </c>
       <c r="G81" s="3">
-        <v>414900</v>
+        <v>411200</v>
       </c>
       <c r="H81" s="3">
-        <v>316500</v>
+        <v>313700</v>
       </c>
       <c r="I81" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J81" s="3">
         <v>1800</v>
@@ -3302,19 +3302,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="E83" s="3">
-        <v>54000</v>
+        <v>53500</v>
       </c>
       <c r="F83" s="3">
-        <v>52500</v>
+        <v>52000</v>
       </c>
       <c r="G83" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="H83" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>229800</v>
+        <v>227700</v>
       </c>
       <c r="E89" s="3">
-        <v>454000</v>
+        <v>449900</v>
       </c>
       <c r="F89" s="3">
-        <v>802900</v>
+        <v>795700</v>
       </c>
       <c r="G89" s="3">
-        <v>490400</v>
+        <v>485900</v>
       </c>
       <c r="H89" s="3">
-        <v>425300</v>
+        <v>421500</v>
       </c>
       <c r="I89" s="3">
-        <v>32200</v>
+        <v>31900</v>
       </c>
       <c r="J89" s="3">
         <v>8400</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="E91" s="3">
-        <v>-18300</v>
+        <v>-18100</v>
       </c>
       <c r="F91" s="3">
-        <v>-27500</v>
+        <v>-27200</v>
       </c>
       <c r="G91" s="3">
-        <v>-35800</v>
+        <v>-35500</v>
       </c>
       <c r="H91" s="3">
-        <v>-32200</v>
+        <v>-31900</v>
       </c>
       <c r="I91" s="3">
         <v>-1000</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>375800</v>
+        <v>372400</v>
       </c>
       <c r="E94" s="3">
-        <v>-110300</v>
+        <v>-109300</v>
       </c>
       <c r="F94" s="3">
-        <v>-593800</v>
+        <v>-588500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1478600</v>
+        <v>-1465300</v>
       </c>
       <c r="H94" s="3">
-        <v>-27700</v>
+        <v>-27500</v>
       </c>
       <c r="I94" s="3">
-        <v>-17400</v>
+        <v>-17300</v>
       </c>
       <c r="J94" s="3">
-        <v>-49100</v>
+        <v>-48700</v>
       </c>
       <c r="K94" s="3">
         <v>-1500</v>
@@ -3765,13 +3765,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-125700</v>
+        <v>-124500</v>
       </c>
       <c r="E96" s="3">
-        <v>-165600</v>
+        <v>-164100</v>
       </c>
       <c r="F96" s="3">
-        <v>-129300</v>
+        <v>-128100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3921,16 +3921,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-263300</v>
+        <v>-260900</v>
       </c>
       <c r="E100" s="3">
-        <v>-220800</v>
+        <v>-218800</v>
       </c>
       <c r="F100" s="3">
-        <v>-187700</v>
+        <v>-186000</v>
       </c>
       <c r="G100" s="3">
-        <v>690800</v>
+        <v>684600</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
@@ -3963,19 +3963,19 @@
         <v>-6100</v>
       </c>
       <c r="E101" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>336100</v>
+        <v>333100</v>
       </c>
       <c r="E102" s="3">
-        <v>111000</v>
+        <v>110000</v>
       </c>
       <c r="F102" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G102" s="3">
-        <v>-293900</v>
+        <v>-291200</v>
       </c>
       <c r="H102" s="3">
-        <v>394000</v>
+        <v>390500</v>
       </c>
       <c r="I102" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J102" s="3">
-        <v>-41500</v>
+        <v>-41100</v>
       </c>
       <c r="K102" s="3">
         <v>62400</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2128500</v>
+        <v>2028900</v>
       </c>
       <c r="E8" s="3">
-        <v>2194000</v>
+        <v>2091400</v>
       </c>
       <c r="F8" s="3">
-        <v>2484700</v>
+        <v>2368500</v>
       </c>
       <c r="G8" s="3">
-        <v>1958000</v>
+        <v>1866500</v>
       </c>
       <c r="H8" s="3">
-        <v>1297700</v>
+        <v>1237000</v>
       </c>
       <c r="I8" s="3">
-        <v>80800</v>
+        <v>77000</v>
       </c>
       <c r="J8" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="K8" s="3">
         <v>7100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1224200</v>
+        <v>1167000</v>
       </c>
       <c r="E9" s="3">
-        <v>1164800</v>
+        <v>1110400</v>
       </c>
       <c r="F9" s="3">
-        <v>1240100</v>
+        <v>1182100</v>
       </c>
       <c r="G9" s="3">
-        <v>1048900</v>
+        <v>999900</v>
       </c>
       <c r="H9" s="3">
-        <v>638600</v>
+        <v>608800</v>
       </c>
       <c r="I9" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="J9" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K9" s="3">
         <v>2500</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>904300</v>
+        <v>862000</v>
       </c>
       <c r="E10" s="3">
-        <v>1029100</v>
+        <v>981000</v>
       </c>
       <c r="F10" s="3">
-        <v>1244600</v>
+        <v>1186400</v>
       </c>
       <c r="G10" s="3">
-        <v>909100</v>
+        <v>866600</v>
       </c>
       <c r="H10" s="3">
-        <v>659000</v>
+        <v>628200</v>
       </c>
       <c r="I10" s="3">
-        <v>45500</v>
+        <v>43400</v>
       </c>
       <c r="J10" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="K10" s="3">
         <v>4600</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>165300</v>
+        <v>157500</v>
       </c>
       <c r="E12" s="3">
-        <v>170500</v>
+        <v>162500</v>
       </c>
       <c r="F12" s="3">
-        <v>159900</v>
+        <v>152400</v>
       </c>
       <c r="G12" s="3">
-        <v>111100</v>
+        <v>105900</v>
       </c>
       <c r="H12" s="3">
-        <v>50500</v>
+        <v>48200</v>
       </c>
       <c r="I12" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J12" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K12" s="3">
         <v>1500</v>
@@ -936,19 +936,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>644700</v>
+        <v>614600</v>
       </c>
       <c r="E14" s="3">
         <v>1500</v>
       </c>
       <c r="F14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G14" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I14" s="3">
         <v>800</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2480100</v>
+        <v>2364100</v>
       </c>
       <c r="E17" s="3">
-        <v>1825900</v>
+        <v>1740500</v>
       </c>
       <c r="F17" s="3">
-        <v>1967900</v>
+        <v>1875900</v>
       </c>
       <c r="G17" s="3">
-        <v>1487400</v>
+        <v>1417800</v>
       </c>
       <c r="H17" s="3">
-        <v>946600</v>
+        <v>902300</v>
       </c>
       <c r="I17" s="3">
-        <v>60500</v>
+        <v>57700</v>
       </c>
       <c r="J17" s="3">
-        <v>18700</v>
+        <v>17900</v>
       </c>
       <c r="K17" s="3">
         <v>11200</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-351600</v>
+        <v>-335100</v>
       </c>
       <c r="E18" s="3">
-        <v>368100</v>
+        <v>350900</v>
       </c>
       <c r="F18" s="3">
-        <v>516800</v>
+        <v>492600</v>
       </c>
       <c r="G18" s="3">
-        <v>470700</v>
+        <v>448700</v>
       </c>
       <c r="H18" s="3">
-        <v>351100</v>
+        <v>334700</v>
       </c>
       <c r="I18" s="3">
-        <v>20300</v>
+        <v>19300</v>
       </c>
       <c r="J18" s="3">
         <v>800</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>56400</v>
+        <v>53800</v>
       </c>
       <c r="E20" s="3">
-        <v>66700</v>
+        <v>63500</v>
       </c>
       <c r="F20" s="3">
-        <v>59500</v>
+        <v>56700</v>
       </c>
       <c r="G20" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="H20" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="I20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J20" s="3">
         <v>1100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-256600</v>
+        <v>-244800</v>
       </c>
       <c r="E21" s="3">
-        <v>488200</v>
+        <v>465000</v>
       </c>
       <c r="F21" s="3">
-        <v>628200</v>
+        <v>598600</v>
       </c>
       <c r="G21" s="3">
-        <v>545700</v>
+        <v>520000</v>
       </c>
       <c r="H21" s="3">
-        <v>384500</v>
+        <v>366500</v>
       </c>
       <c r="I21" s="3">
-        <v>22700</v>
+        <v>21600</v>
       </c>
       <c r="J21" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K21" s="3">
         <v>-3600</v>
@@ -1201,16 +1201,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="E22" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="F22" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="G22" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-305900</v>
+        <v>-291600</v>
       </c>
       <c r="E23" s="3">
-        <v>423300</v>
+        <v>403500</v>
       </c>
       <c r="F23" s="3">
-        <v>564800</v>
+        <v>538400</v>
       </c>
       <c r="G23" s="3">
-        <v>502300</v>
+        <v>478800</v>
       </c>
       <c r="H23" s="3">
-        <v>372300</v>
+        <v>354900</v>
       </c>
       <c r="I23" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="J23" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K23" s="3">
         <v>-4000</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>120100</v>
+        <v>114500</v>
       </c>
       <c r="E24" s="3">
-        <v>110300</v>
+        <v>105200</v>
       </c>
       <c r="F24" s="3">
-        <v>129100</v>
+        <v>123000</v>
       </c>
       <c r="G24" s="3">
-        <v>102200</v>
+        <v>97400</v>
       </c>
       <c r="H24" s="3">
-        <v>65000</v>
+        <v>61900</v>
       </c>
       <c r="I24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-426100</v>
+        <v>-406100</v>
       </c>
       <c r="E26" s="3">
-        <v>312900</v>
+        <v>298300</v>
       </c>
       <c r="F26" s="3">
-        <v>435800</v>
+        <v>415400</v>
       </c>
       <c r="G26" s="3">
-        <v>400100</v>
+        <v>381400</v>
       </c>
       <c r="H26" s="3">
-        <v>307400</v>
+        <v>293000</v>
       </c>
       <c r="I26" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="J26" s="3">
         <v>1900</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-425500</v>
+        <v>-405600</v>
       </c>
       <c r="E27" s="3">
-        <v>307200</v>
+        <v>292800</v>
       </c>
       <c r="F27" s="3">
-        <v>433800</v>
+        <v>413500</v>
       </c>
       <c r="G27" s="3">
-        <v>411200</v>
+        <v>392000</v>
       </c>
       <c r="H27" s="3">
-        <v>313700</v>
+        <v>299000</v>
       </c>
       <c r="I27" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="J27" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K27" s="3">
         <v>-13100</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-56400</v>
+        <v>-53800</v>
       </c>
       <c r="E32" s="3">
-        <v>-66700</v>
+        <v>-63500</v>
       </c>
       <c r="F32" s="3">
-        <v>-59500</v>
+        <v>-56700</v>
       </c>
       <c r="G32" s="3">
-        <v>-39900</v>
+        <v>-38000</v>
       </c>
       <c r="H32" s="3">
-        <v>-21300</v>
+        <v>-20300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J32" s="3">
         <v>-1100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-425500</v>
+        <v>-405600</v>
       </c>
       <c r="E33" s="3">
-        <v>307200</v>
+        <v>292800</v>
       </c>
       <c r="F33" s="3">
-        <v>433800</v>
+        <v>413500</v>
       </c>
       <c r="G33" s="3">
-        <v>411200</v>
+        <v>392000</v>
       </c>
       <c r="H33" s="3">
-        <v>313700</v>
+        <v>299000</v>
       </c>
       <c r="I33" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="J33" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K33" s="3">
         <v>-13100</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-425500</v>
+        <v>-405600</v>
       </c>
       <c r="E35" s="3">
-        <v>307200</v>
+        <v>292800</v>
       </c>
       <c r="F35" s="3">
-        <v>433800</v>
+        <v>413500</v>
       </c>
       <c r="G35" s="3">
-        <v>411200</v>
+        <v>392000</v>
       </c>
       <c r="H35" s="3">
-        <v>313700</v>
+        <v>299000</v>
       </c>
       <c r="I35" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="J35" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K35" s="3">
         <v>-13100</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>813500</v>
+        <v>775400</v>
       </c>
       <c r="E41" s="3">
-        <v>491200</v>
+        <v>468300</v>
       </c>
       <c r="F41" s="3">
-        <v>381500</v>
+        <v>363700</v>
       </c>
       <c r="G41" s="3">
-        <v>360400</v>
+        <v>343600</v>
       </c>
       <c r="H41" s="3">
-        <v>651600</v>
+        <v>621100</v>
       </c>
       <c r="I41" s="3">
-        <v>37600</v>
+        <v>35900</v>
       </c>
       <c r="J41" s="3">
-        <v>24700</v>
+        <v>23600</v>
       </c>
       <c r="K41" s="3">
         <v>71100</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>417600</v>
+        <v>398100</v>
       </c>
       <c r="E42" s="3">
-        <v>1104900</v>
+        <v>1053200</v>
       </c>
       <c r="F42" s="3">
-        <v>1798000</v>
+        <v>1713900</v>
       </c>
       <c r="G42" s="3">
-        <v>1288700</v>
+        <v>1228400</v>
       </c>
       <c r="H42" s="3">
-        <v>356700</v>
+        <v>340000</v>
       </c>
       <c r="I42" s="3">
-        <v>57500</v>
+        <v>54800</v>
       </c>
       <c r="J42" s="3">
-        <v>43800</v>
+        <v>41800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>117100</v>
+        <v>111600</v>
       </c>
       <c r="E43" s="3">
-        <v>87600</v>
+        <v>83500</v>
       </c>
       <c r="F43" s="3">
-        <v>76400</v>
+        <v>72800</v>
       </c>
       <c r="G43" s="3">
-        <v>127900</v>
+        <v>121900</v>
       </c>
       <c r="H43" s="3">
-        <v>59800</v>
+        <v>57000</v>
       </c>
       <c r="I43" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K43" s="3">
         <v>1500</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26000</v>
+        <v>24800</v>
       </c>
       <c r="E45" s="3">
-        <v>31600</v>
+        <v>30100</v>
       </c>
       <c r="F45" s="3">
-        <v>50500</v>
+        <v>48100</v>
       </c>
       <c r="G45" s="3">
-        <v>67900</v>
+        <v>64700</v>
       </c>
       <c r="H45" s="3">
-        <v>67000</v>
+        <v>63900</v>
       </c>
       <c r="I45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1374300</v>
+        <v>1310000</v>
       </c>
       <c r="E46" s="3">
-        <v>1715400</v>
+        <v>1635200</v>
       </c>
       <c r="F46" s="3">
-        <v>2306400</v>
+        <v>2198500</v>
       </c>
       <c r="G46" s="3">
-        <v>1844800</v>
+        <v>1758500</v>
       </c>
       <c r="H46" s="3">
-        <v>1129400</v>
+        <v>1076600</v>
       </c>
       <c r="I46" s="3">
-        <v>105200</v>
+        <v>100200</v>
       </c>
       <c r="J46" s="3">
-        <v>73600</v>
+        <v>70100</v>
       </c>
       <c r="K46" s="3">
         <v>73500</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>119700</v>
+        <v>114100</v>
       </c>
       <c r="E47" s="3">
-        <v>66400</v>
+        <v>63300</v>
       </c>
       <c r="F47" s="3">
-        <v>72400</v>
+        <v>69000</v>
       </c>
       <c r="G47" s="3">
-        <v>65300</v>
+        <v>62300</v>
       </c>
       <c r="H47" s="3">
-        <v>42100</v>
+        <v>40200</v>
       </c>
       <c r="I47" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="J47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>64000</v>
+        <v>61100</v>
       </c>
       <c r="E48" s="3">
-        <v>79400</v>
+        <v>75700</v>
       </c>
       <c r="F48" s="3">
-        <v>78400</v>
+        <v>74700</v>
       </c>
       <c r="G48" s="3">
-        <v>56600</v>
+        <v>53900</v>
       </c>
       <c r="H48" s="3">
-        <v>37800</v>
+        <v>36000</v>
       </c>
       <c r="I48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K48" s="3">
         <v>1600</v>
@@ -2137,19 +2137,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E49" s="3">
-        <v>697400</v>
+        <v>664800</v>
       </c>
       <c r="F49" s="3">
-        <v>766800</v>
+        <v>730900</v>
       </c>
       <c r="G49" s="3">
-        <v>780400</v>
+        <v>743900</v>
       </c>
       <c r="H49" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2254,19 +2254,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1082700</v>
+        <v>1032100</v>
       </c>
       <c r="E52" s="3">
-        <v>832200</v>
+        <v>793300</v>
       </c>
       <c r="F52" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="G52" s="3">
-        <v>22400</v>
+        <v>21400</v>
       </c>
       <c r="H52" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2644800</v>
+        <v>2521100</v>
       </c>
       <c r="E54" s="3">
-        <v>3390900</v>
+        <v>3232300</v>
       </c>
       <c r="F54" s="3">
-        <v>3283300</v>
+        <v>3129700</v>
       </c>
       <c r="G54" s="3">
-        <v>2769500</v>
+        <v>2640000</v>
       </c>
       <c r="H54" s="3">
-        <v>1237000</v>
+        <v>1179200</v>
       </c>
       <c r="I54" s="3">
-        <v>112400</v>
+        <v>107100</v>
       </c>
       <c r="J54" s="3">
-        <v>79200</v>
+        <v>75500</v>
       </c>
       <c r="K54" s="3">
         <v>75500</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>106000</v>
+        <v>101100</v>
       </c>
       <c r="E57" s="3">
-        <v>102100</v>
+        <v>97400</v>
       </c>
       <c r="F57" s="3">
-        <v>104300</v>
+        <v>99400</v>
       </c>
       <c r="G57" s="3">
-        <v>104900</v>
+        <v>100000</v>
       </c>
       <c r="H57" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="I57" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>261300</v>
+        <v>249100</v>
       </c>
       <c r="E59" s="3">
-        <v>265400</v>
+        <v>253000</v>
       </c>
       <c r="F59" s="3">
-        <v>276400</v>
+        <v>263400</v>
       </c>
       <c r="G59" s="3">
-        <v>288800</v>
+        <v>275300</v>
       </c>
       <c r="H59" s="3">
-        <v>176300</v>
+        <v>168000</v>
       </c>
       <c r="I59" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="J59" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="K59" s="3">
         <v>5100</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>367400</v>
+        <v>350200</v>
       </c>
       <c r="E60" s="3">
-        <v>367500</v>
+        <v>350300</v>
       </c>
       <c r="F60" s="3">
-        <v>380700</v>
+        <v>362900</v>
       </c>
       <c r="G60" s="3">
-        <v>393700</v>
+        <v>375300</v>
       </c>
       <c r="H60" s="3">
-        <v>247100</v>
+        <v>235500</v>
       </c>
       <c r="I60" s="3">
-        <v>19500</v>
+        <v>18600</v>
       </c>
       <c r="J60" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="K60" s="3">
         <v>6000</v>
@@ -2561,16 +2561,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>666700</v>
+        <v>635500</v>
       </c>
       <c r="E61" s="3">
-        <v>680300</v>
+        <v>648500</v>
       </c>
       <c r="F61" s="3">
-        <v>723500</v>
+        <v>689600</v>
       </c>
       <c r="G61" s="3">
-        <v>712200</v>
+        <v>678900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>64900</v>
+        <v>61900</v>
       </c>
       <c r="E62" s="3">
-        <v>176600</v>
+        <v>168400</v>
       </c>
       <c r="F62" s="3">
-        <v>175800</v>
+        <v>167600</v>
       </c>
       <c r="G62" s="3">
-        <v>53900</v>
+        <v>51400</v>
       </c>
       <c r="H62" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1119300</v>
+        <v>1066900</v>
       </c>
       <c r="E66" s="3">
-        <v>1253200</v>
+        <v>1194600</v>
       </c>
       <c r="F66" s="3">
-        <v>1307500</v>
+        <v>1246300</v>
       </c>
       <c r="G66" s="3">
-        <v>1173300</v>
+        <v>1118500</v>
       </c>
       <c r="H66" s="3">
-        <v>253700</v>
+        <v>241900</v>
       </c>
       <c r="I66" s="3">
-        <v>19800</v>
+        <v>18900</v>
       </c>
       <c r="J66" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="K66" s="3">
         <v>6000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>683100</v>
+        <v>651100</v>
       </c>
       <c r="E72" s="3">
-        <v>1233100</v>
+        <v>1175400</v>
       </c>
       <c r="F72" s="3">
-        <v>1090100</v>
+        <v>1039100</v>
       </c>
       <c r="G72" s="3">
-        <v>782900</v>
+        <v>746300</v>
       </c>
       <c r="H72" s="3">
-        <v>371700</v>
+        <v>354300</v>
       </c>
       <c r="I72" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="J72" s="3">
-        <v>-13700</v>
+        <v>-13100</v>
       </c>
       <c r="K72" s="3">
         <v>-17000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1525500</v>
+        <v>1454200</v>
       </c>
       <c r="E76" s="3">
-        <v>2137700</v>
+        <v>2037700</v>
       </c>
       <c r="F76" s="3">
-        <v>1975800</v>
+        <v>1883400</v>
       </c>
       <c r="G76" s="3">
-        <v>1596200</v>
+        <v>1521500</v>
       </c>
       <c r="H76" s="3">
-        <v>983300</v>
+        <v>937300</v>
       </c>
       <c r="I76" s="3">
-        <v>92600</v>
+        <v>88300</v>
       </c>
       <c r="J76" s="3">
-        <v>68400</v>
+        <v>65200</v>
       </c>
       <c r="K76" s="3">
         <v>69500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-425500</v>
+        <v>-405600</v>
       </c>
       <c r="E81" s="3">
-        <v>307200</v>
+        <v>292800</v>
       </c>
       <c r="F81" s="3">
-        <v>433800</v>
+        <v>413500</v>
       </c>
       <c r="G81" s="3">
-        <v>411200</v>
+        <v>392000</v>
       </c>
       <c r="H81" s="3">
-        <v>313700</v>
+        <v>299000</v>
       </c>
       <c r="I81" s="3">
-        <v>20700</v>
+        <v>19800</v>
       </c>
       <c r="J81" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K81" s="3">
         <v>-13100</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38600</v>
+        <v>36800</v>
       </c>
       <c r="E83" s="3">
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="F83" s="3">
-        <v>52000</v>
+        <v>49600</v>
       </c>
       <c r="G83" s="3">
-        <v>35200</v>
+        <v>33600</v>
       </c>
       <c r="H83" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>227700</v>
+        <v>217000</v>
       </c>
       <c r="E89" s="3">
-        <v>449900</v>
+        <v>428900</v>
       </c>
       <c r="F89" s="3">
-        <v>795700</v>
+        <v>758500</v>
       </c>
       <c r="G89" s="3">
-        <v>485900</v>
+        <v>463200</v>
       </c>
       <c r="H89" s="3">
-        <v>421500</v>
+        <v>401700</v>
       </c>
       <c r="I89" s="3">
-        <v>31900</v>
+        <v>30400</v>
       </c>
       <c r="J89" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="K89" s="3">
         <v>-900</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="E91" s="3">
-        <v>-18100</v>
+        <v>-17300</v>
       </c>
       <c r="F91" s="3">
-        <v>-27200</v>
+        <v>-26000</v>
       </c>
       <c r="G91" s="3">
-        <v>-35500</v>
+        <v>-33800</v>
       </c>
       <c r="H91" s="3">
-        <v>-31900</v>
+        <v>-30400</v>
       </c>
       <c r="I91" s="3">
         <v>-1000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>372400</v>
+        <v>355000</v>
       </c>
       <c r="E94" s="3">
-        <v>-109300</v>
+        <v>-104200</v>
       </c>
       <c r="F94" s="3">
-        <v>-588500</v>
+        <v>-561000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1465300</v>
+        <v>-1396700</v>
       </c>
       <c r="H94" s="3">
-        <v>-27500</v>
+        <v>-26200</v>
       </c>
       <c r="I94" s="3">
-        <v>-17300</v>
+        <v>-16500</v>
       </c>
       <c r="J94" s="3">
-        <v>-48700</v>
+        <v>-46400</v>
       </c>
       <c r="K94" s="3">
         <v>-1500</v>
@@ -3765,13 +3765,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-124500</v>
+        <v>-118700</v>
       </c>
       <c r="E96" s="3">
-        <v>-164100</v>
+        <v>-156500</v>
       </c>
       <c r="F96" s="3">
-        <v>-128100</v>
+        <v>-122100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3921,16 +3921,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-260900</v>
+        <v>-248700</v>
       </c>
       <c r="E100" s="3">
-        <v>-218800</v>
+        <v>-208500</v>
       </c>
       <c r="F100" s="3">
-        <v>-186000</v>
+        <v>-177300</v>
       </c>
       <c r="G100" s="3">
-        <v>684600</v>
+        <v>652600</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="E101" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H101" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="I101" s="3">
         <v>-1700</v>
       </c>
       <c r="J101" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>333100</v>
+        <v>317500</v>
       </c>
       <c r="E102" s="3">
-        <v>110000</v>
+        <v>104900</v>
       </c>
       <c r="F102" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="G102" s="3">
-        <v>-291200</v>
+        <v>-277600</v>
       </c>
       <c r="H102" s="3">
-        <v>390500</v>
+        <v>372200</v>
       </c>
       <c r="I102" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="J102" s="3">
-        <v>-41100</v>
+        <v>-39200</v>
       </c>
       <c r="K102" s="3">
         <v>62400</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2028900</v>
+        <v>2093400</v>
       </c>
       <c r="E8" s="3">
-        <v>2091400</v>
+        <v>2157800</v>
       </c>
       <c r="F8" s="3">
-        <v>2368500</v>
+        <v>2443700</v>
       </c>
       <c r="G8" s="3">
-        <v>1866500</v>
+        <v>1925700</v>
       </c>
       <c r="H8" s="3">
-        <v>1237000</v>
+        <v>1276300</v>
       </c>
       <c r="I8" s="3">
-        <v>77000</v>
+        <v>79400</v>
       </c>
       <c r="J8" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="K8" s="3">
         <v>7100</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1167000</v>
+        <v>1204000</v>
       </c>
       <c r="E9" s="3">
-        <v>1110400</v>
+        <v>1145600</v>
       </c>
       <c r="F9" s="3">
-        <v>1182100</v>
+        <v>1219600</v>
       </c>
       <c r="G9" s="3">
-        <v>999900</v>
+        <v>1031600</v>
       </c>
       <c r="H9" s="3">
-        <v>608800</v>
+        <v>628100</v>
       </c>
       <c r="I9" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="J9" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="K9" s="3">
         <v>2500</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>862000</v>
+        <v>889300</v>
       </c>
       <c r="E10" s="3">
-        <v>981000</v>
+        <v>1012100</v>
       </c>
       <c r="F10" s="3">
-        <v>1186400</v>
+        <v>1224100</v>
       </c>
       <c r="G10" s="3">
-        <v>866600</v>
+        <v>894100</v>
       </c>
       <c r="H10" s="3">
-        <v>628200</v>
+        <v>648200</v>
       </c>
       <c r="I10" s="3">
-        <v>43400</v>
+        <v>44800</v>
       </c>
       <c r="J10" s="3">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="K10" s="3">
         <v>4600</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>157500</v>
+        <v>162500</v>
       </c>
       <c r="E12" s="3">
-        <v>162500</v>
+        <v>167700</v>
       </c>
       <c r="F12" s="3">
-        <v>152400</v>
+        <v>157300</v>
       </c>
       <c r="G12" s="3">
-        <v>105900</v>
+        <v>109200</v>
       </c>
       <c r="H12" s="3">
-        <v>48200</v>
+        <v>49700</v>
       </c>
       <c r="I12" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J12" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K12" s="3">
         <v>1500</v>
@@ -936,19 +936,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>614600</v>
+        <v>634100</v>
       </c>
       <c r="E14" s="3">
         <v>1500</v>
       </c>
       <c r="F14" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H14" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I14" s="3">
         <v>800</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2364100</v>
+        <v>2439100</v>
       </c>
       <c r="E17" s="3">
-        <v>1740500</v>
+        <v>1795700</v>
       </c>
       <c r="F17" s="3">
-        <v>1875900</v>
+        <v>1935400</v>
       </c>
       <c r="G17" s="3">
-        <v>1417800</v>
+        <v>1462800</v>
       </c>
       <c r="H17" s="3">
-        <v>902300</v>
+        <v>931000</v>
       </c>
       <c r="I17" s="3">
-        <v>57700</v>
+        <v>59500</v>
       </c>
       <c r="J17" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="K17" s="3">
         <v>11200</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-335100</v>
+        <v>-345800</v>
       </c>
       <c r="E18" s="3">
-        <v>350900</v>
+        <v>362100</v>
       </c>
       <c r="F18" s="3">
-        <v>492600</v>
+        <v>508300</v>
       </c>
       <c r="G18" s="3">
-        <v>448700</v>
+        <v>462900</v>
       </c>
       <c r="H18" s="3">
-        <v>334700</v>
+        <v>345300</v>
       </c>
       <c r="I18" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="J18" s="3">
         <v>800</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>53800</v>
+        <v>55500</v>
       </c>
       <c r="E20" s="3">
-        <v>63500</v>
+        <v>65600</v>
       </c>
       <c r="F20" s="3">
-        <v>56700</v>
+        <v>58500</v>
       </c>
       <c r="G20" s="3">
-        <v>38000</v>
+        <v>39200</v>
       </c>
       <c r="H20" s="3">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="I20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J20" s="3">
         <v>1100</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-244800</v>
+        <v>-252200</v>
       </c>
       <c r="E21" s="3">
-        <v>465000</v>
+        <v>480300</v>
       </c>
       <c r="F21" s="3">
-        <v>598600</v>
+        <v>618100</v>
       </c>
       <c r="G21" s="3">
-        <v>520000</v>
+        <v>536800</v>
       </c>
       <c r="H21" s="3">
-        <v>366500</v>
+        <v>378200</v>
       </c>
       <c r="I21" s="3">
-        <v>21600</v>
+        <v>22300</v>
       </c>
       <c r="J21" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K21" s="3">
         <v>-3600</v>
@@ -1201,16 +1201,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="E22" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="F22" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="G22" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-291600</v>
+        <v>-300900</v>
       </c>
       <c r="E23" s="3">
-        <v>403500</v>
+        <v>416300</v>
       </c>
       <c r="F23" s="3">
-        <v>538400</v>
+        <v>555500</v>
       </c>
       <c r="G23" s="3">
-        <v>478800</v>
+        <v>494000</v>
       </c>
       <c r="H23" s="3">
-        <v>354900</v>
+        <v>366200</v>
       </c>
       <c r="I23" s="3">
-        <v>20500</v>
+        <v>21100</v>
       </c>
       <c r="J23" s="3">
         <v>1900</v>
@@ -1279,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114500</v>
+        <v>118100</v>
       </c>
       <c r="E24" s="3">
-        <v>105200</v>
+        <v>108500</v>
       </c>
       <c r="F24" s="3">
-        <v>123000</v>
+        <v>126900</v>
       </c>
       <c r="G24" s="3">
-        <v>97400</v>
+        <v>100500</v>
       </c>
       <c r="H24" s="3">
-        <v>61900</v>
+        <v>63900</v>
       </c>
       <c r="I24" s="3">
         <v>700</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-406100</v>
+        <v>-419000</v>
       </c>
       <c r="E26" s="3">
-        <v>298300</v>
+        <v>307800</v>
       </c>
       <c r="F26" s="3">
-        <v>415400</v>
+        <v>428600</v>
       </c>
       <c r="G26" s="3">
-        <v>381400</v>
+        <v>393500</v>
       </c>
       <c r="H26" s="3">
-        <v>293000</v>
+        <v>302300</v>
       </c>
       <c r="I26" s="3">
-        <v>19700</v>
+        <v>20400</v>
       </c>
       <c r="J26" s="3">
         <v>1900</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-405600</v>
+        <v>-418500</v>
       </c>
       <c r="E27" s="3">
-        <v>292800</v>
+        <v>302100</v>
       </c>
       <c r="F27" s="3">
-        <v>413500</v>
+        <v>426700</v>
       </c>
       <c r="G27" s="3">
-        <v>392000</v>
+        <v>404400</v>
       </c>
       <c r="H27" s="3">
-        <v>299000</v>
+        <v>308500</v>
       </c>
       <c r="I27" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="J27" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K27" s="3">
         <v>-13100</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-53800</v>
+        <v>-55500</v>
       </c>
       <c r="E32" s="3">
-        <v>-63500</v>
+        <v>-65600</v>
       </c>
       <c r="F32" s="3">
-        <v>-56700</v>
+        <v>-58500</v>
       </c>
       <c r="G32" s="3">
-        <v>-38000</v>
+        <v>-39200</v>
       </c>
       <c r="H32" s="3">
-        <v>-20300</v>
+        <v>-20900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="J32" s="3">
         <v>-1100</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-405600</v>
+        <v>-418500</v>
       </c>
       <c r="E33" s="3">
-        <v>292800</v>
+        <v>302100</v>
       </c>
       <c r="F33" s="3">
-        <v>413500</v>
+        <v>426700</v>
       </c>
       <c r="G33" s="3">
-        <v>392000</v>
+        <v>404400</v>
       </c>
       <c r="H33" s="3">
-        <v>299000</v>
+        <v>308500</v>
       </c>
       <c r="I33" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="J33" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K33" s="3">
         <v>-13100</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-405600</v>
+        <v>-418500</v>
       </c>
       <c r="E35" s="3">
-        <v>292800</v>
+        <v>302100</v>
       </c>
       <c r="F35" s="3">
-        <v>413500</v>
+        <v>426700</v>
       </c>
       <c r="G35" s="3">
-        <v>392000</v>
+        <v>404400</v>
       </c>
       <c r="H35" s="3">
-        <v>299000</v>
+        <v>308500</v>
       </c>
       <c r="I35" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="J35" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K35" s="3">
         <v>-13100</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>775400</v>
+        <v>800000</v>
       </c>
       <c r="E41" s="3">
-        <v>468300</v>
+        <v>483100</v>
       </c>
       <c r="F41" s="3">
-        <v>363700</v>
+        <v>375200</v>
       </c>
       <c r="G41" s="3">
-        <v>343600</v>
+        <v>354500</v>
       </c>
       <c r="H41" s="3">
-        <v>621100</v>
+        <v>640900</v>
       </c>
       <c r="I41" s="3">
-        <v>35900</v>
+        <v>37000</v>
       </c>
       <c r="J41" s="3">
-        <v>23600</v>
+        <v>24300</v>
       </c>
       <c r="K41" s="3">
         <v>71100</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>398100</v>
+        <v>410800</v>
       </c>
       <c r="E42" s="3">
-        <v>1053200</v>
+        <v>1086700</v>
       </c>
       <c r="F42" s="3">
-        <v>1713900</v>
+        <v>1768300</v>
       </c>
       <c r="G42" s="3">
-        <v>1228400</v>
+        <v>1267400</v>
       </c>
       <c r="H42" s="3">
-        <v>340000</v>
+        <v>350800</v>
       </c>
       <c r="I42" s="3">
-        <v>54800</v>
+        <v>56600</v>
       </c>
       <c r="J42" s="3">
-        <v>41800</v>
+        <v>43100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>111600</v>
+        <v>115200</v>
       </c>
       <c r="E43" s="3">
-        <v>83500</v>
+        <v>86200</v>
       </c>
       <c r="F43" s="3">
-        <v>72800</v>
+        <v>75100</v>
       </c>
       <c r="G43" s="3">
-        <v>121900</v>
+        <v>125800</v>
       </c>
       <c r="H43" s="3">
-        <v>57000</v>
+        <v>58900</v>
       </c>
       <c r="I43" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="J43" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K43" s="3">
         <v>1500</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24800</v>
+        <v>25600</v>
       </c>
       <c r="E45" s="3">
-        <v>30100</v>
+        <v>31100</v>
       </c>
       <c r="F45" s="3">
-        <v>48100</v>
+        <v>49600</v>
       </c>
       <c r="G45" s="3">
-        <v>64700</v>
+        <v>66800</v>
       </c>
       <c r="H45" s="3">
-        <v>63900</v>
+        <v>65900</v>
       </c>
       <c r="I45" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J45" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1310000</v>
+        <v>1351600</v>
       </c>
       <c r="E46" s="3">
-        <v>1635200</v>
+        <v>1687100</v>
       </c>
       <c r="F46" s="3">
-        <v>2198500</v>
+        <v>2268300</v>
       </c>
       <c r="G46" s="3">
-        <v>1758500</v>
+        <v>1814400</v>
       </c>
       <c r="H46" s="3">
-        <v>1076600</v>
+        <v>1110800</v>
       </c>
       <c r="I46" s="3">
-        <v>100200</v>
+        <v>103400</v>
       </c>
       <c r="J46" s="3">
-        <v>70100</v>
+        <v>72400</v>
       </c>
       <c r="K46" s="3">
         <v>73500</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114100</v>
+        <v>117800</v>
       </c>
       <c r="E47" s="3">
-        <v>63300</v>
+        <v>65300</v>
       </c>
       <c r="F47" s="3">
-        <v>69000</v>
+        <v>71200</v>
       </c>
       <c r="G47" s="3">
-        <v>62300</v>
+        <v>64300</v>
       </c>
       <c r="H47" s="3">
-        <v>40200</v>
+        <v>41400</v>
       </c>
       <c r="I47" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>61100</v>
+        <v>63000</v>
       </c>
       <c r="E48" s="3">
-        <v>75700</v>
+        <v>78100</v>
       </c>
       <c r="F48" s="3">
-        <v>74700</v>
+        <v>77100</v>
       </c>
       <c r="G48" s="3">
-        <v>53900</v>
+        <v>55700</v>
       </c>
       <c r="H48" s="3">
-        <v>36000</v>
+        <v>37200</v>
       </c>
       <c r="I48" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J48" s="3">
         <v>2300</v>
@@ -2137,19 +2137,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="3">
-        <v>664800</v>
+        <v>685900</v>
       </c>
       <c r="F49" s="3">
-        <v>730900</v>
+        <v>754100</v>
       </c>
       <c r="G49" s="3">
-        <v>743900</v>
+        <v>767500</v>
       </c>
       <c r="H49" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2254,19 +2254,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1032100</v>
+        <v>1064900</v>
       </c>
       <c r="E52" s="3">
-        <v>793300</v>
+        <v>818500</v>
       </c>
       <c r="F52" s="3">
-        <v>56500</v>
+        <v>58300</v>
       </c>
       <c r="G52" s="3">
-        <v>21400</v>
+        <v>22000</v>
       </c>
       <c r="H52" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2521100</v>
+        <v>2601100</v>
       </c>
       <c r="E54" s="3">
-        <v>3232300</v>
+        <v>3334900</v>
       </c>
       <c r="F54" s="3">
-        <v>3129700</v>
+        <v>3229100</v>
       </c>
       <c r="G54" s="3">
-        <v>2640000</v>
+        <v>2723800</v>
       </c>
       <c r="H54" s="3">
-        <v>1179200</v>
+        <v>1216600</v>
       </c>
       <c r="I54" s="3">
-        <v>107100</v>
+        <v>110500</v>
       </c>
       <c r="J54" s="3">
-        <v>75500</v>
+        <v>77900</v>
       </c>
       <c r="K54" s="3">
         <v>75500</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>101100</v>
+        <v>104300</v>
       </c>
       <c r="E57" s="3">
-        <v>97400</v>
+        <v>100400</v>
       </c>
       <c r="F57" s="3">
-        <v>99400</v>
+        <v>102600</v>
       </c>
       <c r="G57" s="3">
-        <v>100000</v>
+        <v>103200</v>
       </c>
       <c r="H57" s="3">
-        <v>67500</v>
+        <v>69600</v>
       </c>
       <c r="I57" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>249100</v>
+        <v>257000</v>
       </c>
       <c r="E59" s="3">
-        <v>253000</v>
+        <v>261000</v>
       </c>
       <c r="F59" s="3">
-        <v>263400</v>
+        <v>271800</v>
       </c>
       <c r="G59" s="3">
-        <v>275300</v>
+        <v>284100</v>
       </c>
       <c r="H59" s="3">
-        <v>168000</v>
+        <v>173400</v>
       </c>
       <c r="I59" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="J59" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="K59" s="3">
         <v>5100</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>350200</v>
+        <v>361300</v>
       </c>
       <c r="E60" s="3">
-        <v>350300</v>
+        <v>361500</v>
       </c>
       <c r="F60" s="3">
-        <v>362900</v>
+        <v>374400</v>
       </c>
       <c r="G60" s="3">
-        <v>375300</v>
+        <v>387200</v>
       </c>
       <c r="H60" s="3">
-        <v>235500</v>
+        <v>243000</v>
       </c>
       <c r="I60" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J60" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="K60" s="3">
         <v>6000</v>
@@ -2561,16 +2561,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>635500</v>
+        <v>655700</v>
       </c>
       <c r="E61" s="3">
-        <v>648500</v>
+        <v>669100</v>
       </c>
       <c r="F61" s="3">
-        <v>689600</v>
+        <v>711500</v>
       </c>
       <c r="G61" s="3">
-        <v>678900</v>
+        <v>700500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61900</v>
+        <v>63900</v>
       </c>
       <c r="E62" s="3">
-        <v>168400</v>
+        <v>173700</v>
       </c>
       <c r="F62" s="3">
-        <v>167600</v>
+        <v>172900</v>
       </c>
       <c r="G62" s="3">
-        <v>51400</v>
+        <v>53000</v>
       </c>
       <c r="H62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1066900</v>
+        <v>1100800</v>
       </c>
       <c r="E66" s="3">
-        <v>1194600</v>
+        <v>1232500</v>
       </c>
       <c r="F66" s="3">
-        <v>1246300</v>
+        <v>1285900</v>
       </c>
       <c r="G66" s="3">
-        <v>1118500</v>
+        <v>1154000</v>
       </c>
       <c r="H66" s="3">
-        <v>241900</v>
+        <v>249600</v>
       </c>
       <c r="I66" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="J66" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="K66" s="3">
         <v>6000</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>651100</v>
+        <v>671800</v>
       </c>
       <c r="E72" s="3">
-        <v>1175400</v>
+        <v>1212700</v>
       </c>
       <c r="F72" s="3">
-        <v>1039100</v>
+        <v>1072100</v>
       </c>
       <c r="G72" s="3">
-        <v>746300</v>
+        <v>770000</v>
       </c>
       <c r="H72" s="3">
-        <v>354300</v>
+        <v>365600</v>
       </c>
       <c r="I72" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="J72" s="3">
-        <v>-13100</v>
+        <v>-13500</v>
       </c>
       <c r="K72" s="3">
         <v>-17000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1454200</v>
+        <v>1500300</v>
       </c>
       <c r="E76" s="3">
-        <v>2037700</v>
+        <v>2102500</v>
       </c>
       <c r="F76" s="3">
-        <v>1883400</v>
+        <v>1943200</v>
       </c>
       <c r="G76" s="3">
-        <v>1521500</v>
+        <v>1569800</v>
       </c>
       <c r="H76" s="3">
-        <v>937300</v>
+        <v>967100</v>
       </c>
       <c r="I76" s="3">
-        <v>88300</v>
+        <v>91100</v>
       </c>
       <c r="J76" s="3">
-        <v>65200</v>
+        <v>67300</v>
       </c>
       <c r="K76" s="3">
         <v>69500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-405600</v>
+        <v>-418500</v>
       </c>
       <c r="E81" s="3">
-        <v>292800</v>
+        <v>302100</v>
       </c>
       <c r="F81" s="3">
-        <v>413500</v>
+        <v>426700</v>
       </c>
       <c r="G81" s="3">
-        <v>392000</v>
+        <v>404400</v>
       </c>
       <c r="H81" s="3">
-        <v>299000</v>
+        <v>308500</v>
       </c>
       <c r="I81" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="J81" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K81" s="3">
         <v>-13100</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>36800</v>
+        <v>38000</v>
       </c>
       <c r="E83" s="3">
-        <v>51000</v>
+        <v>52600</v>
       </c>
       <c r="F83" s="3">
-        <v>49600</v>
+        <v>51200</v>
       </c>
       <c r="G83" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="H83" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="I83" s="3">
         <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>217000</v>
+        <v>223900</v>
       </c>
       <c r="E89" s="3">
-        <v>428900</v>
+        <v>442500</v>
       </c>
       <c r="F89" s="3">
-        <v>758500</v>
+        <v>782600</v>
       </c>
       <c r="G89" s="3">
-        <v>463200</v>
+        <v>477900</v>
       </c>
       <c r="H89" s="3">
-        <v>401700</v>
+        <v>414500</v>
       </c>
       <c r="I89" s="3">
-        <v>30400</v>
+        <v>31400</v>
       </c>
       <c r="J89" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K89" s="3">
         <v>-900</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13300</v>
+        <v>-13700</v>
       </c>
       <c r="E91" s="3">
-        <v>-17300</v>
+        <v>-17800</v>
       </c>
       <c r="F91" s="3">
-        <v>-26000</v>
+        <v>-26800</v>
       </c>
       <c r="G91" s="3">
-        <v>-33800</v>
+        <v>-34900</v>
       </c>
       <c r="H91" s="3">
-        <v>-30400</v>
+        <v>-31400</v>
       </c>
       <c r="I91" s="3">
         <v>-1000</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>355000</v>
+        <v>366300</v>
       </c>
       <c r="E94" s="3">
-        <v>-104200</v>
+        <v>-107500</v>
       </c>
       <c r="F94" s="3">
-        <v>-561000</v>
+        <v>-578800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1396700</v>
+        <v>-1441100</v>
       </c>
       <c r="H94" s="3">
-        <v>-26200</v>
+        <v>-27000</v>
       </c>
       <c r="I94" s="3">
-        <v>-16500</v>
+        <v>-17000</v>
       </c>
       <c r="J94" s="3">
-        <v>-46400</v>
+        <v>-47900</v>
       </c>
       <c r="K94" s="3">
         <v>-1500</v>
@@ -3765,13 +3765,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-118700</v>
+        <v>-122500</v>
       </c>
       <c r="E96" s="3">
-        <v>-156500</v>
+        <v>-161400</v>
       </c>
       <c r="F96" s="3">
-        <v>-122100</v>
+        <v>-126000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3921,16 +3921,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-248700</v>
+        <v>-256600</v>
       </c>
       <c r="E100" s="3">
-        <v>-208500</v>
+        <v>-215200</v>
       </c>
       <c r="F100" s="3">
-        <v>-177300</v>
+        <v>-182900</v>
       </c>
       <c r="G100" s="3">
-        <v>652600</v>
+        <v>673300</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="E101" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
         <v>-1700</v>
       </c>
       <c r="J101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>317500</v>
+        <v>327600</v>
       </c>
       <c r="E102" s="3">
-        <v>104900</v>
+        <v>108200</v>
       </c>
       <c r="F102" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="G102" s="3">
-        <v>-277600</v>
+        <v>-286400</v>
       </c>
       <c r="H102" s="3">
-        <v>372200</v>
+        <v>384000</v>
       </c>
       <c r="I102" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="J102" s="3">
-        <v>-39200</v>
+        <v>-40400</v>
       </c>
       <c r="K102" s="3">
         <v>62400</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2093400</v>
+        <v>1805900</v>
       </c>
       <c r="E8" s="3">
-        <v>2157800</v>
+        <v>2071900</v>
       </c>
       <c r="F8" s="3">
-        <v>2443700</v>
+        <v>2135700</v>
       </c>
       <c r="G8" s="3">
-        <v>1925700</v>
+        <v>2418700</v>
       </c>
       <c r="H8" s="3">
-        <v>1276300</v>
+        <v>1906000</v>
       </c>
       <c r="I8" s="3">
-        <v>79400</v>
+        <v>1263200</v>
       </c>
       <c r="J8" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K8" s="3">
         <v>19200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1204000</v>
+        <v>1055000</v>
       </c>
       <c r="E9" s="3">
-        <v>1145600</v>
+        <v>1191700</v>
       </c>
       <c r="F9" s="3">
-        <v>1219600</v>
+        <v>1133900</v>
       </c>
       <c r="G9" s="3">
-        <v>1031600</v>
+        <v>1207200</v>
       </c>
       <c r="H9" s="3">
-        <v>628100</v>
+        <v>1021000</v>
       </c>
       <c r="I9" s="3">
-        <v>34700</v>
+        <v>621700</v>
       </c>
       <c r="J9" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>889300</v>
+        <v>750900</v>
       </c>
       <c r="E10" s="3">
-        <v>1012100</v>
+        <v>880200</v>
       </c>
       <c r="F10" s="3">
-        <v>1224100</v>
+        <v>1001800</v>
       </c>
       <c r="G10" s="3">
-        <v>894100</v>
+        <v>1211500</v>
       </c>
       <c r="H10" s="3">
-        <v>648200</v>
+        <v>885000</v>
       </c>
       <c r="I10" s="3">
-        <v>44800</v>
+        <v>641500</v>
       </c>
       <c r="J10" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K10" s="3">
         <v>14900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4600</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>162500</v>
+        <v>143000</v>
       </c>
       <c r="E12" s="3">
-        <v>167700</v>
+        <v>160900</v>
       </c>
       <c r="F12" s="3">
-        <v>157300</v>
+        <v>166000</v>
       </c>
       <c r="G12" s="3">
-        <v>109200</v>
+        <v>155700</v>
       </c>
       <c r="H12" s="3">
-        <v>49700</v>
+        <v>108100</v>
       </c>
       <c r="I12" s="3">
+        <v>49200</v>
+      </c>
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,33 +945,36 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>634100</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
+        <v>627600</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
-        <v>2300</v>
-      </c>
       <c r="G14" s="3">
-        <v>6200</v>
+        <v>2200</v>
       </c>
       <c r="H14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I14" s="3">
         <v>4300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,9 +987,12 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2439100</v>
+        <v>1576100</v>
       </c>
       <c r="E17" s="3">
-        <v>1795700</v>
+        <v>2414200</v>
       </c>
       <c r="F17" s="3">
-        <v>1935400</v>
+        <v>1777300</v>
       </c>
       <c r="G17" s="3">
-        <v>1462800</v>
+        <v>1915600</v>
       </c>
       <c r="H17" s="3">
-        <v>931000</v>
+        <v>1447800</v>
       </c>
       <c r="I17" s="3">
-        <v>59500</v>
+        <v>921400</v>
       </c>
       <c r="J17" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K17" s="3">
         <v>18400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-345800</v>
+        <v>229800</v>
       </c>
       <c r="E18" s="3">
-        <v>362100</v>
+        <v>-342200</v>
       </c>
       <c r="F18" s="3">
-        <v>508300</v>
+        <v>358400</v>
       </c>
       <c r="G18" s="3">
-        <v>462900</v>
+        <v>503100</v>
       </c>
       <c r="H18" s="3">
-        <v>345300</v>
+        <v>458200</v>
       </c>
       <c r="I18" s="3">
-        <v>19900</v>
+        <v>341800</v>
       </c>
       <c r="J18" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,106 +1149,113 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55500</v>
+        <v>70900</v>
       </c>
       <c r="E20" s="3">
-        <v>65600</v>
+        <v>54900</v>
       </c>
       <c r="F20" s="3">
-        <v>58500</v>
+        <v>64900</v>
       </c>
       <c r="G20" s="3">
-        <v>39200</v>
+        <v>57900</v>
       </c>
       <c r="H20" s="3">
-        <v>20900</v>
+        <v>38800</v>
       </c>
       <c r="I20" s="3">
+        <v>20700</v>
+      </c>
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-252200</v>
+        <v>316600</v>
       </c>
       <c r="E21" s="3">
-        <v>480300</v>
+        <v>-249500</v>
       </c>
       <c r="F21" s="3">
-        <v>618100</v>
+        <v>475600</v>
       </c>
       <c r="G21" s="3">
-        <v>536800</v>
+        <v>611900</v>
       </c>
       <c r="H21" s="3">
-        <v>378200</v>
+        <v>531400</v>
       </c>
       <c r="I21" s="3">
-        <v>22300</v>
+        <v>374400</v>
       </c>
       <c r="J21" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10600</v>
+        <v>11900</v>
       </c>
       <c r="E22" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="F22" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G22" s="3">
-        <v>8100</v>
+        <v>11200</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>8000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1230,75 +1269,81 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300900</v>
+        <v>288700</v>
       </c>
       <c r="E23" s="3">
-        <v>416300</v>
+        <v>-297800</v>
       </c>
       <c r="F23" s="3">
-        <v>555500</v>
+        <v>412000</v>
       </c>
       <c r="G23" s="3">
-        <v>494000</v>
+        <v>549800</v>
       </c>
       <c r="H23" s="3">
-        <v>366200</v>
+        <v>488900</v>
       </c>
       <c r="I23" s="3">
-        <v>21100</v>
+        <v>362400</v>
       </c>
       <c r="J23" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118100</v>
+        <v>79900</v>
       </c>
       <c r="E24" s="3">
-        <v>108500</v>
+        <v>116900</v>
       </c>
       <c r="F24" s="3">
-        <v>126900</v>
+        <v>107400</v>
       </c>
       <c r="G24" s="3">
-        <v>100500</v>
+        <v>125600</v>
       </c>
       <c r="H24" s="3">
-        <v>63900</v>
+        <v>99500</v>
       </c>
       <c r="I24" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1308,12 +1353,15 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-419000</v>
+        <v>208800</v>
       </c>
       <c r="E26" s="3">
-        <v>307800</v>
+        <v>-414700</v>
       </c>
       <c r="F26" s="3">
-        <v>428600</v>
+        <v>304600</v>
       </c>
       <c r="G26" s="3">
-        <v>393500</v>
+        <v>424200</v>
       </c>
       <c r="H26" s="3">
-        <v>302300</v>
+        <v>389500</v>
       </c>
       <c r="I26" s="3">
-        <v>20400</v>
+        <v>299200</v>
       </c>
       <c r="J26" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-418500</v>
+        <v>211000</v>
       </c>
       <c r="E27" s="3">
-        <v>302100</v>
+        <v>-414200</v>
       </c>
       <c r="F27" s="3">
-        <v>426700</v>
+        <v>299000</v>
       </c>
       <c r="G27" s="3">
-        <v>404400</v>
+        <v>422300</v>
       </c>
       <c r="H27" s="3">
-        <v>308500</v>
+        <v>400300</v>
       </c>
       <c r="I27" s="3">
-        <v>20400</v>
+        <v>305400</v>
       </c>
       <c r="J27" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55500</v>
+        <v>-70900</v>
       </c>
       <c r="E32" s="3">
-        <v>-65600</v>
+        <v>-54900</v>
       </c>
       <c r="F32" s="3">
-        <v>-58500</v>
+        <v>-64900</v>
       </c>
       <c r="G32" s="3">
-        <v>-39200</v>
+        <v>-57900</v>
       </c>
       <c r="H32" s="3">
-        <v>-20900</v>
+        <v>-38800</v>
       </c>
       <c r="I32" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-418500</v>
+        <v>211000</v>
       </c>
       <c r="E33" s="3">
-        <v>302100</v>
+        <v>-414200</v>
       </c>
       <c r="F33" s="3">
-        <v>426700</v>
+        <v>299000</v>
       </c>
       <c r="G33" s="3">
-        <v>404400</v>
+        <v>422300</v>
       </c>
       <c r="H33" s="3">
-        <v>308500</v>
+        <v>400300</v>
       </c>
       <c r="I33" s="3">
-        <v>20400</v>
+        <v>305400</v>
       </c>
       <c r="J33" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-418500</v>
+        <v>211000</v>
       </c>
       <c r="E35" s="3">
-        <v>302100</v>
+        <v>-414200</v>
       </c>
       <c r="F35" s="3">
-        <v>426700</v>
+        <v>299000</v>
       </c>
       <c r="G35" s="3">
-        <v>404400</v>
+        <v>422300</v>
       </c>
       <c r="H35" s="3">
-        <v>308500</v>
+        <v>400300</v>
       </c>
       <c r="I35" s="3">
-        <v>20400</v>
+        <v>305400</v>
       </c>
       <c r="J35" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,74 +1904,78 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800000</v>
+        <v>713300</v>
       </c>
       <c r="E41" s="3">
-        <v>483100</v>
+        <v>791900</v>
       </c>
       <c r="F41" s="3">
-        <v>375200</v>
+        <v>478200</v>
       </c>
       <c r="G41" s="3">
-        <v>354500</v>
+        <v>371400</v>
       </c>
       <c r="H41" s="3">
-        <v>640900</v>
+        <v>350800</v>
       </c>
       <c r="I41" s="3">
-        <v>37000</v>
+        <v>634300</v>
       </c>
       <c r="J41" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K41" s="3">
         <v>24300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>410800</v>
+        <v>796100</v>
       </c>
       <c r="E42" s="3">
-        <v>1086700</v>
+        <v>406500</v>
       </c>
       <c r="F42" s="3">
-        <v>1768300</v>
+        <v>1075500</v>
       </c>
       <c r="G42" s="3">
-        <v>1267400</v>
+        <v>1750200</v>
       </c>
       <c r="H42" s="3">
-        <v>350800</v>
+        <v>1254400</v>
       </c>
       <c r="I42" s="3">
-        <v>56600</v>
+        <v>347200</v>
       </c>
       <c r="J42" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K42" s="3">
         <v>43100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,48 +1985,54 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>115200</v>
+        <v>118900</v>
       </c>
       <c r="E43" s="3">
-        <v>86200</v>
+        <v>114000</v>
       </c>
       <c r="F43" s="3">
-        <v>75100</v>
+        <v>85300</v>
       </c>
       <c r="G43" s="3">
-        <v>125800</v>
+        <v>74300</v>
       </c>
       <c r="H43" s="3">
-        <v>58900</v>
+        <v>124500</v>
       </c>
       <c r="I43" s="3">
-        <v>6300</v>
+        <v>58200</v>
       </c>
       <c r="J43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,185 +2069,200 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25600</v>
+        <v>38300</v>
       </c>
       <c r="E45" s="3">
-        <v>31100</v>
+        <v>25400</v>
       </c>
       <c r="F45" s="3">
-        <v>49600</v>
+        <v>30800</v>
       </c>
       <c r="G45" s="3">
-        <v>66800</v>
+        <v>49100</v>
       </c>
       <c r="H45" s="3">
-        <v>65900</v>
+        <v>66100</v>
       </c>
       <c r="I45" s="3">
-        <v>3600</v>
+        <v>65300</v>
       </c>
       <c r="J45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1351600</v>
+        <v>1666600</v>
       </c>
       <c r="E46" s="3">
-        <v>1687100</v>
+        <v>1337800</v>
       </c>
       <c r="F46" s="3">
-        <v>2268300</v>
+        <v>1669800</v>
       </c>
       <c r="G46" s="3">
-        <v>1814400</v>
+        <v>2245100</v>
       </c>
       <c r="H46" s="3">
-        <v>1110800</v>
+        <v>1795800</v>
       </c>
       <c r="I46" s="3">
-        <v>103400</v>
+        <v>1099400</v>
       </c>
       <c r="J46" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K46" s="3">
         <v>72400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>117800</v>
+        <v>127100</v>
       </c>
       <c r="E47" s="3">
-        <v>65300</v>
+        <v>116600</v>
       </c>
       <c r="F47" s="3">
-        <v>71200</v>
+        <v>64700</v>
       </c>
       <c r="G47" s="3">
-        <v>64300</v>
+        <v>70500</v>
       </c>
       <c r="H47" s="3">
-        <v>41400</v>
+        <v>63600</v>
       </c>
       <c r="I47" s="3">
-        <v>4600</v>
+        <v>41000</v>
       </c>
       <c r="J47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>63000</v>
+        <v>41000</v>
       </c>
       <c r="E48" s="3">
-        <v>78100</v>
+        <v>62300</v>
       </c>
       <c r="F48" s="3">
-        <v>77100</v>
+        <v>77300</v>
       </c>
       <c r="G48" s="3">
-        <v>55700</v>
+        <v>76300</v>
       </c>
       <c r="H48" s="3">
-        <v>37200</v>
+        <v>55100</v>
       </c>
       <c r="I48" s="3">
+        <v>36800</v>
+      </c>
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3900</v>
       </c>
-      <c r="E49" s="3">
-        <v>685900</v>
-      </c>
       <c r="F49" s="3">
-        <v>754100</v>
+        <v>678900</v>
       </c>
       <c r="G49" s="3">
-        <v>767500</v>
+        <v>746400</v>
       </c>
       <c r="H49" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>759600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>10000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1064900</v>
+        <v>412300</v>
       </c>
       <c r="E52" s="3">
-        <v>818500</v>
+        <v>1054000</v>
       </c>
       <c r="F52" s="3">
-        <v>58300</v>
+        <v>810100</v>
       </c>
       <c r="G52" s="3">
-        <v>22000</v>
+        <v>57700</v>
       </c>
       <c r="H52" s="3">
-        <v>17100</v>
+        <v>21800</v>
       </c>
       <c r="I52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2601100</v>
+        <v>2250200</v>
       </c>
       <c r="E54" s="3">
-        <v>3334900</v>
+        <v>2574500</v>
       </c>
       <c r="F54" s="3">
-        <v>3229100</v>
+        <v>3300800</v>
       </c>
       <c r="G54" s="3">
-        <v>2723800</v>
+        <v>3196100</v>
       </c>
       <c r="H54" s="3">
-        <v>1216600</v>
+        <v>2696000</v>
       </c>
       <c r="I54" s="3">
-        <v>110500</v>
+        <v>1204200</v>
       </c>
       <c r="J54" s="3">
+        <v>109400</v>
+      </c>
+      <c r="K54" s="3">
         <v>77900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,70 +2528,74 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>104300</v>
+        <v>87700</v>
       </c>
       <c r="E57" s="3">
-        <v>100400</v>
+        <v>103200</v>
       </c>
       <c r="F57" s="3">
-        <v>102600</v>
+        <v>99400</v>
       </c>
       <c r="G57" s="3">
-        <v>103200</v>
+        <v>101500</v>
       </c>
       <c r="H57" s="3">
-        <v>69600</v>
+        <v>102100</v>
       </c>
       <c r="I57" s="3">
+        <v>68900</v>
+      </c>
+      <c r="J57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>376200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2476,104 +2609,113 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257000</v>
+        <v>209700</v>
       </c>
       <c r="E59" s="3">
-        <v>261000</v>
+        <v>254400</v>
       </c>
       <c r="F59" s="3">
-        <v>271800</v>
+        <v>258300</v>
       </c>
       <c r="G59" s="3">
-        <v>284100</v>
+        <v>269000</v>
       </c>
       <c r="H59" s="3">
-        <v>173400</v>
+        <v>281200</v>
       </c>
       <c r="I59" s="3">
-        <v>13400</v>
+        <v>171600</v>
       </c>
       <c r="J59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K59" s="3">
         <v>8800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>361300</v>
+        <v>673500</v>
       </c>
       <c r="E60" s="3">
-        <v>361500</v>
+        <v>357600</v>
       </c>
       <c r="F60" s="3">
-        <v>374400</v>
+        <v>357800</v>
       </c>
       <c r="G60" s="3">
-        <v>387200</v>
+        <v>370600</v>
       </c>
       <c r="H60" s="3">
-        <v>243000</v>
+        <v>383300</v>
       </c>
       <c r="I60" s="3">
-        <v>19200</v>
+        <v>240500</v>
       </c>
       <c r="J60" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>655700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>669100</v>
+        <v>649000</v>
       </c>
       <c r="F61" s="3">
-        <v>711500</v>
+        <v>662300</v>
       </c>
       <c r="G61" s="3">
-        <v>700500</v>
+        <v>704300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>693300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2593,35 +2735,38 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63900</v>
+        <v>22800</v>
       </c>
       <c r="E62" s="3">
-        <v>173700</v>
+        <v>63200</v>
       </c>
       <c r="F62" s="3">
-        <v>172900</v>
+        <v>171900</v>
       </c>
       <c r="G62" s="3">
-        <v>53000</v>
+        <v>171100</v>
       </c>
       <c r="H62" s="3">
+        <v>52500</v>
+      </c>
+      <c r="I62" s="3">
         <v>3900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>300</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100800</v>
+        <v>718200</v>
       </c>
       <c r="E66" s="3">
-        <v>1232500</v>
+        <v>1089500</v>
       </c>
       <c r="F66" s="3">
-        <v>1285900</v>
+        <v>1219900</v>
       </c>
       <c r="G66" s="3">
-        <v>1154000</v>
+        <v>1272800</v>
       </c>
       <c r="H66" s="3">
-        <v>249600</v>
+        <v>1142200</v>
       </c>
       <c r="I66" s="3">
-        <v>19500</v>
+        <v>247000</v>
       </c>
       <c r="J66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K66" s="3">
         <v>10600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2914,17 +3081,20 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>12200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>671800</v>
+        <v>756400</v>
       </c>
       <c r="E72" s="3">
-        <v>1212700</v>
+        <v>664900</v>
       </c>
       <c r="F72" s="3">
-        <v>1072100</v>
+        <v>1200300</v>
       </c>
       <c r="G72" s="3">
-        <v>770000</v>
+        <v>1061100</v>
       </c>
       <c r="H72" s="3">
-        <v>365600</v>
+        <v>762100</v>
       </c>
       <c r="I72" s="3">
+        <v>361800</v>
+      </c>
+      <c r="J72" s="3">
         <v>7300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1500300</v>
+        <v>1532000</v>
       </c>
       <c r="E76" s="3">
-        <v>2102500</v>
+        <v>1485000</v>
       </c>
       <c r="F76" s="3">
-        <v>1943200</v>
+        <v>2080900</v>
       </c>
       <c r="G76" s="3">
-        <v>1569800</v>
+        <v>1923300</v>
       </c>
       <c r="H76" s="3">
-        <v>967100</v>
+        <v>1553800</v>
       </c>
       <c r="I76" s="3">
-        <v>91100</v>
+        <v>957200</v>
       </c>
       <c r="J76" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K76" s="3">
         <v>67300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-418500</v>
+        <v>211000</v>
       </c>
       <c r="E81" s="3">
-        <v>302100</v>
+        <v>-414200</v>
       </c>
       <c r="F81" s="3">
-        <v>426700</v>
+        <v>299000</v>
       </c>
       <c r="G81" s="3">
-        <v>404400</v>
+        <v>422300</v>
       </c>
       <c r="H81" s="3">
-        <v>308500</v>
+        <v>400300</v>
       </c>
       <c r="I81" s="3">
-        <v>20400</v>
+        <v>305400</v>
       </c>
       <c r="J81" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38000</v>
+        <v>15900</v>
       </c>
       <c r="E83" s="3">
-        <v>52600</v>
+        <v>37600</v>
       </c>
       <c r="F83" s="3">
-        <v>51200</v>
+        <v>52100</v>
       </c>
       <c r="G83" s="3">
-        <v>34700</v>
+        <v>50600</v>
       </c>
       <c r="H83" s="3">
-        <v>12000</v>
+        <v>34300</v>
       </c>
       <c r="I83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>223900</v>
+        <v>174400</v>
       </c>
       <c r="E89" s="3">
-        <v>442500</v>
+        <v>221600</v>
       </c>
       <c r="F89" s="3">
-        <v>782600</v>
+        <v>437900</v>
       </c>
       <c r="G89" s="3">
-        <v>477900</v>
+        <v>774600</v>
       </c>
       <c r="H89" s="3">
-        <v>414500</v>
+        <v>473000</v>
       </c>
       <c r="I89" s="3">
-        <v>31400</v>
+        <v>410300</v>
       </c>
       <c r="J89" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K89" s="3">
         <v>8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13700</v>
+        <v>-11400</v>
       </c>
       <c r="E91" s="3">
-        <v>-17800</v>
+        <v>-13600</v>
       </c>
       <c r="F91" s="3">
-        <v>-26800</v>
+        <v>-17600</v>
       </c>
       <c r="G91" s="3">
-        <v>-34900</v>
+        <v>-26500</v>
       </c>
       <c r="H91" s="3">
-        <v>-31400</v>
+        <v>-34500</v>
       </c>
       <c r="I91" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>366300</v>
+        <v>243900</v>
       </c>
       <c r="E94" s="3">
-        <v>-107500</v>
+        <v>362500</v>
       </c>
       <c r="F94" s="3">
-        <v>-578800</v>
+        <v>-106400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1441100</v>
+        <v>-572900</v>
       </c>
       <c r="H94" s="3">
-        <v>-27000</v>
+        <v>-1426300</v>
       </c>
       <c r="I94" s="3">
-        <v>-17000</v>
+        <v>-26700</v>
       </c>
       <c r="J94" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-47900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,22 +3991,23 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-122500</v>
+        <v>-119500</v>
       </c>
       <c r="E96" s="3">
-        <v>-161400</v>
+        <v>-121200</v>
       </c>
       <c r="F96" s="3">
-        <v>-126000</v>
+        <v>-159800</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-124700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-256600</v>
+        <v>-487900</v>
       </c>
       <c r="E100" s="3">
-        <v>-215200</v>
+        <v>-254000</v>
       </c>
       <c r="F100" s="3">
-        <v>-182900</v>
+        <v>-213000</v>
       </c>
       <c r="G100" s="3">
-        <v>673300</v>
+        <v>-181100</v>
       </c>
       <c r="H100" s="3">
+        <v>666400</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>65000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6000</v>
+        <v>5900</v>
       </c>
       <c r="E101" s="3">
-        <v>-11600</v>
+        <v>-5900</v>
       </c>
       <c r="F101" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>3500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-3900</v>
+        <v>3400</v>
       </c>
       <c r="I101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>327600</v>
+        <v>-63700</v>
       </c>
       <c r="E102" s="3">
-        <v>108200</v>
+        <v>324200</v>
       </c>
       <c r="F102" s="3">
-        <v>20800</v>
+        <v>107100</v>
       </c>
       <c r="G102" s="3">
-        <v>-286400</v>
+        <v>20600</v>
       </c>
       <c r="H102" s="3">
-        <v>384000</v>
+        <v>-283500</v>
       </c>
       <c r="I102" s="3">
-        <v>12700</v>
+        <v>380100</v>
       </c>
       <c r="J102" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-40400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1805900</v>
+        <v>1750400</v>
       </c>
       <c r="E8" s="3">
-        <v>2071900</v>
+        <v>2008200</v>
       </c>
       <c r="F8" s="3">
-        <v>2135700</v>
+        <v>2070000</v>
       </c>
       <c r="G8" s="3">
-        <v>2418700</v>
+        <v>2344300</v>
       </c>
       <c r="H8" s="3">
-        <v>1906000</v>
+        <v>1847400</v>
       </c>
       <c r="I8" s="3">
-        <v>1263200</v>
+        <v>1224400</v>
       </c>
       <c r="J8" s="3">
-        <v>78600</v>
+        <v>76200</v>
       </c>
       <c r="K8" s="3">
         <v>19200</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1055000</v>
+        <v>1022500</v>
       </c>
       <c r="E9" s="3">
-        <v>1191700</v>
+        <v>1155100</v>
       </c>
       <c r="F9" s="3">
-        <v>1133900</v>
+        <v>1099000</v>
       </c>
       <c r="G9" s="3">
-        <v>1207200</v>
+        <v>1170000</v>
       </c>
       <c r="H9" s="3">
-        <v>1021000</v>
+        <v>989700</v>
       </c>
       <c r="I9" s="3">
-        <v>621700</v>
+        <v>602600</v>
       </c>
       <c r="J9" s="3">
-        <v>34300</v>
+        <v>33300</v>
       </c>
       <c r="K9" s="3">
         <v>4400</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>750900</v>
+        <v>727900</v>
       </c>
       <c r="E10" s="3">
-        <v>880200</v>
+        <v>853200</v>
       </c>
       <c r="F10" s="3">
-        <v>1001800</v>
+        <v>971000</v>
       </c>
       <c r="G10" s="3">
-        <v>1211500</v>
+        <v>1174300</v>
       </c>
       <c r="H10" s="3">
-        <v>885000</v>
+        <v>857800</v>
       </c>
       <c r="I10" s="3">
-        <v>641500</v>
+        <v>621800</v>
       </c>
       <c r="J10" s="3">
-        <v>44300</v>
+        <v>42900</v>
       </c>
       <c r="K10" s="3">
         <v>14900</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>143000</v>
+        <v>138600</v>
       </c>
       <c r="E12" s="3">
+        <v>155900</v>
+      </c>
+      <c r="F12" s="3">
         <v>160900</v>
       </c>
-      <c r="F12" s="3">
-        <v>166000</v>
-      </c>
       <c r="G12" s="3">
-        <v>155700</v>
+        <v>150900</v>
       </c>
       <c r="H12" s="3">
-        <v>108100</v>
+        <v>104800</v>
       </c>
       <c r="I12" s="3">
-        <v>49200</v>
+        <v>47700</v>
       </c>
       <c r="J12" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="K12" s="3">
         <v>3300</v>
@@ -958,19 +958,19 @@
         <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>627600</v>
+        <v>608300</v>
       </c>
       <c r="F14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G14" s="3">
         <v>2200</v>
       </c>
       <c r="H14" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="I14" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J14" s="3">
         <v>800</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1576100</v>
+        <v>1527700</v>
       </c>
       <c r="E17" s="3">
-        <v>2414200</v>
+        <v>2340000</v>
       </c>
       <c r="F17" s="3">
-        <v>1777300</v>
+        <v>1722700</v>
       </c>
       <c r="G17" s="3">
-        <v>1915600</v>
+        <v>1856700</v>
       </c>
       <c r="H17" s="3">
-        <v>1447800</v>
+        <v>1403300</v>
       </c>
       <c r="I17" s="3">
-        <v>921400</v>
+        <v>893100</v>
       </c>
       <c r="J17" s="3">
-        <v>58900</v>
+        <v>57100</v>
       </c>
       <c r="K17" s="3">
         <v>18400</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>229800</v>
+        <v>222700</v>
       </c>
       <c r="E18" s="3">
-        <v>-342200</v>
+        <v>-331700</v>
       </c>
       <c r="F18" s="3">
-        <v>358400</v>
+        <v>347300</v>
       </c>
       <c r="G18" s="3">
-        <v>503100</v>
+        <v>487600</v>
       </c>
       <c r="H18" s="3">
-        <v>458200</v>
+        <v>444100</v>
       </c>
       <c r="I18" s="3">
-        <v>341800</v>
+        <v>331200</v>
       </c>
       <c r="J18" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="K18" s="3">
         <v>800</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>70900</v>
+        <v>68700</v>
       </c>
       <c r="E20" s="3">
-        <v>54900</v>
+        <v>53200</v>
       </c>
       <c r="F20" s="3">
-        <v>64900</v>
+        <v>62900</v>
       </c>
       <c r="G20" s="3">
-        <v>57900</v>
+        <v>56200</v>
       </c>
       <c r="H20" s="3">
-        <v>38800</v>
+        <v>37600</v>
       </c>
       <c r="I20" s="3">
-        <v>20700</v>
+        <v>20100</v>
       </c>
       <c r="J20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K20" s="3">
         <v>1100</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>316600</v>
+        <v>306800</v>
       </c>
       <c r="E21" s="3">
-        <v>-249500</v>
+        <v>-242000</v>
       </c>
       <c r="F21" s="3">
-        <v>475600</v>
+        <v>460700</v>
       </c>
       <c r="G21" s="3">
-        <v>611900</v>
+        <v>592800</v>
       </c>
       <c r="H21" s="3">
-        <v>531400</v>
+        <v>514900</v>
       </c>
       <c r="I21" s="3">
-        <v>374400</v>
+        <v>362800</v>
       </c>
       <c r="J21" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="K21" s="3">
         <v>2900</v>
@@ -1240,19 +1240,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="E22" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="F22" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="G22" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="H22" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>288700</v>
+        <v>279900</v>
       </c>
       <c r="E23" s="3">
-        <v>-297800</v>
+        <v>-288700</v>
       </c>
       <c r="F23" s="3">
-        <v>412000</v>
+        <v>399400</v>
       </c>
       <c r="G23" s="3">
-        <v>549800</v>
+        <v>532900</v>
       </c>
       <c r="H23" s="3">
-        <v>488900</v>
+        <v>473900</v>
       </c>
       <c r="I23" s="3">
-        <v>362400</v>
+        <v>351300</v>
       </c>
       <c r="J23" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="K23" s="3">
         <v>1900</v>
@@ -1324,22 +1324,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79900</v>
+        <v>77500</v>
       </c>
       <c r="E24" s="3">
-        <v>116900</v>
+        <v>113300</v>
       </c>
       <c r="F24" s="3">
-        <v>107400</v>
+        <v>104100</v>
       </c>
       <c r="G24" s="3">
-        <v>125600</v>
+        <v>121800</v>
       </c>
       <c r="H24" s="3">
-        <v>99500</v>
+        <v>96400</v>
       </c>
       <c r="I24" s="3">
-        <v>63300</v>
+        <v>61300</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>208800</v>
+        <v>202400</v>
       </c>
       <c r="E26" s="3">
-        <v>-414700</v>
+        <v>-402000</v>
       </c>
       <c r="F26" s="3">
-        <v>304600</v>
+        <v>295300</v>
       </c>
       <c r="G26" s="3">
-        <v>424200</v>
+        <v>411200</v>
       </c>
       <c r="H26" s="3">
-        <v>389500</v>
+        <v>377500</v>
       </c>
       <c r="I26" s="3">
-        <v>299200</v>
+        <v>290000</v>
       </c>
       <c r="J26" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="K26" s="3">
         <v>1900</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>211000</v>
+        <v>204500</v>
       </c>
       <c r="E27" s="3">
-        <v>-414200</v>
+        <v>-401500</v>
       </c>
       <c r="F27" s="3">
-        <v>299000</v>
+        <v>289800</v>
       </c>
       <c r="G27" s="3">
-        <v>422300</v>
+        <v>409300</v>
       </c>
       <c r="H27" s="3">
-        <v>400300</v>
+        <v>388000</v>
       </c>
       <c r="I27" s="3">
-        <v>305400</v>
+        <v>296000</v>
       </c>
       <c r="J27" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="K27" s="3">
         <v>1800</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-70900</v>
+        <v>-68700</v>
       </c>
       <c r="E32" s="3">
-        <v>-54900</v>
+        <v>-53200</v>
       </c>
       <c r="F32" s="3">
-        <v>-64900</v>
+        <v>-62900</v>
       </c>
       <c r="G32" s="3">
-        <v>-57900</v>
+        <v>-56200</v>
       </c>
       <c r="H32" s="3">
-        <v>-38800</v>
+        <v>-37600</v>
       </c>
       <c r="I32" s="3">
-        <v>-20700</v>
+        <v>-20100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K32" s="3">
         <v>-1100</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>211000</v>
+        <v>204500</v>
       </c>
       <c r="E33" s="3">
-        <v>-414200</v>
+        <v>-401500</v>
       </c>
       <c r="F33" s="3">
-        <v>299000</v>
+        <v>289800</v>
       </c>
       <c r="G33" s="3">
-        <v>422300</v>
+        <v>409300</v>
       </c>
       <c r="H33" s="3">
-        <v>400300</v>
+        <v>388000</v>
       </c>
       <c r="I33" s="3">
-        <v>305400</v>
+        <v>296000</v>
       </c>
       <c r="J33" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="K33" s="3">
         <v>1800</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>211000</v>
+        <v>204500</v>
       </c>
       <c r="E35" s="3">
-        <v>-414200</v>
+        <v>-401500</v>
       </c>
       <c r="F35" s="3">
-        <v>299000</v>
+        <v>289800</v>
       </c>
       <c r="G35" s="3">
-        <v>422300</v>
+        <v>409300</v>
       </c>
       <c r="H35" s="3">
-        <v>400300</v>
+        <v>388000</v>
       </c>
       <c r="I35" s="3">
-        <v>305400</v>
+        <v>296000</v>
       </c>
       <c r="J35" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="K35" s="3">
         <v>1800</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>713300</v>
+        <v>691400</v>
       </c>
       <c r="E41" s="3">
-        <v>791900</v>
+        <v>767500</v>
       </c>
       <c r="F41" s="3">
-        <v>478200</v>
+        <v>463500</v>
       </c>
       <c r="G41" s="3">
-        <v>371400</v>
+        <v>360000</v>
       </c>
       <c r="H41" s="3">
-        <v>350800</v>
+        <v>340000</v>
       </c>
       <c r="I41" s="3">
-        <v>634300</v>
+        <v>614800</v>
       </c>
       <c r="J41" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="K41" s="3">
         <v>24300</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>796100</v>
+        <v>771600</v>
       </c>
       <c r="E42" s="3">
-        <v>406500</v>
+        <v>394100</v>
       </c>
       <c r="F42" s="3">
-        <v>1075500</v>
+        <v>1042500</v>
       </c>
       <c r="G42" s="3">
-        <v>1750200</v>
+        <v>1696400</v>
       </c>
       <c r="H42" s="3">
-        <v>1254400</v>
+        <v>1215900</v>
       </c>
       <c r="I42" s="3">
-        <v>347200</v>
+        <v>336500</v>
       </c>
       <c r="J42" s="3">
-        <v>56000</v>
+        <v>54300</v>
       </c>
       <c r="K42" s="3">
         <v>43100</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>118900</v>
+        <v>115300</v>
       </c>
       <c r="E43" s="3">
-        <v>114000</v>
+        <v>110500</v>
       </c>
       <c r="F43" s="3">
-        <v>85300</v>
+        <v>82700</v>
       </c>
       <c r="G43" s="3">
-        <v>74300</v>
+        <v>72000</v>
       </c>
       <c r="H43" s="3">
-        <v>124500</v>
+        <v>120700</v>
       </c>
       <c r="I43" s="3">
-        <v>58200</v>
+        <v>56500</v>
       </c>
       <c r="J43" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="K43" s="3">
         <v>3600</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38300</v>
+        <v>37100</v>
       </c>
       <c r="E45" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="F45" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="G45" s="3">
-        <v>49100</v>
+        <v>47600</v>
       </c>
       <c r="H45" s="3">
-        <v>66100</v>
+        <v>64000</v>
       </c>
       <c r="I45" s="3">
-        <v>65300</v>
+        <v>63300</v>
       </c>
       <c r="J45" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1666600</v>
+        <v>1615400</v>
       </c>
       <c r="E46" s="3">
-        <v>1337800</v>
+        <v>1296600</v>
       </c>
       <c r="F46" s="3">
-        <v>1669800</v>
+        <v>1618500</v>
       </c>
       <c r="G46" s="3">
-        <v>2245100</v>
+        <v>2176100</v>
       </c>
       <c r="H46" s="3">
-        <v>1795800</v>
+        <v>1740600</v>
       </c>
       <c r="I46" s="3">
-        <v>1099400</v>
+        <v>1065600</v>
       </c>
       <c r="J46" s="3">
-        <v>102400</v>
+        <v>99200</v>
       </c>
       <c r="K46" s="3">
         <v>72400</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>127100</v>
+        <v>123200</v>
       </c>
       <c r="E47" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="F47" s="3">
-        <v>64700</v>
+        <v>62700</v>
       </c>
       <c r="G47" s="3">
-        <v>70500</v>
+        <v>68300</v>
       </c>
       <c r="H47" s="3">
-        <v>63600</v>
+        <v>61700</v>
       </c>
       <c r="I47" s="3">
-        <v>41000</v>
+        <v>39700</v>
       </c>
       <c r="J47" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K47" s="3">
         <v>2800</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="E48" s="3">
-        <v>62300</v>
+        <v>60400</v>
       </c>
       <c r="F48" s="3">
-        <v>77300</v>
+        <v>74900</v>
       </c>
       <c r="G48" s="3">
-        <v>76300</v>
+        <v>74000</v>
       </c>
       <c r="H48" s="3">
-        <v>55100</v>
+        <v>53400</v>
       </c>
       <c r="I48" s="3">
-        <v>36800</v>
+        <v>35600</v>
       </c>
       <c r="J48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K48" s="3">
         <v>2300</v>
@@ -2247,22 +2247,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F49" s="3">
-        <v>678900</v>
+        <v>658000</v>
       </c>
       <c r="G49" s="3">
-        <v>746400</v>
+        <v>723500</v>
       </c>
       <c r="H49" s="3">
-        <v>759600</v>
+        <v>736300</v>
       </c>
       <c r="I49" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2373,22 +2373,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>412300</v>
+        <v>399600</v>
       </c>
       <c r="E52" s="3">
-        <v>1054000</v>
+        <v>1021600</v>
       </c>
       <c r="F52" s="3">
-        <v>810100</v>
+        <v>785200</v>
       </c>
       <c r="G52" s="3">
-        <v>57700</v>
+        <v>56000</v>
       </c>
       <c r="H52" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="I52" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2250200</v>
+        <v>2181000</v>
       </c>
       <c r="E54" s="3">
-        <v>2574500</v>
+        <v>2495400</v>
       </c>
       <c r="F54" s="3">
-        <v>3300800</v>
+        <v>3199300</v>
       </c>
       <c r="G54" s="3">
-        <v>3196100</v>
+        <v>3097800</v>
       </c>
       <c r="H54" s="3">
-        <v>2696000</v>
+        <v>2613100</v>
       </c>
       <c r="I54" s="3">
-        <v>1204200</v>
+        <v>1167200</v>
       </c>
       <c r="J54" s="3">
-        <v>109400</v>
+        <v>106100</v>
       </c>
       <c r="K54" s="3">
         <v>77900</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87700</v>
+        <v>85000</v>
       </c>
       <c r="E57" s="3">
-        <v>103200</v>
+        <v>100100</v>
       </c>
       <c r="F57" s="3">
-        <v>99400</v>
+        <v>96400</v>
       </c>
       <c r="G57" s="3">
-        <v>101500</v>
+        <v>98400</v>
       </c>
       <c r="H57" s="3">
-        <v>102100</v>
+        <v>99000</v>
       </c>
       <c r="I57" s="3">
-        <v>68900</v>
+        <v>66800</v>
       </c>
       <c r="J57" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K57" s="3">
         <v>1500</v>
@@ -2577,7 +2577,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>376200</v>
+        <v>364600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209700</v>
+        <v>203200</v>
       </c>
       <c r="E59" s="3">
-        <v>254400</v>
+        <v>246600</v>
       </c>
       <c r="F59" s="3">
-        <v>258300</v>
+        <v>250400</v>
       </c>
       <c r="G59" s="3">
-        <v>269000</v>
+        <v>260700</v>
       </c>
       <c r="H59" s="3">
-        <v>281200</v>
+        <v>272500</v>
       </c>
       <c r="I59" s="3">
-        <v>171600</v>
+        <v>166300</v>
       </c>
       <c r="J59" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="K59" s="3">
         <v>8800</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>673500</v>
+        <v>652800</v>
       </c>
       <c r="E60" s="3">
-        <v>357600</v>
+        <v>346600</v>
       </c>
       <c r="F60" s="3">
-        <v>357800</v>
+        <v>346800</v>
       </c>
       <c r="G60" s="3">
-        <v>370600</v>
+        <v>359200</v>
       </c>
       <c r="H60" s="3">
-        <v>383300</v>
+        <v>371500</v>
       </c>
       <c r="I60" s="3">
-        <v>240500</v>
+        <v>233100</v>
       </c>
       <c r="J60" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="K60" s="3">
         <v>10300</v>
@@ -2706,16 +2706,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>649000</v>
+        <v>629000</v>
       </c>
       <c r="F61" s="3">
-        <v>662300</v>
+        <v>641900</v>
       </c>
       <c r="G61" s="3">
-        <v>704300</v>
+        <v>682600</v>
       </c>
       <c r="H61" s="3">
-        <v>693300</v>
+        <v>672000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2745,22 +2745,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="E62" s="3">
-        <v>63200</v>
+        <v>61300</v>
       </c>
       <c r="F62" s="3">
-        <v>171900</v>
+        <v>166600</v>
       </c>
       <c r="G62" s="3">
-        <v>171100</v>
+        <v>165900</v>
       </c>
       <c r="H62" s="3">
-        <v>52500</v>
+        <v>50900</v>
       </c>
       <c r="I62" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>718200</v>
+        <v>696100</v>
       </c>
       <c r="E66" s="3">
-        <v>1089500</v>
+        <v>1056000</v>
       </c>
       <c r="F66" s="3">
-        <v>1219900</v>
+        <v>1182400</v>
       </c>
       <c r="G66" s="3">
-        <v>1272800</v>
+        <v>1233600</v>
       </c>
       <c r="H66" s="3">
-        <v>1142200</v>
+        <v>1107100</v>
       </c>
       <c r="I66" s="3">
-        <v>247000</v>
+        <v>239400</v>
       </c>
       <c r="J66" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="K66" s="3">
         <v>10600</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>756400</v>
+        <v>733100</v>
       </c>
       <c r="E72" s="3">
-        <v>664900</v>
+        <v>644500</v>
       </c>
       <c r="F72" s="3">
-        <v>1200300</v>
+        <v>1163400</v>
       </c>
       <c r="G72" s="3">
-        <v>1061100</v>
+        <v>1028500</v>
       </c>
       <c r="H72" s="3">
-        <v>762100</v>
+        <v>738700</v>
       </c>
       <c r="I72" s="3">
-        <v>361800</v>
+        <v>350700</v>
       </c>
       <c r="J72" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K72" s="3">
         <v>-13500</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1532000</v>
+        <v>1484900</v>
       </c>
       <c r="E76" s="3">
-        <v>1485000</v>
+        <v>1439300</v>
       </c>
       <c r="F76" s="3">
-        <v>2080900</v>
+        <v>2017000</v>
       </c>
       <c r="G76" s="3">
-        <v>1923300</v>
+        <v>1864200</v>
       </c>
       <c r="H76" s="3">
-        <v>1553800</v>
+        <v>1506000</v>
       </c>
       <c r="I76" s="3">
-        <v>957200</v>
+        <v>927800</v>
       </c>
       <c r="J76" s="3">
-        <v>90100</v>
+        <v>87400</v>
       </c>
       <c r="K76" s="3">
         <v>67300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>211000</v>
+        <v>204500</v>
       </c>
       <c r="E81" s="3">
-        <v>-414200</v>
+        <v>-401500</v>
       </c>
       <c r="F81" s="3">
-        <v>299000</v>
+        <v>289800</v>
       </c>
       <c r="G81" s="3">
-        <v>422300</v>
+        <v>409300</v>
       </c>
       <c r="H81" s="3">
-        <v>400300</v>
+        <v>388000</v>
       </c>
       <c r="I81" s="3">
-        <v>305400</v>
+        <v>296000</v>
       </c>
       <c r="J81" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="K81" s="3">
         <v>1800</v>
@@ -3500,22 +3500,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="E83" s="3">
-        <v>37600</v>
+        <v>36500</v>
       </c>
       <c r="F83" s="3">
-        <v>52100</v>
+        <v>50500</v>
       </c>
       <c r="G83" s="3">
-        <v>50600</v>
+        <v>49100</v>
       </c>
       <c r="H83" s="3">
-        <v>34300</v>
+        <v>33200</v>
       </c>
       <c r="I83" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>174400</v>
+        <v>169000</v>
       </c>
       <c r="E89" s="3">
-        <v>221600</v>
+        <v>214800</v>
       </c>
       <c r="F89" s="3">
-        <v>437900</v>
+        <v>424500</v>
       </c>
       <c r="G89" s="3">
-        <v>774600</v>
+        <v>750700</v>
       </c>
       <c r="H89" s="3">
-        <v>473000</v>
+        <v>458500</v>
       </c>
       <c r="I89" s="3">
-        <v>410300</v>
+        <v>397600</v>
       </c>
       <c r="J89" s="3">
-        <v>31000</v>
+        <v>30100</v>
       </c>
       <c r="K89" s="3">
         <v>8200</v>
@@ -3812,22 +3812,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11400</v>
+        <v>-11100</v>
       </c>
       <c r="E91" s="3">
-        <v>-13600</v>
+        <v>-13100</v>
       </c>
       <c r="F91" s="3">
-        <v>-17600</v>
+        <v>-17100</v>
       </c>
       <c r="G91" s="3">
-        <v>-26500</v>
+        <v>-25700</v>
       </c>
       <c r="H91" s="3">
-        <v>-34500</v>
+        <v>-33500</v>
       </c>
       <c r="I91" s="3">
-        <v>-31100</v>
+        <v>-30100</v>
       </c>
       <c r="J91" s="3">
         <v>-1000</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>243900</v>
+        <v>236400</v>
       </c>
       <c r="E94" s="3">
-        <v>362500</v>
+        <v>351400</v>
       </c>
       <c r="F94" s="3">
-        <v>-106400</v>
+        <v>-103100</v>
       </c>
       <c r="G94" s="3">
-        <v>-572900</v>
+        <v>-555200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1426300</v>
+        <v>-1382500</v>
       </c>
       <c r="I94" s="3">
-        <v>-26700</v>
+        <v>-25900</v>
       </c>
       <c r="J94" s="3">
-        <v>-16800</v>
+        <v>-16300</v>
       </c>
       <c r="K94" s="3">
         <v>-47900</v>
@@ -3998,16 +3998,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-119500</v>
+        <v>-115900</v>
       </c>
       <c r="E96" s="3">
-        <v>-121200</v>
+        <v>-117500</v>
       </c>
       <c r="F96" s="3">
-        <v>-159800</v>
+        <v>-154900</v>
       </c>
       <c r="G96" s="3">
-        <v>-124700</v>
+        <v>-120900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4166,19 +4166,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-487900</v>
+        <v>-472900</v>
       </c>
       <c r="E100" s="3">
-        <v>-254000</v>
+        <v>-246200</v>
       </c>
       <c r="F100" s="3">
-        <v>-213000</v>
+        <v>-206400</v>
       </c>
       <c r="G100" s="3">
-        <v>-181100</v>
+        <v>-175500</v>
       </c>
       <c r="H100" s="3">
-        <v>666400</v>
+        <v>645900</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E101" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="F101" s="3">
-        <v>-11500</v>
+        <v>-11200</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I101" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="J101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-63700</v>
+        <v>-61800</v>
       </c>
       <c r="E102" s="3">
-        <v>324200</v>
+        <v>314300</v>
       </c>
       <c r="F102" s="3">
-        <v>107100</v>
+        <v>103800</v>
       </c>
       <c r="G102" s="3">
-        <v>20600</v>
+        <v>19900</v>
       </c>
       <c r="H102" s="3">
-        <v>-283500</v>
+        <v>-274800</v>
       </c>
       <c r="I102" s="3">
-        <v>380100</v>
+        <v>368400</v>
       </c>
       <c r="J102" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="K102" s="3">
         <v>-40400</v>

--- a/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MOMO_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1750400</v>
+        <v>1754200</v>
       </c>
       <c r="E8" s="3">
-        <v>2008200</v>
+        <v>2012600</v>
       </c>
       <c r="F8" s="3">
-        <v>2070000</v>
+        <v>2074500</v>
       </c>
       <c r="G8" s="3">
-        <v>2344300</v>
+        <v>2349400</v>
       </c>
       <c r="H8" s="3">
-        <v>1847400</v>
+        <v>1851400</v>
       </c>
       <c r="I8" s="3">
-        <v>1224400</v>
+        <v>1227000</v>
       </c>
       <c r="J8" s="3">
-        <v>76200</v>
+        <v>76400</v>
       </c>
       <c r="K8" s="3">
         <v>19200</v>
@@ -769,22 +769,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1022500</v>
+        <v>1024700</v>
       </c>
       <c r="E9" s="3">
-        <v>1155100</v>
+        <v>1157600</v>
       </c>
       <c r="F9" s="3">
-        <v>1099000</v>
+        <v>1101400</v>
       </c>
       <c r="G9" s="3">
-        <v>1170000</v>
+        <v>1172600</v>
       </c>
       <c r="H9" s="3">
-        <v>989700</v>
+        <v>991800</v>
       </c>
       <c r="I9" s="3">
-        <v>602600</v>
+        <v>603900</v>
       </c>
       <c r="J9" s="3">
         <v>33300</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>727900</v>
+        <v>729400</v>
       </c>
       <c r="E10" s="3">
-        <v>853200</v>
+        <v>855000</v>
       </c>
       <c r="F10" s="3">
-        <v>971000</v>
+        <v>973100</v>
       </c>
       <c r="G10" s="3">
-        <v>1174300</v>
+        <v>1176900</v>
       </c>
       <c r="H10" s="3">
-        <v>857800</v>
+        <v>859600</v>
       </c>
       <c r="I10" s="3">
-        <v>621800</v>
+        <v>623200</v>
       </c>
       <c r="J10" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="K10" s="3">
         <v>14900</v>
@@ -871,22 +871,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>138600</v>
+        <v>138900</v>
       </c>
       <c r="E12" s="3">
-        <v>155900</v>
+        <v>156300</v>
       </c>
       <c r="F12" s="3">
-        <v>160900</v>
+        <v>161200</v>
       </c>
       <c r="G12" s="3">
-        <v>150900</v>
+        <v>151200</v>
       </c>
       <c r="H12" s="3">
-        <v>104800</v>
+        <v>105000</v>
       </c>
       <c r="I12" s="3">
-        <v>47700</v>
+        <v>47800</v>
       </c>
       <c r="J12" s="3">
         <v>4300</v>
@@ -958,7 +958,7 @@
         <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>608300</v>
+        <v>609600</v>
       </c>
       <c r="F14" s="3">
         <v>1400</v>
@@ -970,7 +970,7 @@
         <v>6000</v>
       </c>
       <c r="I14" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J14" s="3">
         <v>800</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1527700</v>
+        <v>1531000</v>
       </c>
       <c r="E17" s="3">
-        <v>2340000</v>
+        <v>2345100</v>
       </c>
       <c r="F17" s="3">
-        <v>1722700</v>
+        <v>1726400</v>
       </c>
       <c r="G17" s="3">
-        <v>1856700</v>
+        <v>1860800</v>
       </c>
       <c r="H17" s="3">
-        <v>1403300</v>
+        <v>1406400</v>
       </c>
       <c r="I17" s="3">
-        <v>893100</v>
+        <v>895100</v>
       </c>
       <c r="J17" s="3">
-        <v>57100</v>
+        <v>57200</v>
       </c>
       <c r="K17" s="3">
         <v>18400</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>222700</v>
+        <v>223200</v>
       </c>
       <c r="E18" s="3">
-        <v>-331700</v>
+        <v>-332400</v>
       </c>
       <c r="F18" s="3">
-        <v>347300</v>
+        <v>348100</v>
       </c>
       <c r="G18" s="3">
-        <v>487600</v>
+        <v>488700</v>
       </c>
       <c r="H18" s="3">
-        <v>444100</v>
+        <v>445000</v>
       </c>
       <c r="I18" s="3">
-        <v>331200</v>
+        <v>332000</v>
       </c>
       <c r="J18" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="K18" s="3">
         <v>800</v>
@@ -1156,19 +1156,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="E20" s="3">
-        <v>53200</v>
+        <v>53300</v>
       </c>
       <c r="F20" s="3">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="G20" s="3">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="H20" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="I20" s="3">
         <v>20100</v>
@@ -1198,22 +1198,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>306800</v>
+        <v>307500</v>
       </c>
       <c r="E21" s="3">
-        <v>-242000</v>
+        <v>-242600</v>
       </c>
       <c r="F21" s="3">
-        <v>460700</v>
+        <v>461700</v>
       </c>
       <c r="G21" s="3">
-        <v>592800</v>
+        <v>594100</v>
       </c>
       <c r="H21" s="3">
-        <v>514900</v>
+        <v>516000</v>
       </c>
       <c r="I21" s="3">
-        <v>362800</v>
+        <v>363600</v>
       </c>
       <c r="J21" s="3">
         <v>21400</v>
@@ -1249,7 +1249,7 @@
         <v>10900</v>
       </c>
       <c r="G22" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="H22" s="3">
         <v>7800</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>279900</v>
+        <v>280500</v>
       </c>
       <c r="E23" s="3">
-        <v>-288700</v>
+        <v>-289300</v>
       </c>
       <c r="F23" s="3">
-        <v>399400</v>
+        <v>400200</v>
       </c>
       <c r="G23" s="3">
-        <v>532900</v>
+        <v>534100</v>
       </c>
       <c r="H23" s="3">
-        <v>473900</v>
+        <v>474900</v>
       </c>
       <c r="I23" s="3">
-        <v>351300</v>
+        <v>352100</v>
       </c>
       <c r="J23" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="K23" s="3">
         <v>1900</v>
@@ -1324,22 +1324,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>77500</v>
+        <v>77600</v>
       </c>
       <c r="E24" s="3">
-        <v>113300</v>
+        <v>113600</v>
       </c>
       <c r="F24" s="3">
-        <v>104100</v>
+        <v>104300</v>
       </c>
       <c r="G24" s="3">
-        <v>121800</v>
+        <v>122000</v>
       </c>
       <c r="H24" s="3">
-        <v>96400</v>
+        <v>96600</v>
       </c>
       <c r="I24" s="3">
-        <v>61300</v>
+        <v>61400</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>202400</v>
+        <v>202800</v>
       </c>
       <c r="E26" s="3">
-        <v>-402000</v>
+        <v>-402900</v>
       </c>
       <c r="F26" s="3">
-        <v>295300</v>
+        <v>295900</v>
       </c>
       <c r="G26" s="3">
-        <v>411200</v>
+        <v>412000</v>
       </c>
       <c r="H26" s="3">
-        <v>377500</v>
+        <v>378300</v>
       </c>
       <c r="I26" s="3">
-        <v>290000</v>
+        <v>290600</v>
       </c>
       <c r="J26" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="K26" s="3">
         <v>1900</v>
@@ -1450,22 +1450,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>204500</v>
+        <v>204900</v>
       </c>
       <c r="E27" s="3">
-        <v>-401500</v>
+        <v>-402300</v>
       </c>
       <c r="F27" s="3">
-        <v>289800</v>
+        <v>290400</v>
       </c>
       <c r="G27" s="3">
-        <v>409300</v>
+        <v>410200</v>
       </c>
       <c r="H27" s="3">
-        <v>388000</v>
+        <v>388800</v>
       </c>
       <c r="I27" s="3">
-        <v>296000</v>
+        <v>296600</v>
       </c>
       <c r="J27" s="3">
         <v>19600</v>
@@ -1660,19 +1660,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-68700</v>
+        <v>-68800</v>
       </c>
       <c r="E32" s="3">
-        <v>-53200</v>
+        <v>-53300</v>
       </c>
       <c r="F32" s="3">
-        <v>-62900</v>
+        <v>-63000</v>
       </c>
       <c r="G32" s="3">
-        <v>-56200</v>
+        <v>-56300</v>
       </c>
       <c r="H32" s="3">
-        <v>-37600</v>
+        <v>-37700</v>
       </c>
       <c r="I32" s="3">
         <v>-20100</v>
@@ -1702,22 +1702,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>204500</v>
+        <v>204900</v>
       </c>
       <c r="E33" s="3">
-        <v>-401500</v>
+        <v>-402300</v>
       </c>
       <c r="F33" s="3">
-        <v>289800</v>
+        <v>290400</v>
       </c>
       <c r="G33" s="3">
-        <v>409300</v>
+        <v>410200</v>
       </c>
       <c r="H33" s="3">
-        <v>388000</v>
+        <v>388800</v>
       </c>
       <c r="I33" s="3">
-        <v>296000</v>
+        <v>296600</v>
       </c>
       <c r="J33" s="3">
         <v>19600</v>
@@ -1786,22 +1786,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>204500</v>
+        <v>204900</v>
       </c>
       <c r="E35" s="3">
-        <v>-401500</v>
+        <v>-402300</v>
       </c>
       <c r="F35" s="3">
-        <v>289800</v>
+        <v>290400</v>
       </c>
       <c r="G35" s="3">
-        <v>409300</v>
+        <v>410200</v>
       </c>
       <c r="H35" s="3">
-        <v>388000</v>
+        <v>388800</v>
       </c>
       <c r="I35" s="3">
-        <v>296000</v>
+        <v>296600</v>
       </c>
       <c r="J35" s="3">
         <v>19600</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>691400</v>
+        <v>692900</v>
       </c>
       <c r="E41" s="3">
-        <v>767500</v>
+        <v>769200</v>
       </c>
       <c r="F41" s="3">
-        <v>463500</v>
+        <v>464500</v>
       </c>
       <c r="G41" s="3">
-        <v>360000</v>
+        <v>360800</v>
       </c>
       <c r="H41" s="3">
-        <v>340000</v>
+        <v>340800</v>
       </c>
       <c r="I41" s="3">
-        <v>614800</v>
+        <v>616100</v>
       </c>
       <c r="J41" s="3">
-        <v>35500</v>
+        <v>35600</v>
       </c>
       <c r="K41" s="3">
         <v>24300</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>771600</v>
+        <v>773300</v>
       </c>
       <c r="E42" s="3">
-        <v>394100</v>
+        <v>394900</v>
       </c>
       <c r="F42" s="3">
-        <v>1042500</v>
+        <v>1044700</v>
       </c>
       <c r="G42" s="3">
-        <v>1696400</v>
+        <v>1700100</v>
       </c>
       <c r="H42" s="3">
-        <v>1215900</v>
+        <v>1218500</v>
       </c>
       <c r="I42" s="3">
-        <v>336500</v>
+        <v>337300</v>
       </c>
       <c r="J42" s="3">
-        <v>54300</v>
+        <v>54400</v>
       </c>
       <c r="K42" s="3">
         <v>43100</v>
@@ -1995,22 +1995,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>115300</v>
+        <v>115500</v>
       </c>
       <c r="E43" s="3">
-        <v>110500</v>
+        <v>110700</v>
       </c>
       <c r="F43" s="3">
-        <v>82700</v>
+        <v>82900</v>
       </c>
       <c r="G43" s="3">
-        <v>72000</v>
+        <v>72200</v>
       </c>
       <c r="H43" s="3">
-        <v>120700</v>
+        <v>120900</v>
       </c>
       <c r="I43" s="3">
-        <v>56500</v>
+        <v>56600</v>
       </c>
       <c r="J43" s="3">
         <v>6100</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37100</v>
+        <v>37200</v>
       </c>
       <c r="E45" s="3">
         <v>24600</v>
       </c>
       <c r="F45" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="G45" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="H45" s="3">
-        <v>64000</v>
+        <v>64200</v>
       </c>
       <c r="I45" s="3">
-        <v>63300</v>
+        <v>63400</v>
       </c>
       <c r="J45" s="3">
         <v>3400</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1615400</v>
+        <v>1618900</v>
       </c>
       <c r="E46" s="3">
-        <v>1296600</v>
+        <v>1299500</v>
       </c>
       <c r="F46" s="3">
-        <v>1618500</v>
+        <v>1622000</v>
       </c>
       <c r="G46" s="3">
-        <v>2176100</v>
+        <v>2180800</v>
       </c>
       <c r="H46" s="3">
-        <v>1740600</v>
+        <v>1744400</v>
       </c>
       <c r="I46" s="3">
-        <v>1065600</v>
+        <v>1067900</v>
       </c>
       <c r="J46" s="3">
-        <v>99200</v>
+        <v>99400</v>
       </c>
       <c r="K46" s="3">
         <v>72400</v>
@@ -2163,22 +2163,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>123200</v>
+        <v>123400</v>
       </c>
       <c r="E47" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="F47" s="3">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="G47" s="3">
-        <v>68300</v>
+        <v>68500</v>
       </c>
       <c r="H47" s="3">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="I47" s="3">
-        <v>39700</v>
+        <v>39800</v>
       </c>
       <c r="J47" s="3">
         <v>4400</v>
@@ -2208,19 +2208,19 @@
         <v>39800</v>
       </c>
       <c r="E48" s="3">
-        <v>60400</v>
+        <v>60600</v>
       </c>
       <c r="F48" s="3">
-        <v>74900</v>
+        <v>75100</v>
       </c>
       <c r="G48" s="3">
-        <v>74000</v>
+        <v>74100</v>
       </c>
       <c r="H48" s="3">
-        <v>53400</v>
+        <v>53500</v>
       </c>
       <c r="I48" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
@@ -2253,16 +2253,16 @@
         <v>3800</v>
       </c>
       <c r="F49" s="3">
-        <v>658000</v>
+        <v>659400</v>
       </c>
       <c r="G49" s="3">
-        <v>723500</v>
+        <v>725000</v>
       </c>
       <c r="H49" s="3">
-        <v>736300</v>
+        <v>737900</v>
       </c>
       <c r="I49" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2373,22 +2373,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>399600</v>
+        <v>400500</v>
       </c>
       <c r="E52" s="3">
-        <v>1021600</v>
+        <v>1023800</v>
       </c>
       <c r="F52" s="3">
-        <v>785200</v>
+        <v>786900</v>
       </c>
       <c r="G52" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="H52" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2181000</v>
+        <v>2185700</v>
       </c>
       <c r="E54" s="3">
-        <v>2495400</v>
+        <v>2500800</v>
       </c>
       <c r="F54" s="3">
-        <v>3199300</v>
+        <v>3206300</v>
       </c>
       <c r="G54" s="3">
-        <v>3097800</v>
+        <v>3104500</v>
       </c>
       <c r="H54" s="3">
-        <v>2613100</v>
+        <v>2618800</v>
       </c>
       <c r="I54" s="3">
-        <v>1167200</v>
+        <v>1169700</v>
       </c>
       <c r="J54" s="3">
-        <v>106100</v>
+        <v>106300</v>
       </c>
       <c r="K54" s="3">
         <v>77900</v>
@@ -2535,22 +2535,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>85000</v>
+        <v>85200</v>
       </c>
       <c r="E57" s="3">
-        <v>100100</v>
+        <v>100300</v>
       </c>
       <c r="F57" s="3">
-        <v>96400</v>
+        <v>96600</v>
       </c>
       <c r="G57" s="3">
-        <v>98400</v>
+        <v>98600</v>
       </c>
       <c r="H57" s="3">
-        <v>99000</v>
+        <v>99200</v>
       </c>
       <c r="I57" s="3">
-        <v>66800</v>
+        <v>67000</v>
       </c>
       <c r="J57" s="3">
         <v>5600</v>
@@ -2577,7 +2577,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>364600</v>
+        <v>365400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>203200</v>
+        <v>203700</v>
       </c>
       <c r="E59" s="3">
-        <v>246600</v>
+        <v>247100</v>
       </c>
       <c r="F59" s="3">
-        <v>250400</v>
+        <v>250900</v>
       </c>
       <c r="G59" s="3">
-        <v>260700</v>
+        <v>261300</v>
       </c>
       <c r="H59" s="3">
-        <v>272500</v>
+        <v>273100</v>
       </c>
       <c r="I59" s="3">
-        <v>166300</v>
+        <v>166700</v>
       </c>
       <c r="J59" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="K59" s="3">
         <v>8800</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>652800</v>
+        <v>654300</v>
       </c>
       <c r="E60" s="3">
-        <v>346600</v>
+        <v>347400</v>
       </c>
       <c r="F60" s="3">
-        <v>346800</v>
+        <v>347500</v>
       </c>
       <c r="G60" s="3">
-        <v>359200</v>
+        <v>359900</v>
       </c>
       <c r="H60" s="3">
-        <v>371500</v>
+        <v>372300</v>
       </c>
       <c r="I60" s="3">
-        <v>233100</v>
+        <v>233600</v>
       </c>
       <c r="J60" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="K60" s="3">
         <v>10300</v>
@@ -2706,16 +2706,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>629000</v>
+        <v>630400</v>
       </c>
       <c r="F61" s="3">
-        <v>641900</v>
+        <v>643300</v>
       </c>
       <c r="G61" s="3">
-        <v>682600</v>
+        <v>684100</v>
       </c>
       <c r="H61" s="3">
-        <v>672000</v>
+        <v>673400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2745,19 +2745,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="E62" s="3">
-        <v>61300</v>
+        <v>61400</v>
       </c>
       <c r="F62" s="3">
-        <v>166600</v>
+        <v>167000</v>
       </c>
       <c r="G62" s="3">
-        <v>165900</v>
+        <v>166200</v>
       </c>
       <c r="H62" s="3">
-        <v>50900</v>
+        <v>51000</v>
       </c>
       <c r="I62" s="3">
         <v>3700</v>
@@ -2913,22 +2913,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>696100</v>
+        <v>697600</v>
       </c>
       <c r="E66" s="3">
-        <v>1056000</v>
+        <v>1058300</v>
       </c>
       <c r="F66" s="3">
-        <v>1182400</v>
+        <v>1184900</v>
       </c>
       <c r="G66" s="3">
-        <v>1233600</v>
+        <v>1236300</v>
       </c>
       <c r="H66" s="3">
-        <v>1107100</v>
+        <v>1109500</v>
       </c>
       <c r="I66" s="3">
-        <v>239400</v>
+        <v>239900</v>
       </c>
       <c r="J66" s="3">
         <v>18700</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>733100</v>
+        <v>734700</v>
       </c>
       <c r="E72" s="3">
-        <v>644500</v>
+        <v>645900</v>
       </c>
       <c r="F72" s="3">
-        <v>1163400</v>
+        <v>1166000</v>
       </c>
       <c r="G72" s="3">
-        <v>1028500</v>
+        <v>1030700</v>
       </c>
       <c r="H72" s="3">
-        <v>738700</v>
+        <v>740300</v>
       </c>
       <c r="I72" s="3">
-        <v>350700</v>
+        <v>351500</v>
       </c>
       <c r="J72" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K72" s="3">
         <v>-13500</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1484900</v>
+        <v>1488100</v>
       </c>
       <c r="E76" s="3">
-        <v>1439300</v>
+        <v>1442500</v>
       </c>
       <c r="F76" s="3">
-        <v>2017000</v>
+        <v>2021400</v>
       </c>
       <c r="G76" s="3">
-        <v>1864200</v>
+        <v>1868200</v>
       </c>
       <c r="H76" s="3">
-        <v>1506000</v>
+        <v>1509300</v>
       </c>
       <c r="I76" s="3">
-        <v>927800</v>
+        <v>929800</v>
       </c>
       <c r="J76" s="3">
-        <v>87400</v>
+        <v>87500</v>
       </c>
       <c r="K76" s="3">
         <v>67300</v>
@@ -3440,22 +3440,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>204500</v>
+        <v>204900</v>
       </c>
       <c r="E81" s="3">
-        <v>-401500</v>
+        <v>-402300</v>
       </c>
       <c r="F81" s="3">
-        <v>289800</v>
+        <v>290400</v>
       </c>
       <c r="G81" s="3">
-        <v>409300</v>
+        <v>410200</v>
       </c>
       <c r="H81" s="3">
-        <v>388000</v>
+        <v>388800</v>
       </c>
       <c r="I81" s="3">
-        <v>296000</v>
+        <v>296600</v>
       </c>
       <c r="J81" s="3">
         <v>19600</v>
@@ -3500,22 +3500,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="E83" s="3">
         <v>36500</v>
       </c>
       <c r="F83" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="G83" s="3">
-        <v>49100</v>
+        <v>49200</v>
       </c>
       <c r="H83" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="I83" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
@@ -3752,22 +3752,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>169000</v>
+        <v>169400</v>
       </c>
       <c r="E89" s="3">
-        <v>214800</v>
+        <v>215300</v>
       </c>
       <c r="F89" s="3">
-        <v>424500</v>
+        <v>425400</v>
       </c>
       <c r="G89" s="3">
-        <v>750700</v>
+        <v>752400</v>
       </c>
       <c r="H89" s="3">
-        <v>458500</v>
+        <v>459500</v>
       </c>
       <c r="I89" s="3">
-        <v>397600</v>
+        <v>398500</v>
       </c>
       <c r="J89" s="3">
         <v>30100</v>
@@ -3815,19 +3815,19 @@
         <v>-11100</v>
       </c>
       <c r="E91" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="F91" s="3">
         <v>-17100</v>
       </c>
       <c r="G91" s="3">
-        <v>-25700</v>
+        <v>-25800</v>
       </c>
       <c r="H91" s="3">
         <v>-33500</v>
       </c>
       <c r="I91" s="3">
-        <v>-30100</v>
+        <v>-30200</v>
       </c>
       <c r="J91" s="3">
         <v>-1000</v>
@@ -3938,22 +3938,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>236400</v>
+        <v>236900</v>
       </c>
       <c r="E94" s="3">
-        <v>351400</v>
+        <v>352200</v>
       </c>
       <c r="F94" s="3">
-        <v>-103100</v>
+        <v>-103300</v>
       </c>
       <c r="G94" s="3">
-        <v>-555200</v>
+        <v>-556500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1382500</v>
+        <v>-1385500</v>
       </c>
       <c r="I94" s="3">
-        <v>-25900</v>
+        <v>-26000</v>
       </c>
       <c r="J94" s="3">
         <v>-16300</v>
@@ -3998,16 +3998,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-115900</v>
+        <v>-116100</v>
       </c>
       <c r="E96" s="3">
-        <v>-117500</v>
+        <v>-117700</v>
       </c>
       <c r="F96" s="3">
-        <v>-154900</v>
+        <v>-155200</v>
       </c>
       <c r="G96" s="3">
-        <v>-120900</v>
+        <v>-121100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4166,19 +4166,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-472900</v>
+        <v>-474000</v>
       </c>
       <c r="E100" s="3">
-        <v>-246200</v>
+        <v>-246700</v>
       </c>
       <c r="F100" s="3">
-        <v>-206400</v>
+        <v>-206900</v>
       </c>
       <c r="G100" s="3">
-        <v>-175500</v>
+        <v>-175900</v>
       </c>
       <c r="H100" s="3">
-        <v>645900</v>
+        <v>647300</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
@@ -4211,7 +4211,7 @@
         <v>5700</v>
       </c>
       <c r="E101" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="F101" s="3">
         <v>-11200</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61800</v>
+        <v>-61900</v>
       </c>
       <c r="E102" s="3">
-        <v>314300</v>
+        <v>315000</v>
       </c>
       <c r="F102" s="3">
-        <v>103800</v>
+        <v>104000</v>
       </c>
       <c r="G102" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="H102" s="3">
-        <v>-274800</v>
+        <v>-275400</v>
       </c>
       <c r="I102" s="3">
-        <v>368400</v>
+        <v>369200</v>
       </c>
       <c r="J102" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="K102" s="3">
         <v>-40400</v>
